--- a/notes/conditions.xlsx
+++ b/notes/conditions.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/momo/Dropbox/projects/connectives-qud/notes/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5976309D-EC4E-6349-BDC7-107D8924556E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B291C301-08E6-5647-B214-4C09F4745401}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20240" activeTab="4" xr2:uid="{3AB9929D-0A0B-1747-A8A7-16F45675C35B}"/>
+    <workbookView xWindow="5420" yWindow="500" windowWidth="26660" windowHeight="20240" xr2:uid="{3AB9929D-0A0B-1747-A8A7-16F45675C35B}"/>
   </bookViews>
   <sheets>
     <sheet name="overall" sheetId="9" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2334" uniqueCount="324">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2275" uniqueCount="339">
   <si>
     <t>QUD</t>
   </si>
@@ -1014,6 +1014,51 @@
   </si>
   <si>
     <t>there is an S.</t>
+  </si>
+  <si>
+    <t>rel_ir-neg</t>
+  </si>
+  <si>
+    <t>rel_ir-pos</t>
+  </si>
+  <si>
+    <t>There is an A and/but</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>is there an A or a D</t>
+  </si>
+  <si>
+    <t>there's an A.</t>
+  </si>
+  <si>
+    <t>is there an A and a D</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>there's only an A.</t>
+  </si>
+  <si>
+    <t>Is there an A or a B</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>there's both.</t>
+  </si>
+  <si>
+    <t>Is there an X or a Y</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Is there an </t>
+  </si>
+  <si>
+    <t>There is no X</t>
   </si>
 </sst>
 </file>
@@ -1681,8 +1726,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CD98CBC-AE24-7441-ABC5-9741245297FD}">
   <dimension ref="A1:N118"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" zoomScale="114" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView tabSelected="1" topLeftCell="A24" zoomScale="114" workbookViewId="0">
+      <selection activeCell="G54" sqref="G54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1690,6 +1735,7 @@
     <col min="4" max="4" width="31" customWidth="1"/>
     <col min="6" max="6" width="22.1640625" customWidth="1"/>
     <col min="7" max="7" width="13.33203125" customWidth="1"/>
+    <col min="8" max="8" width="20.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="34" x14ac:dyDescent="0.2">
@@ -1932,7 +1978,7 @@
         <v>70</v>
       </c>
       <c r="H8" s="10" t="s">
-        <v>225</v>
+        <v>324</v>
       </c>
       <c r="I8" s="11" t="s">
         <v>9</v>
@@ -1964,7 +2010,7 @@
         <v>244</v>
       </c>
       <c r="H9" s="13" t="s">
-        <v>225</v>
+        <v>324</v>
       </c>
       <c r="I9" s="14" t="s">
         <v>9</v>
@@ -2124,7 +2170,7 @@
         <v>102</v>
       </c>
       <c r="H14" s="10" t="s">
-        <v>225</v>
+        <v>325</v>
       </c>
       <c r="I14" s="11" t="s">
         <v>255</v>
@@ -2156,7 +2202,7 @@
         <v>90</v>
       </c>
       <c r="H15" s="23" t="s">
-        <v>225</v>
+        <v>325</v>
       </c>
       <c r="I15" s="24" t="s">
         <v>255</v>
@@ -2902,7 +2948,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="41" spans="1:13" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:13" ht="17" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
         <v>12</v>
       </c>
@@ -2929,435 +2975,193 @@
       </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A42" s="1">
-        <v>13</v>
-      </c>
-      <c r="B42" s="34" t="s">
-        <v>284</v>
-      </c>
-      <c r="C42" s="85" t="s">
-        <v>145</v>
-      </c>
-      <c r="D42" s="85" t="s">
-        <v>144</v>
-      </c>
-      <c r="E42" s="86" t="s">
-        <v>179</v>
-      </c>
-      <c r="F42" s="35" t="s">
-        <v>285</v>
-      </c>
-      <c r="G42" s="35" t="s">
-        <v>1</v>
-      </c>
-      <c r="H42" s="35" t="s">
-        <v>286</v>
-      </c>
-      <c r="I42" s="35" t="s">
-        <v>287</v>
-      </c>
-      <c r="J42" s="86" t="s">
-        <v>303</v>
-      </c>
-      <c r="K42" s="36" t="s">
-        <v>289</v>
-      </c>
+      <c r="A42" s="26"/>
+      <c r="B42" s="26"/>
+      <c r="C42" s="46"/>
+      <c r="D42" s="26"/>
+      <c r="E42" s="26"/>
+      <c r="F42" s="26"/>
+      <c r="G42" s="26"/>
+      <c r="H42" s="46"/>
+      <c r="I42" s="26"/>
+      <c r="J42" s="46"/>
       <c r="M42" t="s">
         <v>312</v>
       </c>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A43" s="1">
-        <v>14</v>
-      </c>
-      <c r="B43" s="83" t="s">
-        <v>288</v>
-      </c>
-      <c r="C43" s="87" t="s">
-        <v>144</v>
-      </c>
-      <c r="D43" s="87" t="s">
-        <v>145</v>
-      </c>
-      <c r="E43" s="46" t="s">
-        <v>179</v>
-      </c>
-      <c r="F43" s="26" t="s">
-        <v>290</v>
-      </c>
-      <c r="G43" s="26" t="s">
-        <v>2</v>
-      </c>
-      <c r="H43" s="26" t="s">
-        <v>165</v>
-      </c>
-      <c r="I43" s="26" t="s">
-        <v>243</v>
-      </c>
-      <c r="J43" s="26" t="s">
-        <v>303</v>
-      </c>
-      <c r="K43" s="33" t="s">
-        <v>289</v>
-      </c>
+      <c r="A43" s="26"/>
+      <c r="B43" s="26"/>
+      <c r="C43" s="46"/>
+      <c r="D43" s="26"/>
+      <c r="E43" s="26"/>
+      <c r="F43" s="26"/>
+      <c r="G43" s="26"/>
+      <c r="H43" s="26"/>
+      <c r="I43" s="26"/>
+      <c r="J43" s="46"/>
       <c r="M43" t="s">
         <v>313</v>
       </c>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A44" s="1">
-        <v>15</v>
-      </c>
-      <c r="B44" s="83" t="s">
-        <v>291</v>
-      </c>
-      <c r="C44" s="87" t="s">
-        <v>145</v>
-      </c>
-      <c r="D44" s="87" t="s">
-        <v>144</v>
-      </c>
-      <c r="E44" s="46" t="s">
-        <v>179</v>
-      </c>
-      <c r="F44" s="26" t="s">
-        <v>292</v>
-      </c>
-      <c r="G44" s="26" t="s">
-        <v>1</v>
-      </c>
-      <c r="H44" s="26" t="s">
-        <v>205</v>
-      </c>
-      <c r="I44" s="26" t="s">
-        <v>202</v>
-      </c>
-      <c r="J44" s="26" t="s">
-        <v>296</v>
-      </c>
-      <c r="K44" s="33" t="s">
-        <v>289</v>
-      </c>
+      <c r="A44" s="26"/>
+      <c r="B44" s="26"/>
+      <c r="C44" s="46"/>
+      <c r="D44" s="26"/>
+      <c r="E44" s="26"/>
+      <c r="F44" s="26"/>
+      <c r="G44" s="26"/>
+      <c r="H44" s="26"/>
+      <c r="I44" s="26"/>
+      <c r="J44" s="46"/>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A45" s="1">
-        <v>16</v>
-      </c>
-      <c r="B45" s="83" t="s">
-        <v>294</v>
-      </c>
-      <c r="C45" s="87" t="s">
-        <v>144</v>
-      </c>
-      <c r="D45" s="87" t="s">
-        <v>145</v>
-      </c>
-      <c r="E45" s="26" t="s">
-        <v>179</v>
-      </c>
-      <c r="F45" s="26" t="s">
-        <v>293</v>
-      </c>
-      <c r="G45" s="26" t="s">
-        <v>2</v>
-      </c>
-      <c r="H45" s="26" t="s">
-        <v>120</v>
-      </c>
-      <c r="I45" s="26" t="s">
-        <v>275</v>
-      </c>
-      <c r="J45" s="26" t="s">
-        <v>296</v>
-      </c>
-      <c r="K45" s="33" t="s">
-        <v>289</v>
-      </c>
+      <c r="A45" s="26"/>
+      <c r="B45" s="26"/>
+      <c r="C45" s="26"/>
+      <c r="D45" s="26"/>
+      <c r="E45" s="26"/>
+      <c r="F45" s="26"/>
+      <c r="G45" s="26"/>
+      <c r="H45" s="26"/>
+      <c r="I45" s="26"/>
+      <c r="J45" s="46"/>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A46" s="1">
-        <v>17</v>
-      </c>
-      <c r="B46" s="83" t="s">
-        <v>297</v>
-      </c>
-      <c r="C46" s="87" t="s">
-        <v>145</v>
-      </c>
-      <c r="D46" s="87" t="s">
-        <v>144</v>
-      </c>
-      <c r="E46" s="26" t="s">
-        <v>179</v>
-      </c>
-      <c r="F46" s="26" t="s">
-        <v>301</v>
-      </c>
-      <c r="G46" s="26" t="s">
-        <v>1</v>
-      </c>
-      <c r="H46" s="26" t="s">
-        <v>302</v>
-      </c>
-      <c r="I46" s="26" t="s">
-        <v>70</v>
-      </c>
-      <c r="J46" s="26" t="s">
-        <v>303</v>
-      </c>
-      <c r="K46" s="33" t="s">
-        <v>295</v>
-      </c>
+      <c r="A46" s="26"/>
+      <c r="B46" s="26"/>
+      <c r="C46" s="26">
+        <v>12</v>
+      </c>
+      <c r="D46" s="26"/>
+      <c r="E46" s="26"/>
+      <c r="F46" s="26"/>
+      <c r="G46" s="26"/>
+      <c r="H46" s="26"/>
+      <c r="I46" s="26"/>
+      <c r="J46" s="46"/>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A47" s="1">
-        <v>18</v>
-      </c>
-      <c r="B47" s="83" t="s">
-        <v>298</v>
-      </c>
-      <c r="C47" s="87" t="s">
-        <v>144</v>
-      </c>
-      <c r="D47" s="87" t="s">
-        <v>145</v>
-      </c>
-      <c r="E47" s="26" t="s">
-        <v>179</v>
-      </c>
-      <c r="F47" s="26" t="s">
-        <v>304</v>
-      </c>
-      <c r="G47" s="26" t="s">
-        <v>2</v>
-      </c>
-      <c r="H47" s="26" t="s">
-        <v>305</v>
-      </c>
-      <c r="I47" s="26" t="s">
-        <v>41</v>
-      </c>
-      <c r="J47" s="26" t="s">
-        <v>303</v>
-      </c>
-      <c r="K47" s="33" t="s">
-        <v>295</v>
-      </c>
+      <c r="A47" s="26"/>
+      <c r="B47" s="26"/>
+      <c r="C47" s="26"/>
+      <c r="D47" s="26"/>
+      <c r="E47" s="26"/>
+      <c r="F47" s="26"/>
+      <c r="G47" s="26"/>
+      <c r="H47" s="26"/>
+      <c r="I47" s="26"/>
+      <c r="J47" s="46"/>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A48" s="1">
-        <v>19</v>
-      </c>
-      <c r="B48" s="83" t="s">
-        <v>299</v>
-      </c>
-      <c r="C48" s="87" t="s">
-        <v>145</v>
-      </c>
-      <c r="D48" s="87" t="s">
-        <v>144</v>
-      </c>
-      <c r="E48" s="26" t="s">
-        <v>179</v>
-      </c>
-      <c r="F48" s="26" t="s">
-        <v>306</v>
-      </c>
-      <c r="G48" s="26" t="s">
-        <v>1</v>
-      </c>
-      <c r="H48" s="26" t="s">
-        <v>308</v>
-      </c>
-      <c r="I48" s="26" t="s">
-        <v>309</v>
-      </c>
-      <c r="J48" s="26" t="s">
-        <v>296</v>
-      </c>
-      <c r="K48" s="33" t="s">
-        <v>295</v>
-      </c>
+      <c r="A48" s="26"/>
+      <c r="B48" s="26"/>
+      <c r="C48" s="26"/>
+      <c r="D48" s="26" t="s">
+        <v>337</v>
+      </c>
+      <c r="E48" s="26"/>
+      <c r="F48" s="26"/>
+      <c r="G48" s="26"/>
+      <c r="H48" s="26"/>
+      <c r="I48" s="26"/>
+      <c r="J48" s="46"/>
       <c r="M48" s="23" t="s">
         <v>231</v>
       </c>
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A49" s="1">
-        <v>20</v>
-      </c>
-      <c r="B49" s="83" t="s">
-        <v>300</v>
-      </c>
-      <c r="C49" s="87" t="s">
-        <v>144</v>
-      </c>
-      <c r="D49" s="87" t="s">
-        <v>145</v>
-      </c>
-      <c r="E49" s="26" t="s">
-        <v>179</v>
-      </c>
-      <c r="F49" s="26" t="s">
-        <v>307</v>
-      </c>
-      <c r="G49" s="26" t="s">
-        <v>2</v>
-      </c>
-      <c r="H49" s="26" t="s">
-        <v>310</v>
-      </c>
-      <c r="I49" s="26" t="s">
-        <v>311</v>
-      </c>
-      <c r="J49" s="26" t="s">
-        <v>296</v>
-      </c>
-      <c r="K49" s="33" t="s">
-        <v>295</v>
-      </c>
+      <c r="A49" s="26"/>
+      <c r="B49" s="26"/>
+      <c r="C49" s="26"/>
+      <c r="D49" s="26"/>
+      <c r="E49" s="26"/>
+      <c r="F49" s="26"/>
+      <c r="G49" s="26"/>
+      <c r="H49" s="26"/>
+      <c r="I49" s="26"/>
+      <c r="J49" s="46"/>
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A50" s="1">
-        <v>21</v>
-      </c>
-      <c r="B50" s="83" t="s">
-        <v>314</v>
-      </c>
-      <c r="C50" s="87" t="s">
-        <v>145</v>
-      </c>
-      <c r="D50" s="87" t="s">
-        <v>144</v>
-      </c>
-      <c r="E50" s="26" t="s">
-        <v>179</v>
-      </c>
-      <c r="F50" s="26" t="s">
-        <v>96</v>
-      </c>
-      <c r="G50" s="26" t="s">
-        <v>1</v>
-      </c>
-      <c r="H50" s="26" t="s">
-        <v>318</v>
-      </c>
-      <c r="I50" s="26" t="s">
-        <v>319</v>
-      </c>
-      <c r="J50" s="26" t="s">
-        <v>320</v>
-      </c>
-      <c r="K50" s="33" t="s">
-        <v>289</v>
-      </c>
+      <c r="A50" s="26"/>
+      <c r="B50" s="26"/>
+      <c r="C50" s="26"/>
+      <c r="D50" s="26"/>
+      <c r="E50" s="26"/>
+      <c r="F50" s="26"/>
+      <c r="G50" s="26"/>
+      <c r="H50" s="26"/>
+      <c r="I50" s="26"/>
+      <c r="J50" s="46"/>
     </row>
     <row r="51" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="1">
-        <v>22</v>
-      </c>
-      <c r="B51" s="83" t="s">
-        <v>315</v>
-      </c>
-      <c r="C51" s="87" t="s">
-        <v>144</v>
-      </c>
-      <c r="D51" s="87" t="s">
-        <v>145</v>
-      </c>
-      <c r="E51" s="26" t="s">
-        <v>179</v>
-      </c>
+      <c r="A51" s="26"/>
+      <c r="B51" s="26" t="s">
+        <v>161</v>
+      </c>
+      <c r="C51" s="26"/>
+      <c r="D51" s="26" t="s">
+        <v>328</v>
+      </c>
+      <c r="E51" s="26"/>
       <c r="F51" s="26" t="s">
-        <v>321</v>
+        <v>327</v>
       </c>
       <c r="G51" s="26" t="s">
-        <v>2</v>
-      </c>
-      <c r="H51" s="26" t="s">
-        <v>89</v>
-      </c>
-      <c r="I51" s="26" t="s">
-        <v>323</v>
-      </c>
-      <c r="J51" s="26" t="s">
-        <v>320</v>
-      </c>
-      <c r="K51" s="33" t="s">
-        <v>289</v>
-      </c>
+        <v>329</v>
+      </c>
+      <c r="H51" s="26"/>
+      <c r="I51" s="26"/>
+      <c r="J51" s="26"/>
     </row>
     <row r="52" spans="1:14" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A52" s="1">
-        <v>23</v>
-      </c>
-      <c r="B52" s="83" t="s">
-        <v>316</v>
-      </c>
-      <c r="C52" s="87" t="s">
-        <v>145</v>
-      </c>
-      <c r="D52" s="87" t="s">
-        <v>144</v>
-      </c>
-      <c r="E52" s="26" t="s">
-        <v>179</v>
-      </c>
-      <c r="F52" s="52" t="s">
-        <v>322</v>
+      <c r="A52" s="26"/>
+      <c r="B52" s="26"/>
+      <c r="C52" s="26"/>
+      <c r="D52" s="52" t="s">
+        <v>330</v>
+      </c>
+      <c r="E52" s="26"/>
+      <c r="F52" s="26" t="s">
+        <v>331</v>
       </c>
       <c r="G52" s="26" t="s">
-        <v>1</v>
-      </c>
-      <c r="H52" s="26" t="s">
-        <v>85</v>
-      </c>
-      <c r="I52" s="26" t="s">
-        <v>309</v>
-      </c>
-      <c r="J52" s="26" t="s">
-        <v>320</v>
-      </c>
-      <c r="K52" s="33" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="53" spans="1:14" s="1" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="1">
-        <v>24</v>
-      </c>
-      <c r="B53" s="37" t="s">
-        <v>317</v>
-      </c>
-      <c r="C53" s="88" t="s">
-        <v>144</v>
-      </c>
-      <c r="D53" s="88" t="s">
-        <v>145</v>
-      </c>
-      <c r="E53" s="89" t="s">
-        <v>179</v>
-      </c>
-      <c r="F53" s="90" t="s">
-        <v>228</v>
-      </c>
-      <c r="G53" s="38" t="s">
-        <v>2</v>
-      </c>
-      <c r="H53" s="38" t="s">
-        <v>81</v>
-      </c>
-      <c r="I53" s="38" t="s">
-        <v>102</v>
-      </c>
-      <c r="J53" s="89" t="s">
-        <v>320</v>
-      </c>
-      <c r="K53" s="33" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="54" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+        <v>332</v>
+      </c>
+      <c r="H52" s="26"/>
+      <c r="I52" s="26"/>
+      <c r="J52" s="26"/>
+    </row>
+    <row r="53" spans="1:14" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A53" s="26"/>
+      <c r="B53" s="26"/>
+      <c r="C53" s="46"/>
+      <c r="D53" s="52" t="s">
+        <v>333</v>
+      </c>
+      <c r="E53" s="26"/>
+      <c r="F53" s="26" t="s">
+        <v>334</v>
+      </c>
+      <c r="G53" s="26" t="s">
+        <v>335</v>
+      </c>
+      <c r="H53" s="46"/>
+      <c r="I53" s="26"/>
+      <c r="J53" s="26"/>
+    </row>
+    <row r="54" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="D54" s="26" t="s">
+        <v>336</v>
+      </c>
+      <c r="F54" s="26" t="s">
+        <v>338</v>
+      </c>
+      <c r="G54" s="26" t="s">
+        <v>117</v>
+      </c>
+    </row>
     <row r="55" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="56" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="57" spans="1:14" x14ac:dyDescent="0.2">
@@ -4562,7 +4366,7 @@
   <dimension ref="A1:X56"/>
   <sheetViews>
     <sheetView zoomScale="114" workbookViewId="0">
-      <selection activeCell="K25" sqref="K25"/>
+      <selection activeCell="H32" sqref="H32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5251,12 +5055,20 @@
     </row>
     <row r="20" spans="1:24" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="26"/>
-      <c r="B20" s="26"/>
+      <c r="B20" s="26" t="s">
+        <v>161</v>
+      </c>
       <c r="C20" s="26"/>
-      <c r="D20" s="26"/>
+      <c r="D20" s="26" t="s">
+        <v>170</v>
+      </c>
       <c r="E20" s="26"/>
-      <c r="F20" s="26"/>
-      <c r="G20" s="26"/>
+      <c r="F20" s="26" t="s">
+        <v>326</v>
+      </c>
+      <c r="G20" s="26" t="s">
+        <v>62</v>
+      </c>
       <c r="H20" s="26"/>
       <c r="I20" s="26"/>
       <c r="J20" s="26"/>
@@ -5972,7 +5784,7 @@
   <dimension ref="A1:X39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:K25"/>
+      <selection activeCell="C2" sqref="C2:D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7843,7 +7655,7 @@
   <dimension ref="A1:K25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B15"/>
+      <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7890,8 +7702,12 @@
       <c r="B2" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
+      <c r="C2" t="s">
+        <v>144</v>
+      </c>
+      <c r="D2" t="s">
+        <v>145</v>
+      </c>
       <c r="E2" s="23" t="s">
         <v>176</v>
       </c>
@@ -7921,8 +7737,12 @@
       <c r="B3" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="C3" s="13"/>
-      <c r="D3" s="13"/>
+      <c r="C3" t="s">
+        <v>145</v>
+      </c>
+      <c r="D3" t="s">
+        <v>144</v>
+      </c>
       <c r="E3" s="13" t="s">
         <v>176</v>
       </c>
@@ -7952,8 +7772,12 @@
       <c r="B4" s="23" t="s">
         <v>67</v>
       </c>
-      <c r="C4" s="10"/>
-      <c r="D4" s="10"/>
+      <c r="C4" t="s">
+        <v>144</v>
+      </c>
+      <c r="D4" t="s">
+        <v>145</v>
+      </c>
       <c r="E4" s="10" t="s">
         <v>176</v>
       </c>
@@ -7983,8 +7807,12 @@
       <c r="B5" s="23" t="s">
         <v>71</v>
       </c>
-      <c r="C5" s="13"/>
-      <c r="D5" s="13"/>
+      <c r="C5" t="s">
+        <v>145</v>
+      </c>
+      <c r="D5" t="s">
+        <v>144</v>
+      </c>
       <c r="E5" s="13" t="s">
         <v>176</v>
       </c>
@@ -8014,8 +7842,12 @@
       <c r="B6" s="10" t="s">
         <v>246</v>
       </c>
-      <c r="C6" s="10"/>
-      <c r="D6" s="10"/>
+      <c r="C6" t="s">
+        <v>144</v>
+      </c>
+      <c r="D6" t="s">
+        <v>145</v>
+      </c>
       <c r="E6" s="10" t="s">
         <v>178</v>
       </c>
@@ -8045,8 +7877,12 @@
       <c r="B7" s="13" t="s">
         <v>248</v>
       </c>
-      <c r="C7" s="13"/>
-      <c r="D7" s="13"/>
+      <c r="C7" t="s">
+        <v>145</v>
+      </c>
+      <c r="D7" t="s">
+        <v>144</v>
+      </c>
       <c r="E7" s="13" t="s">
         <v>178</v>
       </c>
@@ -8076,8 +7912,12 @@
       <c r="B8" s="23" t="s">
         <v>53</v>
       </c>
-      <c r="C8" s="23"/>
-      <c r="D8" s="23"/>
+      <c r="C8" t="s">
+        <v>144</v>
+      </c>
+      <c r="D8" t="s">
+        <v>145</v>
+      </c>
       <c r="E8" s="23" t="s">
         <v>177</v>
       </c>
@@ -8107,8 +7947,12 @@
       <c r="B9" s="23" t="s">
         <v>59</v>
       </c>
-      <c r="C9" s="23"/>
-      <c r="D9" s="23"/>
+      <c r="C9" t="s">
+        <v>145</v>
+      </c>
+      <c r="D9" t="s">
+        <v>144</v>
+      </c>
       <c r="E9" s="23" t="s">
         <v>177</v>
       </c>
@@ -8138,8 +7982,12 @@
       <c r="B10" s="10" t="s">
         <v>252</v>
       </c>
-      <c r="C10" s="10"/>
-      <c r="D10" s="10"/>
+      <c r="C10" t="s">
+        <v>144</v>
+      </c>
+      <c r="D10" t="s">
+        <v>145</v>
+      </c>
       <c r="E10" s="10" t="s">
         <v>178</v>
       </c>
@@ -8169,8 +8017,12 @@
       <c r="B11" s="23" t="s">
         <v>256</v>
       </c>
-      <c r="C11" s="23"/>
-      <c r="D11" s="23"/>
+      <c r="C11" t="s">
+        <v>145</v>
+      </c>
+      <c r="D11" t="s">
+        <v>144</v>
+      </c>
       <c r="E11" s="23" t="s">
         <v>178</v>
       </c>
@@ -8200,8 +8052,12 @@
       <c r="B12" s="10" t="s">
         <v>259</v>
       </c>
-      <c r="C12" s="10"/>
-      <c r="D12" s="10"/>
+      <c r="C12" t="s">
+        <v>144</v>
+      </c>
+      <c r="D12" t="s">
+        <v>145</v>
+      </c>
       <c r="E12" s="10" t="s">
         <v>177</v>
       </c>
@@ -8231,8 +8087,12 @@
       <c r="B13" s="13" t="s">
         <v>261</v>
       </c>
-      <c r="C13" s="13"/>
-      <c r="D13" s="13"/>
+      <c r="C13" t="s">
+        <v>145</v>
+      </c>
+      <c r="D13" t="s">
+        <v>144</v>
+      </c>
       <c r="E13" s="13" t="s">
         <v>177</v>
       </c>
@@ -8262,8 +8122,12 @@
       <c r="B14" s="60" t="s">
         <v>75</v>
       </c>
-      <c r="C14" s="54"/>
-      <c r="D14" s="54"/>
+      <c r="C14" t="s">
+        <v>144</v>
+      </c>
+      <c r="D14" t="s">
+        <v>145</v>
+      </c>
       <c r="E14" s="54" t="s">
         <v>176</v>
       </c>
@@ -8293,8 +8157,12 @@
       <c r="B15" s="54" t="s">
         <v>95</v>
       </c>
-      <c r="C15" s="57"/>
-      <c r="D15" s="57"/>
+      <c r="C15" t="s">
+        <v>145</v>
+      </c>
+      <c r="D15" t="s">
+        <v>144</v>
+      </c>
       <c r="E15" s="57" t="s">
         <v>176</v>
       </c>
@@ -8324,8 +8192,12 @@
       <c r="B16" s="54" t="s">
         <v>91</v>
       </c>
-      <c r="C16" s="60"/>
-      <c r="D16" s="60"/>
+      <c r="C16" t="s">
+        <v>144</v>
+      </c>
+      <c r="D16" t="s">
+        <v>145</v>
+      </c>
       <c r="E16" s="60" t="s">
         <v>176</v>
       </c>
@@ -8355,8 +8227,12 @@
       <c r="B17" s="57" t="s">
         <v>94</v>
       </c>
-      <c r="C17" s="57"/>
-      <c r="D17" s="57"/>
+      <c r="C17" t="s">
+        <v>145</v>
+      </c>
+      <c r="D17" t="s">
+        <v>144</v>
+      </c>
       <c r="E17" s="57" t="s">
         <v>176</v>
       </c>
@@ -8386,8 +8262,12 @@
       <c r="B18" s="60" t="s">
         <v>264</v>
       </c>
-      <c r="C18" s="60"/>
-      <c r="D18" s="60"/>
+      <c r="C18" t="s">
+        <v>144</v>
+      </c>
+      <c r="D18" t="s">
+        <v>145</v>
+      </c>
       <c r="E18" s="60" t="s">
         <v>178</v>
       </c>
@@ -8417,8 +8297,12 @@
       <c r="B19" s="57" t="s">
         <v>266</v>
       </c>
-      <c r="C19" s="57"/>
-      <c r="D19" s="57"/>
+      <c r="C19" t="s">
+        <v>145</v>
+      </c>
+      <c r="D19" t="s">
+        <v>144</v>
+      </c>
       <c r="E19" s="57" t="s">
         <v>178</v>
       </c>
@@ -8448,8 +8332,12 @@
       <c r="B20" s="54" t="s">
         <v>83</v>
       </c>
-      <c r="C20" s="54"/>
-      <c r="D20" s="54"/>
+      <c r="C20" t="s">
+        <v>144</v>
+      </c>
+      <c r="D20" t="s">
+        <v>145</v>
+      </c>
       <c r="E20" s="54" t="s">
         <v>177</v>
       </c>
@@ -8479,8 +8367,12 @@
       <c r="B21" s="54" t="s">
         <v>87</v>
       </c>
-      <c r="C21" s="54"/>
-      <c r="D21" s="54"/>
+      <c r="C21" t="s">
+        <v>145</v>
+      </c>
+      <c r="D21" t="s">
+        <v>144</v>
+      </c>
       <c r="E21" s="54" t="s">
         <v>177</v>
       </c>
@@ -8510,8 +8402,12 @@
       <c r="B22" s="60" t="s">
         <v>270</v>
       </c>
-      <c r="C22" s="60"/>
-      <c r="D22" s="60"/>
+      <c r="C22" t="s">
+        <v>144</v>
+      </c>
+      <c r="D22" t="s">
+        <v>145</v>
+      </c>
       <c r="E22" s="60" t="s">
         <v>178</v>
       </c>
@@ -8541,8 +8437,12 @@
       <c r="B23" s="54" t="s">
         <v>274</v>
       </c>
-      <c r="C23" s="54"/>
-      <c r="D23" s="54"/>
+      <c r="C23" t="s">
+        <v>145</v>
+      </c>
+      <c r="D23" t="s">
+        <v>144</v>
+      </c>
       <c r="E23" s="54" t="s">
         <v>178</v>
       </c>
@@ -8572,8 +8472,12 @@
       <c r="B24" s="60" t="s">
         <v>276</v>
       </c>
-      <c r="C24" s="60"/>
-      <c r="D24" s="60"/>
+      <c r="C24" t="s">
+        <v>144</v>
+      </c>
+      <c r="D24" t="s">
+        <v>145</v>
+      </c>
       <c r="E24" s="60" t="s">
         <v>177</v>
       </c>
@@ -8603,8 +8507,12 @@
       <c r="B25" s="57" t="s">
         <v>279</v>
       </c>
-      <c r="C25" s="57"/>
-      <c r="D25" s="57"/>
+      <c r="C25" t="s">
+        <v>145</v>
+      </c>
+      <c r="D25" t="s">
+        <v>144</v>
+      </c>
       <c r="E25" s="57" t="s">
         <v>177</v>
       </c>
@@ -8636,17 +8544,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4DBC4F9-E0E7-324A-AE5A-00B4893BD830}">
   <dimension ref="A1:P5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="6" max="6" width="28.6640625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="35" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="47" t="s">
         <v>241</v>
       </c>
-      <c r="B1" s="91" t="s">
+      <c r="B1" s="48" t="s">
         <v>13</v>
       </c>
       <c r="C1" s="2" t="s">
@@ -8658,30 +8569,28 @@
       <c r="E1" s="2" t="s">
         <v>232</v>
       </c>
-      <c r="F1" s="91" t="s">
+      <c r="F1" s="48" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="91" t="s">
+      <c r="G1" s="48" t="s">
         <v>48</v>
       </c>
-      <c r="H1" s="82" t="s">
+      <c r="H1" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="I1" s="82" t="s">
+      <c r="I1" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="J1" s="91" t="s">
+      <c r="J1" s="48" t="s">
         <v>240</v>
       </c>
-      <c r="K1" s="92" t="s">
+      <c r="K1" s="49" t="s">
         <v>51</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" s="52" t="s">
         <v>138</v>
       </c>
-      <c r="M1" s="2" t="s">
-        <v>139</v>
-      </c>
+      <c r="M1" s="52"/>
       <c r="N1" s="29"/>
       <c r="O1" s="29"/>
       <c r="P1" s="29"/>
@@ -8717,9 +8626,6 @@
       <c r="L2" t="s">
         <v>11</v>
       </c>
-      <c r="M2" t="s">
-        <v>140</v>
-      </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3">
@@ -8751,9 +8657,6 @@
       </c>
       <c r="L3" t="s">
         <v>11</v>
-      </c>
-      <c r="M3" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.2">
@@ -8787,9 +8690,6 @@
       <c r="L4" t="s">
         <v>137</v>
       </c>
-      <c r="M4" t="s">
-        <v>141</v>
-      </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5">
@@ -8821,9 +8721,6 @@
       </c>
       <c r="L5" t="s">
         <v>137</v>
-      </c>
-      <c r="M5" t="s">
-        <v>141</v>
       </c>
     </row>
   </sheetData>
@@ -8836,7 +8733,7 @@
   <dimension ref="A1:O31"/>
   <sheetViews>
     <sheetView zoomScale="131" workbookViewId="0">
-      <selection sqref="A1:K1"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/notes/conditions.xlsx
+++ b/notes/conditions.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/momo/Dropbox/projects/connectives-qud/notes/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B291C301-08E6-5647-B214-4C09F4745401}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3754B05F-0143-1E47-9411-83BC0441D80B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5420" yWindow="500" windowWidth="26660" windowHeight="20240" xr2:uid="{3AB9929D-0A0B-1747-A8A7-16F45675C35B}"/>
+    <workbookView xWindow="-37840" yWindow="1300" windowWidth="23720" windowHeight="20240" activeTab="5" xr2:uid="{3AB9929D-0A0B-1747-A8A7-16F45675C35B}"/>
   </bookViews>
   <sheets>
     <sheet name="overall" sheetId="9" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2275" uniqueCount="339">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2420" uniqueCount="354">
   <si>
     <t>QUD</t>
   </si>
@@ -1055,10 +1055,55 @@
     <t>Is there an X or a Y</t>
   </si>
   <si>
-    <t xml:space="preserve">Is there an </t>
-  </si>
-  <si>
     <t>There is no X</t>
+  </si>
+  <si>
+    <t>true</t>
+  </si>
+  <si>
+    <t>false</t>
+  </si>
+  <si>
+    <t>true-no</t>
+  </si>
+  <si>
+    <t>there is neither one.</t>
+  </si>
+  <si>
+    <t>there is an F.</t>
+  </si>
+  <si>
+    <t>Is there an A or an F?</t>
+  </si>
+  <si>
+    <t>there is neither letter.</t>
+  </si>
+  <si>
+    <t>Is there a C or a P?</t>
+  </si>
+  <si>
+    <t>true-yes</t>
+  </si>
+  <si>
+    <t>Is there an X or a Y?</t>
+  </si>
+  <si>
+    <t>There is no A but</t>
+  </si>
+  <si>
+    <t>there is no B.</t>
+  </si>
+  <si>
+    <t>there's a J.</t>
+  </si>
+  <si>
+    <t>Is there a D or a G?</t>
+  </si>
+  <si>
+    <t>there are both.</t>
+  </si>
+  <si>
+    <t>There is an O and</t>
   </si>
 </sst>
 </file>
@@ -1724,10 +1769,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CD98CBC-AE24-7441-ABC5-9741245297FD}">
-  <dimension ref="A1:N118"/>
+  <dimension ref="A1:N142"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" zoomScale="114" workbookViewId="0">
-      <selection activeCell="G54" sqref="G54"/>
+    <sheetView topLeftCell="A22" zoomScale="114" workbookViewId="0">
+      <selection activeCell="A42" sqref="A42:K53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2948,7 +2993,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="41" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:13" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>12</v>
       </c>
@@ -2975,1384 +3020,2046 @@
       </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A42" s="26"/>
-      <c r="B42" s="26"/>
-      <c r="C42" s="46"/>
-      <c r="D42" s="26"/>
-      <c r="E42" s="26"/>
-      <c r="F42" s="26"/>
-      <c r="G42" s="26"/>
-      <c r="H42" s="46"/>
-      <c r="I42" s="26"/>
-      <c r="J42" s="46"/>
-      <c r="M42" t="s">
+      <c r="A42" s="1">
+        <v>13</v>
+      </c>
+      <c r="B42" s="34" t="s">
+        <v>284</v>
+      </c>
+      <c r="C42" s="85" t="s">
+        <v>145</v>
+      </c>
+      <c r="D42" s="85" t="s">
+        <v>144</v>
+      </c>
+      <c r="E42" s="86"/>
+      <c r="F42" s="35" t="s">
+        <v>285</v>
+      </c>
+      <c r="G42" s="86"/>
+      <c r="H42" s="86" t="s">
+        <v>153</v>
+      </c>
+      <c r="I42" s="86" t="s">
+        <v>341</v>
+      </c>
+      <c r="J42" s="86" t="s">
+        <v>340</v>
+      </c>
+      <c r="K42" s="36" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A43" s="1">
+        <v>14</v>
+      </c>
+      <c r="B43" s="83" t="s">
+        <v>288</v>
+      </c>
+      <c r="C43" s="87" t="s">
+        <v>144</v>
+      </c>
+      <c r="D43" s="87" t="s">
+        <v>145</v>
+      </c>
+      <c r="E43" s="46"/>
+      <c r="F43" s="26" t="s">
+        <v>290</v>
+      </c>
+      <c r="G43" s="46"/>
+      <c r="H43" s="26" t="s">
+        <v>153</v>
+      </c>
+      <c r="I43" s="26" t="s">
+        <v>344</v>
+      </c>
+      <c r="J43" s="26" t="s">
+        <v>340</v>
+      </c>
+      <c r="K43" s="33" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A44" s="1">
+        <v>15</v>
+      </c>
+      <c r="B44" s="83" t="s">
+        <v>291</v>
+      </c>
+      <c r="C44" s="87" t="s">
+        <v>145</v>
+      </c>
+      <c r="D44" s="87" t="s">
+        <v>144</v>
+      </c>
+      <c r="E44" s="46"/>
+      <c r="F44" s="26" t="s">
+        <v>343</v>
+      </c>
+      <c r="G44" s="46"/>
+      <c r="H44" s="26" t="s">
+        <v>151</v>
+      </c>
+      <c r="I44" s="26" t="s">
+        <v>342</v>
+      </c>
+      <c r="J44" s="26" t="s">
+        <v>346</v>
+      </c>
+      <c r="K44" s="33" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A45" s="1">
+        <v>16</v>
+      </c>
+      <c r="B45" s="83" t="s">
+        <v>294</v>
+      </c>
+      <c r="C45" s="87" t="s">
+        <v>144</v>
+      </c>
+      <c r="D45" s="87" t="s">
+        <v>145</v>
+      </c>
+      <c r="E45" s="26"/>
+      <c r="F45" s="26" t="s">
+        <v>345</v>
+      </c>
+      <c r="G45" s="46"/>
+      <c r="H45" s="26" t="s">
+        <v>151</v>
+      </c>
+      <c r="I45" s="26" t="s">
+        <v>106</v>
+      </c>
+      <c r="J45" s="26" t="s">
+        <v>346</v>
+      </c>
+      <c r="K45" s="33" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A46" s="1">
+        <v>17</v>
+      </c>
+      <c r="B46" s="83" t="s">
+        <v>297</v>
+      </c>
+      <c r="C46" s="87" t="s">
+        <v>145</v>
+      </c>
+      <c r="D46" s="87" t="s">
+        <v>144</v>
+      </c>
+      <c r="E46" s="26"/>
+      <c r="F46" s="26" t="s">
+        <v>347</v>
+      </c>
+      <c r="G46" s="46"/>
+      <c r="H46" s="26" t="s">
+        <v>101</v>
+      </c>
+      <c r="I46" s="26" t="s">
+        <v>117</v>
+      </c>
+      <c r="J46" s="26" t="s">
+        <v>338</v>
+      </c>
+      <c r="K46" s="33" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="1">
+        <v>18</v>
+      </c>
+      <c r="B47" s="37" t="s">
+        <v>298</v>
+      </c>
+      <c r="C47" s="88" t="s">
+        <v>144</v>
+      </c>
+      <c r="D47" s="88" t="s">
+        <v>145</v>
+      </c>
+      <c r="E47" s="38"/>
+      <c r="F47" s="89" t="s">
+        <v>170</v>
+      </c>
+      <c r="G47" s="89"/>
+      <c r="H47" s="89" t="s">
+        <v>348</v>
+      </c>
+      <c r="I47" s="89" t="s">
+        <v>349</v>
+      </c>
+      <c r="J47" s="89" t="s">
+        <v>338</v>
+      </c>
+      <c r="K47" s="33" t="s">
+        <v>14</v>
+      </c>
+      <c r="M47" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A43" s="26"/>
-      <c r="B43" s="26"/>
-      <c r="C43" s="46"/>
-      <c r="D43" s="26"/>
-      <c r="E43" s="26"/>
-      <c r="F43" s="26"/>
-      <c r="G43" s="26"/>
-      <c r="H43" s="26"/>
-      <c r="I43" s="26"/>
-      <c r="J43" s="46"/>
-      <c r="M43" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A44" s="26"/>
-      <c r="B44" s="26"/>
-      <c r="C44" s="46"/>
-      <c r="D44" s="26"/>
-      <c r="E44" s="26"/>
-      <c r="F44" s="26"/>
-      <c r="G44" s="26"/>
-      <c r="H44" s="26"/>
-      <c r="I44" s="26"/>
-      <c r="J44" s="46"/>
-    </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A45" s="26"/>
-      <c r="B45" s="26"/>
-      <c r="C45" s="26"/>
-      <c r="D45" s="26"/>
-      <c r="E45" s="26"/>
-      <c r="F45" s="26"/>
-      <c r="G45" s="26"/>
-      <c r="H45" s="26"/>
-      <c r="I45" s="26"/>
-      <c r="J45" s="46"/>
-    </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A46" s="26"/>
-      <c r="B46" s="26"/>
-      <c r="C46" s="26">
-        <v>12</v>
-      </c>
-      <c r="D46" s="26"/>
-      <c r="E46" s="26"/>
-      <c r="F46" s="26"/>
-      <c r="G46" s="26"/>
-      <c r="H46" s="26"/>
-      <c r="I46" s="26"/>
-      <c r="J46" s="46"/>
-    </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A47" s="26"/>
-      <c r="B47" s="26"/>
-      <c r="C47" s="26"/>
-      <c r="D47" s="26"/>
-      <c r="E47" s="26"/>
-      <c r="F47" s="26"/>
-      <c r="G47" s="26"/>
-      <c r="H47" s="26"/>
-      <c r="I47" s="26"/>
-      <c r="J47" s="46"/>
-    </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A48" s="26"/>
-      <c r="B48" s="26"/>
-      <c r="C48" s="26"/>
-      <c r="D48" s="26" t="s">
-        <v>337</v>
+      <c r="A48" s="1">
+        <v>19</v>
+      </c>
+      <c r="B48" s="83" t="s">
+        <v>299</v>
+      </c>
+      <c r="C48" s="87" t="s">
+        <v>145</v>
+      </c>
+      <c r="D48" s="87" t="s">
+        <v>144</v>
       </c>
       <c r="E48" s="26"/>
-      <c r="F48" s="26"/>
-      <c r="G48" s="26"/>
-      <c r="H48" s="26"/>
-      <c r="I48" s="26"/>
-      <c r="J48" s="46"/>
-      <c r="M48" s="23" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A49" s="26"/>
-      <c r="B49" s="26"/>
-      <c r="C49" s="26"/>
-      <c r="D49" s="26"/>
+      <c r="F48" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="G48" s="46"/>
+      <c r="H48" s="26" t="s">
+        <v>151</v>
+      </c>
+      <c r="I48" s="26" t="s">
+        <v>329</v>
+      </c>
+      <c r="J48" s="26" t="s">
+        <v>339</v>
+      </c>
+      <c r="K48" s="33" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A49" s="1">
+        <v>20</v>
+      </c>
+      <c r="B49" s="83" t="s">
+        <v>300</v>
+      </c>
+      <c r="C49" s="87" t="s">
+        <v>144</v>
+      </c>
+      <c r="D49" s="87" t="s">
+        <v>145</v>
+      </c>
       <c r="E49" s="26"/>
-      <c r="F49" s="26"/>
-      <c r="G49" s="26"/>
-      <c r="H49" s="26"/>
-      <c r="I49" s="26"/>
-      <c r="J49" s="46"/>
-    </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A50" s="26"/>
-      <c r="B50" s="26"/>
-      <c r="C50" s="26"/>
-      <c r="D50" s="26"/>
+      <c r="F49" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="G49" s="46"/>
+      <c r="H49" s="26" t="s">
+        <v>151</v>
+      </c>
+      <c r="I49" s="26" t="s">
+        <v>350</v>
+      </c>
+      <c r="J49" s="26" t="s">
+        <v>339</v>
+      </c>
+      <c r="K49" s="33" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A50" s="1">
+        <v>21</v>
+      </c>
+      <c r="B50" s="83" t="s">
+        <v>314</v>
+      </c>
+      <c r="C50" s="87" t="s">
+        <v>145</v>
+      </c>
+      <c r="D50" s="87" t="s">
+        <v>144</v>
+      </c>
       <c r="E50" s="26"/>
-      <c r="F50" s="26"/>
-      <c r="G50" s="26"/>
-      <c r="H50" s="26"/>
-      <c r="I50" s="26"/>
-      <c r="J50" s="46"/>
-    </row>
-    <row r="51" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="26"/>
-      <c r="B51" s="26" t="s">
-        <v>161</v>
-      </c>
-      <c r="C51" s="26"/>
-      <c r="D51" s="26" t="s">
-        <v>328</v>
+      <c r="F50" s="26" t="s">
+        <v>351</v>
+      </c>
+      <c r="G50" s="46"/>
+      <c r="H50" s="26" t="s">
+        <v>151</v>
+      </c>
+      <c r="I50" s="26" t="s">
+        <v>62</v>
+      </c>
+      <c r="J50" s="26" t="s">
+        <v>339</v>
+      </c>
+      <c r="K50" s="33" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A51" s="1">
+        <v>22</v>
+      </c>
+      <c r="B51" s="83" t="s">
+        <v>315</v>
+      </c>
+      <c r="C51" s="87" t="s">
+        <v>144</v>
+      </c>
+      <c r="D51" s="87" t="s">
+        <v>145</v>
       </c>
       <c r="E51" s="26"/>
       <c r="F51" s="26" t="s">
+        <v>321</v>
+      </c>
+      <c r="G51" s="46"/>
+      <c r="H51" s="26" t="s">
+        <v>151</v>
+      </c>
+      <c r="I51" s="26" t="s">
+        <v>352</v>
+      </c>
+      <c r="J51" s="26" t="s">
+        <v>339</v>
+      </c>
+      <c r="K51" s="33" t="s">
+        <v>14</v>
+      </c>
+      <c r="M51" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="A52" s="1">
+        <v>23</v>
+      </c>
+      <c r="B52" s="83" t="s">
+        <v>316</v>
+      </c>
+      <c r="C52" s="87" t="s">
+        <v>145</v>
+      </c>
+      <c r="D52" s="87" t="s">
+        <v>144</v>
+      </c>
+      <c r="E52" s="26"/>
+      <c r="F52" s="52" t="s">
+        <v>322</v>
+      </c>
+      <c r="G52" s="46"/>
+      <c r="H52" s="26" t="s">
+        <v>353</v>
+      </c>
+      <c r="I52" s="26" t="s">
+        <v>309</v>
+      </c>
+      <c r="J52" s="26" t="s">
+        <v>339</v>
+      </c>
+      <c r="K52" s="33" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="1">
+        <v>24</v>
+      </c>
+      <c r="B53" s="37" t="s">
+        <v>317</v>
+      </c>
+      <c r="C53" s="88" t="s">
+        <v>144</v>
+      </c>
+      <c r="D53" s="88" t="s">
+        <v>145</v>
+      </c>
+      <c r="E53" s="89"/>
+      <c r="F53" s="90" t="s">
+        <v>228</v>
+      </c>
+      <c r="G53" s="89"/>
+      <c r="H53" s="89" t="s">
+        <v>268</v>
+      </c>
+      <c r="I53" s="89" t="s">
+        <v>102</v>
+      </c>
+      <c r="J53" s="89" t="s">
+        <v>339</v>
+      </c>
+      <c r="K53" s="39" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A54" s="26"/>
+      <c r="B54" s="26"/>
+      <c r="C54" s="46"/>
+      <c r="D54" s="26"/>
+      <c r="E54" s="26"/>
+      <c r="F54" s="26"/>
+      <c r="G54" s="26"/>
+      <c r="H54" s="46"/>
+      <c r="I54" s="26"/>
+      <c r="J54" s="46"/>
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A55" s="26"/>
+      <c r="B55" s="26"/>
+      <c r="C55" s="46"/>
+      <c r="D55" s="26"/>
+      <c r="E55" s="26"/>
+      <c r="F55" s="26"/>
+      <c r="G55" s="26"/>
+      <c r="H55" s="46"/>
+      <c r="I55" s="26"/>
+      <c r="J55" s="46"/>
+    </row>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A56" s="26"/>
+      <c r="B56" s="26"/>
+      <c r="C56" s="46"/>
+      <c r="D56" s="26"/>
+      <c r="E56" s="26"/>
+      <c r="F56" s="26"/>
+      <c r="G56" s="26"/>
+      <c r="H56" s="46"/>
+      <c r="I56" s="26"/>
+      <c r="J56" s="46"/>
+    </row>
+    <row r="57" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A57" s="26"/>
+      <c r="B57" s="26"/>
+      <c r="C57" s="46"/>
+      <c r="D57" s="26"/>
+      <c r="E57" s="26"/>
+      <c r="F57" s="26"/>
+      <c r="G57" s="26"/>
+      <c r="H57" s="46"/>
+      <c r="I57" s="26"/>
+      <c r="J57" s="46"/>
+      <c r="M57" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A58" s="26"/>
+      <c r="B58" s="26"/>
+      <c r="C58" s="46"/>
+      <c r="D58" s="26"/>
+      <c r="E58" s="26"/>
+      <c r="F58" s="26"/>
+      <c r="G58" s="26"/>
+      <c r="H58" s="46"/>
+      <c r="I58" s="26"/>
+      <c r="J58" s="46"/>
+    </row>
+    <row r="59" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A59" s="26"/>
+      <c r="B59" s="26"/>
+      <c r="C59" s="46"/>
+      <c r="D59" s="26"/>
+      <c r="E59" s="26"/>
+      <c r="F59" s="26"/>
+      <c r="G59" s="26"/>
+      <c r="H59" s="46"/>
+      <c r="I59" s="26"/>
+      <c r="J59" s="46"/>
+    </row>
+    <row r="60" spans="1:13" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="26"/>
+      <c r="B60" s="26"/>
+      <c r="C60" s="46"/>
+      <c r="D60" s="26"/>
+      <c r="E60" s="26"/>
+      <c r="F60" s="26"/>
+      <c r="G60" s="26"/>
+      <c r="H60" s="46"/>
+      <c r="I60" s="26"/>
+      <c r="J60" s="46"/>
+    </row>
+    <row r="61" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A61" s="26"/>
+      <c r="B61" s="26"/>
+      <c r="C61" s="46"/>
+      <c r="D61" s="35" t="s">
+        <v>285</v>
+      </c>
+      <c r="E61" s="35" t="s">
+        <v>1</v>
+      </c>
+      <c r="F61" s="35" t="s">
+        <v>286</v>
+      </c>
+      <c r="G61" s="35" t="s">
+        <v>287</v>
+      </c>
+      <c r="H61" s="86" t="s">
+        <v>303</v>
+      </c>
+      <c r="I61" s="36" t="s">
+        <v>289</v>
+      </c>
+      <c r="J61" s="46"/>
+    </row>
+    <row r="62" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A62" s="26"/>
+      <c r="B62" s="26"/>
+      <c r="C62" s="46"/>
+      <c r="D62" s="26" t="s">
+        <v>290</v>
+      </c>
+      <c r="E62" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="F62" s="26" t="s">
+        <v>165</v>
+      </c>
+      <c r="G62" s="26" t="s">
+        <v>243</v>
+      </c>
+      <c r="H62" s="26" t="s">
+        <v>303</v>
+      </c>
+      <c r="I62" s="33" t="s">
+        <v>289</v>
+      </c>
+      <c r="J62" s="46"/>
+    </row>
+    <row r="63" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A63" s="26"/>
+      <c r="B63" s="26"/>
+      <c r="C63" s="46"/>
+      <c r="D63" s="26" t="s">
+        <v>292</v>
+      </c>
+      <c r="E63" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="F63" s="26" t="s">
+        <v>205</v>
+      </c>
+      <c r="G63" s="26" t="s">
+        <v>202</v>
+      </c>
+      <c r="H63" s="26" t="s">
+        <v>296</v>
+      </c>
+      <c r="I63" s="33" t="s">
+        <v>289</v>
+      </c>
+      <c r="J63" s="46"/>
+    </row>
+    <row r="64" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A64" s="26"/>
+      <c r="B64" s="26"/>
+      <c r="C64" s="46"/>
+      <c r="D64" s="26" t="s">
+        <v>293</v>
+      </c>
+      <c r="E64" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="F64" s="26" t="s">
+        <v>120</v>
+      </c>
+      <c r="G64" s="26" t="s">
+        <v>275</v>
+      </c>
+      <c r="H64" s="26" t="s">
+        <v>296</v>
+      </c>
+      <c r="I64" s="33" t="s">
+        <v>289</v>
+      </c>
+      <c r="J64" s="46"/>
+    </row>
+    <row r="65" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A65" s="26"/>
+      <c r="B65" s="26"/>
+      <c r="C65" s="46"/>
+      <c r="D65" s="26" t="s">
+        <v>301</v>
+      </c>
+      <c r="E65" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="F65" s="26" t="s">
+        <v>302</v>
+      </c>
+      <c r="G65" s="26" t="s">
+        <v>70</v>
+      </c>
+      <c r="H65" s="26" t="s">
+        <v>303</v>
+      </c>
+      <c r="I65" s="33" t="s">
+        <v>295</v>
+      </c>
+      <c r="J65" s="46"/>
+    </row>
+    <row r="66" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A66" s="26"/>
+      <c r="B66" s="26"/>
+      <c r="C66" s="46"/>
+      <c r="D66" s="26" t="s">
+        <v>304</v>
+      </c>
+      <c r="E66" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="F66" s="26" t="s">
+        <v>305</v>
+      </c>
+      <c r="G66" s="26" t="s">
+        <v>41</v>
+      </c>
+      <c r="H66" s="26" t="s">
+        <v>303</v>
+      </c>
+      <c r="I66" s="33" t="s">
+        <v>295</v>
+      </c>
+      <c r="J66" s="46"/>
+    </row>
+    <row r="67" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A67" s="26"/>
+      <c r="B67" s="26"/>
+      <c r="C67" s="46"/>
+      <c r="D67" s="26" t="s">
+        <v>306</v>
+      </c>
+      <c r="E67" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="F67" s="26" t="s">
+        <v>308</v>
+      </c>
+      <c r="G67" s="26" t="s">
+        <v>309</v>
+      </c>
+      <c r="H67" s="26" t="s">
+        <v>296</v>
+      </c>
+      <c r="I67" s="33" t="s">
+        <v>295</v>
+      </c>
+      <c r="J67" s="46"/>
+      <c r="M67" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A68" s="26"/>
+      <c r="B68" s="26"/>
+      <c r="C68" s="46"/>
+      <c r="D68" s="26" t="s">
+        <v>307</v>
+      </c>
+      <c r="E68" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="F68" s="26" t="s">
+        <v>310</v>
+      </c>
+      <c r="G68" s="26" t="s">
+        <v>311</v>
+      </c>
+      <c r="H68" s="26" t="s">
+        <v>296</v>
+      </c>
+      <c r="I68" s="33" t="s">
+        <v>295</v>
+      </c>
+      <c r="J68" s="46"/>
+    </row>
+    <row r="69" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A69" s="26"/>
+      <c r="B69" s="26"/>
+      <c r="C69" s="26"/>
+      <c r="D69" s="26" t="s">
+        <v>96</v>
+      </c>
+      <c r="E69" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="F69" s="26" t="s">
+        <v>318</v>
+      </c>
+      <c r="G69" s="26" t="s">
+        <v>319</v>
+      </c>
+      <c r="H69" s="26" t="s">
+        <v>320</v>
+      </c>
+      <c r="I69" s="33" t="s">
+        <v>289</v>
+      </c>
+      <c r="J69" s="46"/>
+    </row>
+    <row r="70" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A70" s="26"/>
+      <c r="B70" s="26"/>
+      <c r="C70" s="26"/>
+      <c r="D70" s="26" t="s">
+        <v>321</v>
+      </c>
+      <c r="E70" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="F70" s="26" t="s">
+        <v>89</v>
+      </c>
+      <c r="G70" s="26" t="s">
+        <v>323</v>
+      </c>
+      <c r="H70" s="26" t="s">
+        <v>320</v>
+      </c>
+      <c r="I70" s="33" t="s">
+        <v>289</v>
+      </c>
+      <c r="J70" s="46"/>
+    </row>
+    <row r="71" spans="1:13" ht="17" x14ac:dyDescent="0.2">
+      <c r="A71" s="26"/>
+      <c r="B71" s="26"/>
+      <c r="C71" s="26"/>
+      <c r="D71" s="52" t="s">
+        <v>322</v>
+      </c>
+      <c r="E71" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="F71" s="26" t="s">
+        <v>85</v>
+      </c>
+      <c r="G71" s="26" t="s">
+        <v>309</v>
+      </c>
+      <c r="H71" s="26" t="s">
+        <v>320</v>
+      </c>
+      <c r="I71" s="33" t="s">
+        <v>289</v>
+      </c>
+      <c r="J71" s="46"/>
+    </row>
+    <row r="72" spans="1:13" ht="18" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="26"/>
+      <c r="B72" s="26"/>
+      <c r="C72" s="26"/>
+      <c r="D72" s="90" t="s">
+        <v>228</v>
+      </c>
+      <c r="E72" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="F72" s="38" t="s">
+        <v>81</v>
+      </c>
+      <c r="G72" s="38" t="s">
+        <v>102</v>
+      </c>
+      <c r="H72" s="89" t="s">
+        <v>320</v>
+      </c>
+      <c r="I72" s="33" t="s">
+        <v>289</v>
+      </c>
+      <c r="J72" s="46"/>
+      <c r="M72" s="23" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A73" s="26"/>
+      <c r="B73" s="26"/>
+      <c r="C73" s="26"/>
+      <c r="D73" s="26"/>
+      <c r="E73" s="26"/>
+      <c r="F73" s="26"/>
+      <c r="G73" s="26"/>
+      <c r="H73" s="26"/>
+      <c r="I73" s="26"/>
+      <c r="J73" s="46"/>
+    </row>
+    <row r="74" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A74" s="26"/>
+      <c r="B74" s="26"/>
+      <c r="C74" s="26"/>
+      <c r="D74" s="26"/>
+      <c r="E74" s="26"/>
+      <c r="F74" s="26"/>
+      <c r="G74" s="26"/>
+      <c r="H74" s="26"/>
+      <c r="I74" s="26"/>
+      <c r="J74" s="46"/>
+    </row>
+    <row r="75" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A75" s="26"/>
+      <c r="B75" s="26" t="s">
+        <v>161</v>
+      </c>
+      <c r="C75" s="26"/>
+      <c r="D75" s="26" t="s">
+        <v>328</v>
+      </c>
+      <c r="E75" s="26"/>
+      <c r="F75" s="26" t="s">
         <v>327</v>
       </c>
-      <c r="G51" s="26" t="s">
+      <c r="G75" s="26" t="s">
         <v>329</v>
       </c>
-      <c r="H51" s="26"/>
-      <c r="I51" s="26"/>
-      <c r="J51" s="26"/>
-    </row>
-    <row r="52" spans="1:14" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A52" s="26"/>
-      <c r="B52" s="26"/>
-      <c r="C52" s="26"/>
-      <c r="D52" s="52" t="s">
+      <c r="H75" s="26"/>
+      <c r="I75" s="26"/>
+      <c r="J75" s="26"/>
+    </row>
+    <row r="76" spans="1:13" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A76" s="26"/>
+      <c r="B76" s="26"/>
+      <c r="C76" s="26"/>
+      <c r="D76" s="52" t="s">
         <v>330</v>
       </c>
-      <c r="E52" s="26"/>
-      <c r="F52" s="26" t="s">
+      <c r="E76" s="26"/>
+      <c r="F76" s="26" t="s">
         <v>331</v>
       </c>
-      <c r="G52" s="26" t="s">
+      <c r="G76" s="26" t="s">
         <v>332</v>
       </c>
-      <c r="H52" s="26"/>
-      <c r="I52" s="26"/>
-      <c r="J52" s="26"/>
-    </row>
-    <row r="53" spans="1:14" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A53" s="26"/>
-      <c r="B53" s="26"/>
-      <c r="C53" s="46"/>
-      <c r="D53" s="52" t="s">
+      <c r="H76" s="26"/>
+      <c r="I76" s="26"/>
+      <c r="J76" s="26"/>
+    </row>
+    <row r="77" spans="1:13" s="1" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A77" s="26"/>
+      <c r="B77" s="26"/>
+      <c r="C77" s="46"/>
+      <c r="D77" s="52" t="s">
         <v>333</v>
       </c>
-      <c r="E53" s="26"/>
-      <c r="F53" s="26" t="s">
+      <c r="E77" s="26"/>
+      <c r="F77" s="26" t="s">
         <v>334</v>
       </c>
-      <c r="G53" s="26" t="s">
+      <c r="G77" s="26" t="s">
         <v>335</v>
       </c>
-      <c r="H53" s="46"/>
-      <c r="I53" s="26"/>
-      <c r="J53" s="26"/>
-    </row>
-    <row r="54" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="D54" s="26" t="s">
+      <c r="H77" s="46"/>
+      <c r="I77" s="26"/>
+      <c r="J77" s="26"/>
+    </row>
+    <row r="78" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="D78" s="26" t="s">
         <v>336</v>
       </c>
-      <c r="F54" s="26" t="s">
-        <v>338</v>
-      </c>
-      <c r="G54" s="26" t="s">
+      <c r="F78" s="26" t="s">
+        <v>337</v>
+      </c>
+      <c r="G78" s="26" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="55" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="56" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A57" s="1"/>
-      <c r="B57" s="26" t="s">
+    <row r="79" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="80" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="81" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A81" s="1"/>
+      <c r="B81" s="26" t="s">
         <v>103</v>
       </c>
-      <c r="C57" s="1"/>
-      <c r="D57" s="26" t="s">
+      <c r="C81" s="1"/>
+      <c r="D81" s="26" t="s">
         <v>146</v>
       </c>
-      <c r="E57" s="26" t="s">
+      <c r="E81" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="F57" s="26" t="s">
+      <c r="F81" s="26" t="s">
         <v>104</v>
       </c>
-      <c r="G57" s="26" t="s">
+      <c r="G81" s="26" t="s">
         <v>93</v>
       </c>
-      <c r="H57" s="26" t="s">
+      <c r="H81" s="26" t="s">
         <v>47</v>
       </c>
-      <c r="I57" s="33" t="s">
+      <c r="I81" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="J57" s="26" t="s">
+      <c r="J81" s="26" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A58" s="26">
+    <row r="82" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A82" s="26">
         <v>3</v>
       </c>
-      <c r="B58" s="26" t="s">
+      <c r="B82" s="26" t="s">
         <v>53</v>
       </c>
-      <c r="C58" s="26" t="s">
+      <c r="C82" s="26" t="s">
         <v>66</v>
       </c>
-      <c r="D58" s="26" t="s">
+      <c r="D82" s="26" t="s">
         <v>54</v>
       </c>
-      <c r="E58" s="26" t="s">
-        <v>1</v>
-      </c>
-      <c r="F58" s="26" t="s">
+      <c r="E82" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="F82" s="26" t="s">
         <v>159</v>
       </c>
-      <c r="G58" s="26" t="s">
+      <c r="G82" s="26" t="s">
         <v>160</v>
       </c>
-      <c r="H58" s="26" t="s">
+      <c r="H82" s="26" t="s">
         <v>46</v>
       </c>
-      <c r="I58" s="26" t="s">
+      <c r="I82" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="J58" s="1"/>
-    </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A59" s="26">
+      <c r="J82" s="1"/>
+    </row>
+    <row r="83" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A83" s="26">
         <v>4</v>
       </c>
-      <c r="B59" s="26" t="s">
+      <c r="B83" s="26" t="s">
         <v>59</v>
       </c>
-      <c r="C59" s="26" t="s">
+      <c r="C83" s="26" t="s">
         <v>66</v>
       </c>
-      <c r="D59" s="26" t="s">
+      <c r="D83" s="26" t="s">
         <v>61</v>
       </c>
-      <c r="E59" s="26" t="s">
+      <c r="E83" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="F59" s="26" t="s">
+      <c r="F83" s="26" t="s">
         <v>97</v>
       </c>
-      <c r="G59" s="26" t="s">
+      <c r="G83" s="26" t="s">
         <v>98</v>
       </c>
-      <c r="H59" s="26" t="s">
+      <c r="H83" s="26" t="s">
         <v>46</v>
       </c>
-      <c r="I59" s="26" t="s">
+      <c r="I83" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="J59" s="1"/>
-    </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B61" t="s">
+      <c r="J83" s="1"/>
+    </row>
+    <row r="85" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B85" t="s">
         <v>218</v>
       </c>
-      <c r="C61" t="s">
+      <c r="C85" t="s">
         <v>179</v>
       </c>
-      <c r="D61" t="s">
+      <c r="D85" t="s">
         <v>217</v>
       </c>
-      <c r="F61" t="s">
+      <c r="F85" t="s">
         <v>219</v>
       </c>
-      <c r="G61" t="s">
+      <c r="G85" t="s">
         <v>220</v>
       </c>
-      <c r="I61" s="45"/>
-      <c r="K61" t="s">
+      <c r="I85" s="45"/>
+      <c r="K85" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="62" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A62"/>
-      <c r="B62" t="s">
+    <row r="86" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A86"/>
+      <c r="B86" t="s">
         <v>161</v>
       </c>
-      <c r="C62" t="s">
+      <c r="C86" t="s">
         <v>179</v>
       </c>
-      <c r="D62" t="s">
+      <c r="D86" t="s">
         <v>162</v>
       </c>
-      <c r="E62" t="s">
-        <v>1</v>
-      </c>
-      <c r="F62" t="s">
+      <c r="E86" t="s">
+        <v>1</v>
+      </c>
+      <c r="F86" t="s">
         <v>101</v>
       </c>
-      <c r="G62" t="s">
+      <c r="G86" t="s">
         <v>196</v>
       </c>
-      <c r="H62" t="s">
+      <c r="H86" t="s">
         <v>209</v>
       </c>
-      <c r="I62" t="s">
+      <c r="I86" t="s">
         <v>188</v>
       </c>
-      <c r="J62" t="s">
+      <c r="J86" t="s">
         <v>198</v>
       </c>
-      <c r="K62"/>
-      <c r="L62"/>
-      <c r="M62"/>
-      <c r="N62"/>
-    </row>
-    <row r="63" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A63"/>
-      <c r="B63" t="s">
+      <c r="K86"/>
+      <c r="L86"/>
+      <c r="M86"/>
+      <c r="N86"/>
+    </row>
+    <row r="87" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A87"/>
+      <c r="B87" t="s">
         <v>161</v>
       </c>
-      <c r="C63" t="s">
+      <c r="C87" t="s">
         <v>179</v>
       </c>
-      <c r="D63" t="s">
+      <c r="D87" t="s">
         <v>162</v>
       </c>
-      <c r="E63" t="s">
+      <c r="E87" t="s">
         <v>2</v>
       </c>
-      <c r="F63" t="s">
+      <c r="F87" t="s">
         <v>81</v>
       </c>
-      <c r="G63" t="s">
+      <c r="G87" t="s">
         <v>196</v>
       </c>
-      <c r="H63" t="s">
+      <c r="H87" t="s">
         <v>209</v>
       </c>
-      <c r="I63" t="s">
+      <c r="I87" t="s">
         <v>188</v>
       </c>
-      <c r="J63" t="s">
+      <c r="J87" t="s">
         <v>198</v>
       </c>
-      <c r="K63"/>
-      <c r="L63"/>
-      <c r="M63"/>
-      <c r="N63"/>
-    </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A64" s="40"/>
-      <c r="B64" s="40" t="s">
+      <c r="K87"/>
+      <c r="L87"/>
+      <c r="M87"/>
+      <c r="N87"/>
+    </row>
+    <row r="88" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A88" s="40"/>
+      <c r="B88" s="40" t="s">
         <v>161</v>
       </c>
-      <c r="C64" s="40" t="s">
+      <c r="C88" s="40" t="s">
         <v>179</v>
       </c>
-      <c r="D64" s="40" t="s">
+      <c r="D88" s="40" t="s">
         <v>162</v>
       </c>
-      <c r="E64" s="40" t="s">
-        <v>1</v>
-      </c>
-      <c r="F64" s="40" t="s">
+      <c r="E88" s="40" t="s">
+        <v>1</v>
+      </c>
+      <c r="F88" s="40" t="s">
         <v>199</v>
       </c>
-      <c r="G64" s="40" t="s">
+      <c r="G88" s="40" t="s">
         <v>196</v>
       </c>
-      <c r="H64" s="40" t="s">
+      <c r="H88" s="40" t="s">
         <v>209</v>
       </c>
-      <c r="I64" s="40" t="s">
+      <c r="I88" s="40" t="s">
         <v>221</v>
       </c>
-      <c r="J64" s="40" t="s">
+      <c r="J88" s="40" t="s">
         <v>197</v>
       </c>
-      <c r="K64" s="40"/>
-      <c r="L64" s="40"/>
-      <c r="M64" s="40"/>
-      <c r="N64" s="40"/>
-    </row>
-    <row r="65" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A65" s="40"/>
-      <c r="B65" s="40" t="s">
+      <c r="K88" s="40"/>
+      <c r="L88" s="40"/>
+      <c r="M88" s="40"/>
+      <c r="N88" s="40"/>
+    </row>
+    <row r="89" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A89" s="40"/>
+      <c r="B89" s="40" t="s">
         <v>161</v>
       </c>
-      <c r="C65" s="40" t="s">
+      <c r="C89" s="40" t="s">
         <v>179</v>
       </c>
-      <c r="D65" s="40" t="s">
+      <c r="D89" s="40" t="s">
         <v>162</v>
       </c>
-      <c r="E65" s="40" t="s">
+      <c r="E89" s="40" t="s">
         <v>2</v>
       </c>
-      <c r="F65" s="40" t="s">
+      <c r="F89" s="40" t="s">
         <v>200</v>
       </c>
-      <c r="G65" s="40" t="s">
+      <c r="G89" s="40" t="s">
         <v>196</v>
       </c>
-      <c r="H65" s="40" t="s">
+      <c r="H89" s="40" t="s">
         <v>209</v>
       </c>
-      <c r="I65" s="40" t="s">
+      <c r="I89" s="40" t="s">
         <v>221</v>
       </c>
-      <c r="J65" s="40" t="s">
+      <c r="J89" s="40" t="s">
         <v>197</v>
       </c>
-      <c r="K65" s="40"/>
-      <c r="L65" s="40"/>
-      <c r="M65" s="40"/>
-      <c r="N65" s="40"/>
-    </row>
-    <row r="66" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A66"/>
-      <c r="B66" t="s">
-        <v>161</v>
-      </c>
-      <c r="C66" t="s">
-        <v>179</v>
-      </c>
-      <c r="D66" t="s">
-        <v>162</v>
-      </c>
-      <c r="E66" t="s">
-        <v>1</v>
-      </c>
-      <c r="F66" t="s">
-        <v>164</v>
-      </c>
-      <c r="G66" t="s">
-        <v>41</v>
-      </c>
-      <c r="H66" t="s">
-        <v>210</v>
-      </c>
-      <c r="I66" t="s">
-        <v>188</v>
-      </c>
-      <c r="J66" t="s">
-        <v>198</v>
-      </c>
-      <c r="K66"/>
-      <c r="L66"/>
-      <c r="M66"/>
-      <c r="N66"/>
-    </row>
-    <row r="67" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A67"/>
-      <c r="B67" t="s">
-        <v>161</v>
-      </c>
-      <c r="C67" t="s">
-        <v>179</v>
-      </c>
-      <c r="D67" t="s">
-        <v>162</v>
-      </c>
-      <c r="E67" t="s">
-        <v>2</v>
-      </c>
-      <c r="F67" t="s">
-        <v>165</v>
-      </c>
-      <c r="G67" t="s">
-        <v>41</v>
-      </c>
-      <c r="H67" t="s">
-        <v>210</v>
-      </c>
-      <c r="I67" t="s">
-        <v>188</v>
-      </c>
-      <c r="J67" t="s">
-        <v>198</v>
-      </c>
-      <c r="K67"/>
-      <c r="L67"/>
-      <c r="M67"/>
-      <c r="N67"/>
-    </row>
-    <row r="68" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A68" s="40"/>
-      <c r="B68" s="40" t="s">
-        <v>161</v>
-      </c>
-      <c r="C68" s="40" t="s">
-        <v>179</v>
-      </c>
-      <c r="D68" s="40" t="s">
-        <v>162</v>
-      </c>
-      <c r="E68" s="40" t="s">
-        <v>1</v>
-      </c>
-      <c r="F68" s="40" t="s">
-        <v>164</v>
-      </c>
-      <c r="G68" s="40" t="s">
-        <v>102</v>
-      </c>
-      <c r="H68" s="40" t="s">
-        <v>210</v>
-      </c>
-      <c r="I68" s="40" t="s">
-        <v>222</v>
-      </c>
-      <c r="J68" s="40" t="s">
-        <v>197</v>
-      </c>
-      <c r="K68" s="40"/>
-      <c r="L68" s="40"/>
-      <c r="M68" s="40"/>
-      <c r="N68" s="40"/>
-    </row>
-    <row r="69" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A69" s="40"/>
-      <c r="B69" s="40" t="s">
-        <v>161</v>
-      </c>
-      <c r="C69" s="40" t="s">
-        <v>179</v>
-      </c>
-      <c r="D69" s="40" t="s">
-        <v>162</v>
-      </c>
-      <c r="E69" s="40" t="s">
-        <v>2</v>
-      </c>
-      <c r="F69" s="40" t="s">
-        <v>165</v>
-      </c>
-      <c r="G69" s="40" t="s">
-        <v>102</v>
-      </c>
-      <c r="H69" s="40" t="s">
-        <v>210</v>
-      </c>
-      <c r="I69" s="40" t="s">
-        <v>222</v>
-      </c>
-      <c r="J69" s="40" t="s">
-        <v>197</v>
-      </c>
-      <c r="K69" s="40"/>
-      <c r="L69" s="40"/>
-      <c r="M69" s="40"/>
-      <c r="N69" s="40"/>
-    </row>
-    <row r="70" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B70" s="32" t="s">
-        <v>161</v>
-      </c>
-      <c r="C70" s="32" t="s">
-        <v>179</v>
-      </c>
-      <c r="D70" s="32" t="s">
-        <v>162</v>
-      </c>
-      <c r="E70" s="32"/>
-      <c r="F70" s="32" t="s">
-        <v>164</v>
-      </c>
-      <c r="G70" s="32" t="s">
-        <v>163</v>
-      </c>
-      <c r="H70" s="23" t="s">
-        <v>210</v>
-      </c>
-      <c r="J70" t="s">
-        <v>186</v>
-      </c>
-      <c r="K70" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="71" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B71" s="32" t="s">
-        <v>161</v>
-      </c>
-      <c r="C71" s="32" t="s">
-        <v>179</v>
-      </c>
-      <c r="D71" s="32" t="s">
-        <v>162</v>
-      </c>
-      <c r="E71" s="32"/>
-      <c r="F71" s="32" t="s">
-        <v>165</v>
-      </c>
-      <c r="G71" s="32" t="s">
-        <v>163</v>
-      </c>
-      <c r="H71" s="23" t="s">
-        <v>210</v>
-      </c>
-      <c r="I71" s="32" t="s">
-        <v>189</v>
-      </c>
-      <c r="J71" t="s">
-        <v>186</v>
-      </c>
-      <c r="K71" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="72" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B72" s="31" t="s">
-        <v>161</v>
-      </c>
-      <c r="C72" s="31" t="s">
-        <v>179</v>
-      </c>
-      <c r="D72" s="31" t="s">
-        <v>173</v>
-      </c>
-      <c r="E72" s="31"/>
-      <c r="F72" s="31" t="s">
-        <v>174</v>
-      </c>
-      <c r="G72" s="31" t="s">
-        <v>184</v>
-      </c>
-      <c r="H72" s="31" t="s">
-        <v>210</v>
-      </c>
-      <c r="I72" s="31" t="s">
-        <v>191</v>
-      </c>
-      <c r="J72" t="s">
-        <v>187</v>
-      </c>
-      <c r="K72" s="31" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="73" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B73" s="40" t="s">
-        <v>161</v>
-      </c>
-      <c r="C73" s="40" t="s">
-        <v>179</v>
-      </c>
-      <c r="D73" s="40" t="s">
-        <v>173</v>
-      </c>
-      <c r="E73" s="40"/>
-      <c r="F73" s="40" t="s">
-        <v>201</v>
-      </c>
-      <c r="G73" s="40" t="s">
-        <v>202</v>
-      </c>
-      <c r="H73" s="40" t="s">
-        <v>210</v>
-      </c>
-      <c r="I73" s="40" t="s">
-        <v>192</v>
-      </c>
-      <c r="J73" s="40" t="b">
-        <v>1</v>
-      </c>
-      <c r="K73" s="31"/>
-    </row>
-    <row r="74" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B74" s="42" t="s">
-        <v>161</v>
-      </c>
-      <c r="C74" s="42" t="s">
-        <v>179</v>
-      </c>
-      <c r="D74" s="42" t="s">
-        <v>173</v>
-      </c>
-      <c r="E74" s="42"/>
-      <c r="F74" s="42" t="s">
-        <v>203</v>
-      </c>
-      <c r="G74" s="42" t="s">
-        <v>106</v>
-      </c>
-      <c r="H74" s="42" t="s">
-        <v>210</v>
-      </c>
-      <c r="I74" s="42" t="s">
-        <v>192</v>
-      </c>
-      <c r="J74" s="43" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="75" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A75" s="1"/>
-      <c r="B75" s="44"/>
-      <c r="C75" s="44"/>
-      <c r="D75" s="44"/>
-      <c r="E75" s="44"/>
-      <c r="F75" s="44"/>
-      <c r="G75" s="44"/>
-      <c r="H75" s="44"/>
-      <c r="I75" s="44"/>
-      <c r="J75" s="44"/>
-      <c r="K75" s="1"/>
-      <c r="L75" s="1"/>
-      <c r="M75" s="1"/>
-      <c r="N75" s="1"/>
-    </row>
-    <row r="76" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A76" s="1"/>
-      <c r="B76" s="44"/>
-      <c r="C76" s="44"/>
-      <c r="D76" s="44"/>
-      <c r="E76" s="44"/>
-      <c r="F76" s="44"/>
-      <c r="G76" s="44"/>
-      <c r="H76" s="44"/>
-      <c r="I76" s="44"/>
-      <c r="J76" s="44"/>
-      <c r="K76" s="1"/>
-      <c r="L76" s="1"/>
-      <c r="M76" s="1"/>
-      <c r="N76" s="1"/>
-    </row>
-    <row r="77" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B77" t="s">
-        <v>161</v>
-      </c>
-      <c r="C77" t="s">
-        <v>178</v>
-      </c>
-      <c r="D77" t="s">
-        <v>168</v>
-      </c>
-      <c r="E77" t="s">
-        <v>1</v>
-      </c>
-      <c r="F77" t="s">
-        <v>181</v>
-      </c>
-      <c r="G77" t="s">
-        <v>182</v>
-      </c>
-      <c r="H77" t="s">
-        <v>46</v>
-      </c>
-      <c r="I77" t="s">
-        <v>4</v>
-      </c>
-      <c r="J77" t="s">
-        <v>188</v>
-      </c>
-      <c r="K77" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="78" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B78" t="s">
-        <v>161</v>
-      </c>
-      <c r="C78" t="s">
-        <v>178</v>
-      </c>
-      <c r="D78" t="s">
-        <v>168</v>
-      </c>
-      <c r="E78" t="s">
-        <v>2</v>
-      </c>
-      <c r="F78" t="s">
-        <v>183</v>
-      </c>
-      <c r="G78" t="s">
-        <v>182</v>
-      </c>
-      <c r="H78" t="s">
-        <v>46</v>
-      </c>
-      <c r="I78" t="s">
-        <v>4</v>
-      </c>
-      <c r="J78" t="s">
-        <v>188</v>
-      </c>
-      <c r="K78" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="79" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A79" s="1"/>
-      <c r="B79" s="34" t="s">
-        <v>161</v>
-      </c>
-      <c r="C79" s="35" t="s">
-        <v>178</v>
-      </c>
-      <c r="D79" s="35" t="s">
-        <v>168</v>
-      </c>
-      <c r="E79" s="35" t="s">
-        <v>1</v>
-      </c>
-      <c r="F79" s="35" t="s">
-        <v>193</v>
-      </c>
-      <c r="G79" s="35" t="s">
-        <v>102</v>
-      </c>
-      <c r="H79" s="35" t="s">
-        <v>46</v>
-      </c>
-      <c r="I79" s="35" t="s">
-        <v>195</v>
-      </c>
-      <c r="J79" s="35" t="s">
-        <v>166</v>
-      </c>
-      <c r="K79" s="36" t="s">
-        <v>140</v>
-      </c>
-      <c r="L79" s="1"/>
-      <c r="M79" s="1"/>
-      <c r="N79" s="1"/>
-    </row>
-    <row r="80" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="1"/>
-      <c r="B80" s="37" t="s">
-        <v>161</v>
-      </c>
-      <c r="C80" s="38" t="s">
-        <v>178</v>
-      </c>
-      <c r="D80" s="38" t="s">
-        <v>168</v>
-      </c>
-      <c r="E80" s="38" t="s">
-        <v>2</v>
-      </c>
-      <c r="F80" s="38" t="s">
-        <v>194</v>
-      </c>
-      <c r="G80" s="38" t="s">
-        <v>102</v>
-      </c>
-      <c r="H80" s="38" t="s">
-        <v>46</v>
-      </c>
-      <c r="I80" s="38" t="s">
-        <v>195</v>
-      </c>
-      <c r="J80" s="38" t="s">
-        <v>186</v>
-      </c>
-      <c r="K80" s="39" t="s">
-        <v>140</v>
-      </c>
-      <c r="L80" s="1"/>
-      <c r="M80" s="1"/>
-      <c r="N80" s="1"/>
-    </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B81" s="32" t="s">
-        <v>161</v>
-      </c>
-      <c r="C81" s="32" t="s">
-        <v>178</v>
-      </c>
-      <c r="D81" s="32" t="s">
-        <v>168</v>
-      </c>
-      <c r="E81" s="32" t="s">
-        <v>1</v>
-      </c>
-      <c r="F81" s="32" t="s">
-        <v>181</v>
-      </c>
-      <c r="G81" s="32" t="s">
-        <v>41</v>
-      </c>
-      <c r="H81" s="32" t="s">
-        <v>47</v>
-      </c>
-      <c r="I81" s="32" t="s">
-        <v>190</v>
-      </c>
-      <c r="J81" t="s">
-        <v>166</v>
-      </c>
-      <c r="K81" s="32" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B82" s="32" t="s">
-        <v>161</v>
-      </c>
-      <c r="C82" s="32" t="s">
-        <v>178</v>
-      </c>
-      <c r="D82" s="32" t="s">
-        <v>168</v>
-      </c>
-      <c r="E82" s="32" t="s">
-        <v>2</v>
-      </c>
-      <c r="F82" s="32" t="s">
-        <v>183</v>
-      </c>
-      <c r="G82" s="32" t="s">
-        <v>41</v>
-      </c>
-      <c r="H82" s="32" t="s">
-        <v>47</v>
-      </c>
-      <c r="I82" s="32" t="s">
-        <v>190</v>
-      </c>
-      <c r="J82" t="s">
-        <v>186</v>
-      </c>
-      <c r="K82" s="32" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B83" s="31" t="s">
-        <v>161</v>
-      </c>
-      <c r="C83" s="31" t="s">
-        <v>178</v>
-      </c>
-      <c r="D83" s="31" t="s">
-        <v>168</v>
-      </c>
-      <c r="E83" s="31"/>
-      <c r="F83" s="31" t="s">
-        <v>171</v>
-      </c>
-      <c r="G83" s="31" t="s">
-        <v>172</v>
-      </c>
-      <c r="H83" s="31" t="s">
-        <v>47</v>
-      </c>
-      <c r="I83" s="31" t="s">
-        <v>192</v>
-      </c>
-      <c r="J83" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B84" s="40" t="s">
-        <v>161</v>
-      </c>
-      <c r="C84" s="40" t="s">
-        <v>178</v>
-      </c>
-      <c r="D84" s="40" t="s">
-        <v>168</v>
-      </c>
-      <c r="E84" s="40"/>
-      <c r="F84" s="40" t="s">
-        <v>201</v>
-      </c>
-      <c r="G84" s="40" t="s">
-        <v>202</v>
-      </c>
-      <c r="H84" s="40" t="s">
-        <v>47</v>
-      </c>
-      <c r="I84" s="40" t="s">
-        <v>192</v>
-      </c>
-      <c r="J84" s="40" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A85" s="15"/>
-      <c r="B85" s="42" t="s">
-        <v>161</v>
-      </c>
-      <c r="C85" s="42" t="s">
-        <v>178</v>
-      </c>
-      <c r="D85" s="42" t="s">
-        <v>168</v>
-      </c>
-      <c r="E85" s="42"/>
-      <c r="F85" s="42" t="s">
-        <v>203</v>
-      </c>
-      <c r="G85" s="42" t="s">
-        <v>106</v>
-      </c>
-      <c r="H85" s="42" t="s">
-        <v>47</v>
-      </c>
-      <c r="I85" s="42" t="s">
-        <v>192</v>
-      </c>
-      <c r="J85" s="43" t="b">
-        <v>1</v>
-      </c>
-      <c r="K85" s="15"/>
-      <c r="L85" s="15"/>
-    </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="K89" s="40"/>
+      <c r="L89" s="40"/>
+      <c r="M89" s="40"/>
+      <c r="N89" s="40"/>
+    </row>
+    <row r="90" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A90"/>
       <c r="B90" t="s">
         <v>161</v>
       </c>
       <c r="C90" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="D90" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="E90" t="s">
         <v>1</v>
       </c>
       <c r="F90" t="s">
-        <v>181</v>
+        <v>164</v>
       </c>
       <c r="G90" t="s">
-        <v>182</v>
+        <v>41</v>
       </c>
       <c r="H90" t="s">
-        <v>46</v>
+        <v>210</v>
       </c>
       <c r="I90" t="s">
-        <v>4</v>
+        <v>188</v>
       </c>
       <c r="J90" t="s">
-        <v>188</v>
-      </c>
-      <c r="K90" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="91" spans="1:12" x14ac:dyDescent="0.2">
+        <v>198</v>
+      </c>
+      <c r="K90"/>
+      <c r="L90"/>
+      <c r="M90"/>
+      <c r="N90"/>
+    </row>
+    <row r="91" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A91"/>
       <c r="B91" t="s">
         <v>161</v>
       </c>
       <c r="C91" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="D91" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="E91" t="s">
         <v>2</v>
       </c>
       <c r="F91" t="s">
+        <v>165</v>
+      </c>
+      <c r="G91" t="s">
+        <v>41</v>
+      </c>
+      <c r="H91" t="s">
+        <v>210</v>
+      </c>
+      <c r="I91" t="s">
+        <v>188</v>
+      </c>
+      <c r="J91" t="s">
+        <v>198</v>
+      </c>
+      <c r="K91"/>
+      <c r="L91"/>
+      <c r="M91"/>
+      <c r="N91"/>
+    </row>
+    <row r="92" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A92" s="40"/>
+      <c r="B92" s="40" t="s">
+        <v>161</v>
+      </c>
+      <c r="C92" s="40" t="s">
+        <v>179</v>
+      </c>
+      <c r="D92" s="40" t="s">
+        <v>162</v>
+      </c>
+      <c r="E92" s="40" t="s">
+        <v>1</v>
+      </c>
+      <c r="F92" s="40" t="s">
+        <v>164</v>
+      </c>
+      <c r="G92" s="40" t="s">
+        <v>102</v>
+      </c>
+      <c r="H92" s="40" t="s">
+        <v>210</v>
+      </c>
+      <c r="I92" s="40" t="s">
+        <v>222</v>
+      </c>
+      <c r="J92" s="40" t="s">
+        <v>197</v>
+      </c>
+      <c r="K92" s="40"/>
+      <c r="L92" s="40"/>
+      <c r="M92" s="40"/>
+      <c r="N92" s="40"/>
+    </row>
+    <row r="93" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A93" s="40"/>
+      <c r="B93" s="40" t="s">
+        <v>161</v>
+      </c>
+      <c r="C93" s="40" t="s">
+        <v>179</v>
+      </c>
+      <c r="D93" s="40" t="s">
+        <v>162</v>
+      </c>
+      <c r="E93" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="F93" s="40" t="s">
+        <v>165</v>
+      </c>
+      <c r="G93" s="40" t="s">
+        <v>102</v>
+      </c>
+      <c r="H93" s="40" t="s">
+        <v>210</v>
+      </c>
+      <c r="I93" s="40" t="s">
+        <v>222</v>
+      </c>
+      <c r="J93" s="40" t="s">
+        <v>197</v>
+      </c>
+      <c r="K93" s="40"/>
+      <c r="L93" s="40"/>
+      <c r="M93" s="40"/>
+      <c r="N93" s="40"/>
+    </row>
+    <row r="94" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B94" s="32" t="s">
+        <v>161</v>
+      </c>
+      <c r="C94" s="32" t="s">
+        <v>179</v>
+      </c>
+      <c r="D94" s="32" t="s">
+        <v>162</v>
+      </c>
+      <c r="E94" s="32"/>
+      <c r="F94" s="32" t="s">
+        <v>164</v>
+      </c>
+      <c r="G94" s="32" t="s">
+        <v>163</v>
+      </c>
+      <c r="H94" s="23" t="s">
+        <v>210</v>
+      </c>
+      <c r="J94" t="s">
+        <v>186</v>
+      </c>
+      <c r="K94" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="95" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B95" s="32" t="s">
+        <v>161</v>
+      </c>
+      <c r="C95" s="32" t="s">
+        <v>179</v>
+      </c>
+      <c r="D95" s="32" t="s">
+        <v>162</v>
+      </c>
+      <c r="E95" s="32"/>
+      <c r="F95" s="32" t="s">
+        <v>165</v>
+      </c>
+      <c r="G95" s="32" t="s">
+        <v>163</v>
+      </c>
+      <c r="H95" s="23" t="s">
+        <v>210</v>
+      </c>
+      <c r="I95" s="32" t="s">
+        <v>189</v>
+      </c>
+      <c r="J95" t="s">
+        <v>186</v>
+      </c>
+      <c r="K95" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="96" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B96" s="31" t="s">
+        <v>161</v>
+      </c>
+      <c r="C96" s="31" t="s">
+        <v>179</v>
+      </c>
+      <c r="D96" s="31" t="s">
+        <v>173</v>
+      </c>
+      <c r="E96" s="31"/>
+      <c r="F96" s="31" t="s">
+        <v>174</v>
+      </c>
+      <c r="G96" s="31" t="s">
+        <v>184</v>
+      </c>
+      <c r="H96" s="31" t="s">
+        <v>210</v>
+      </c>
+      <c r="I96" s="31" t="s">
+        <v>191</v>
+      </c>
+      <c r="J96" t="s">
+        <v>187</v>
+      </c>
+      <c r="K96" s="31" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="97" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B97" s="40" t="s">
+        <v>161</v>
+      </c>
+      <c r="C97" s="40" t="s">
+        <v>179</v>
+      </c>
+      <c r="D97" s="40" t="s">
+        <v>173</v>
+      </c>
+      <c r="E97" s="40"/>
+      <c r="F97" s="40" t="s">
+        <v>201</v>
+      </c>
+      <c r="G97" s="40" t="s">
+        <v>202</v>
+      </c>
+      <c r="H97" s="40" t="s">
+        <v>210</v>
+      </c>
+      <c r="I97" s="40" t="s">
+        <v>192</v>
+      </c>
+      <c r="J97" s="40" t="b">
+        <v>1</v>
+      </c>
+      <c r="K97" s="31"/>
+    </row>
+    <row r="98" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B98" s="42" t="s">
+        <v>161</v>
+      </c>
+      <c r="C98" s="42" t="s">
+        <v>179</v>
+      </c>
+      <c r="D98" s="42" t="s">
+        <v>173</v>
+      </c>
+      <c r="E98" s="42"/>
+      <c r="F98" s="42" t="s">
+        <v>203</v>
+      </c>
+      <c r="G98" s="42" t="s">
+        <v>106</v>
+      </c>
+      <c r="H98" s="42" t="s">
+        <v>210</v>
+      </c>
+      <c r="I98" s="42" t="s">
+        <v>192</v>
+      </c>
+      <c r="J98" s="43" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A99" s="1"/>
+      <c r="B99" s="44"/>
+      <c r="C99" s="44"/>
+      <c r="D99" s="44"/>
+      <c r="E99" s="44"/>
+      <c r="F99" s="44"/>
+      <c r="G99" s="44"/>
+      <c r="H99" s="44"/>
+      <c r="I99" s="44"/>
+      <c r="J99" s="44"/>
+      <c r="K99" s="1"/>
+      <c r="L99" s="1"/>
+      <c r="M99" s="1"/>
+      <c r="N99" s="1"/>
+    </row>
+    <row r="100" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A100" s="1"/>
+      <c r="B100" s="44"/>
+      <c r="C100" s="44"/>
+      <c r="D100" s="44"/>
+      <c r="E100" s="44"/>
+      <c r="F100" s="44"/>
+      <c r="G100" s="44"/>
+      <c r="H100" s="44"/>
+      <c r="I100" s="44"/>
+      <c r="J100" s="44"/>
+      <c r="K100" s="1"/>
+      <c r="L100" s="1"/>
+      <c r="M100" s="1"/>
+      <c r="N100" s="1"/>
+    </row>
+    <row r="101" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B101" t="s">
+        <v>161</v>
+      </c>
+      <c r="C101" t="s">
+        <v>178</v>
+      </c>
+      <c r="D101" t="s">
+        <v>168</v>
+      </c>
+      <c r="E101" t="s">
+        <v>1</v>
+      </c>
+      <c r="F101" t="s">
+        <v>181</v>
+      </c>
+      <c r="G101" t="s">
+        <v>182</v>
+      </c>
+      <c r="H101" t="s">
+        <v>46</v>
+      </c>
+      <c r="I101" t="s">
+        <v>4</v>
+      </c>
+      <c r="J101" t="s">
+        <v>188</v>
+      </c>
+      <c r="K101" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="102" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B102" t="s">
+        <v>161</v>
+      </c>
+      <c r="C102" t="s">
+        <v>178</v>
+      </c>
+      <c r="D102" t="s">
+        <v>168</v>
+      </c>
+      <c r="E102" t="s">
+        <v>2</v>
+      </c>
+      <c r="F102" t="s">
         <v>183</v>
       </c>
-      <c r="G91" t="s">
+      <c r="G102" t="s">
         <v>182</v>
       </c>
-      <c r="H91" t="s">
+      <c r="H102" t="s">
         <v>46</v>
       </c>
-      <c r="I91" t="s">
+      <c r="I102" t="s">
         <v>4</v>
       </c>
-      <c r="J91" t="s">
+      <c r="J102" t="s">
         <v>188</v>
       </c>
-      <c r="K91" t="s">
+      <c r="K102" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="95" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A95" t="s">
+    <row r="103" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A103" s="1"/>
+      <c r="B103" s="34" t="s">
+        <v>161</v>
+      </c>
+      <c r="C103" s="35" t="s">
+        <v>178</v>
+      </c>
+      <c r="D103" s="35" t="s">
+        <v>168</v>
+      </c>
+      <c r="E103" s="35" t="s">
+        <v>1</v>
+      </c>
+      <c r="F103" s="35" t="s">
+        <v>193</v>
+      </c>
+      <c r="G103" s="35" t="s">
+        <v>102</v>
+      </c>
+      <c r="H103" s="35" t="s">
+        <v>46</v>
+      </c>
+      <c r="I103" s="35" t="s">
+        <v>195</v>
+      </c>
+      <c r="J103" s="35" t="s">
+        <v>166</v>
+      </c>
+      <c r="K103" s="36" t="s">
+        <v>140</v>
+      </c>
+      <c r="L103" s="1"/>
+      <c r="M103" s="1"/>
+      <c r="N103" s="1"/>
+    </row>
+    <row r="104" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A104" s="1"/>
+      <c r="B104" s="37" t="s">
+        <v>161</v>
+      </c>
+      <c r="C104" s="38" t="s">
+        <v>178</v>
+      </c>
+      <c r="D104" s="38" t="s">
+        <v>168</v>
+      </c>
+      <c r="E104" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="F104" s="38" t="s">
+        <v>194</v>
+      </c>
+      <c r="G104" s="38" t="s">
+        <v>102</v>
+      </c>
+      <c r="H104" s="38" t="s">
+        <v>46</v>
+      </c>
+      <c r="I104" s="38" t="s">
+        <v>195</v>
+      </c>
+      <c r="J104" s="38" t="s">
+        <v>186</v>
+      </c>
+      <c r="K104" s="39" t="s">
+        <v>140</v>
+      </c>
+      <c r="L104" s="1"/>
+      <c r="M104" s="1"/>
+      <c r="N104" s="1"/>
+    </row>
+    <row r="105" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B105" s="32" t="s">
+        <v>161</v>
+      </c>
+      <c r="C105" s="32" t="s">
+        <v>178</v>
+      </c>
+      <c r="D105" s="32" t="s">
+        <v>168</v>
+      </c>
+      <c r="E105" s="32" t="s">
+        <v>1</v>
+      </c>
+      <c r="F105" s="32" t="s">
+        <v>181</v>
+      </c>
+      <c r="G105" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="H105" s="32" t="s">
+        <v>47</v>
+      </c>
+      <c r="I105" s="32" t="s">
+        <v>190</v>
+      </c>
+      <c r="J105" t="s">
+        <v>166</v>
+      </c>
+      <c r="K105" s="32" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="106" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B106" s="32" t="s">
+        <v>161</v>
+      </c>
+      <c r="C106" s="32" t="s">
+        <v>178</v>
+      </c>
+      <c r="D106" s="32" t="s">
+        <v>168</v>
+      </c>
+      <c r="E106" s="32" t="s">
+        <v>2</v>
+      </c>
+      <c r="F106" s="32" t="s">
+        <v>183</v>
+      </c>
+      <c r="G106" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="H106" s="32" t="s">
+        <v>47</v>
+      </c>
+      <c r="I106" s="32" t="s">
+        <v>190</v>
+      </c>
+      <c r="J106" t="s">
+        <v>186</v>
+      </c>
+      <c r="K106" s="32" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="107" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B107" s="31" t="s">
+        <v>161</v>
+      </c>
+      <c r="C107" s="31" t="s">
+        <v>178</v>
+      </c>
+      <c r="D107" s="31" t="s">
+        <v>168</v>
+      </c>
+      <c r="E107" s="31"/>
+      <c r="F107" s="31" t="s">
+        <v>171</v>
+      </c>
+      <c r="G107" s="31" t="s">
+        <v>172</v>
+      </c>
+      <c r="H107" s="31" t="s">
+        <v>47</v>
+      </c>
+      <c r="I107" s="31" t="s">
+        <v>192</v>
+      </c>
+      <c r="J107" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B108" s="40" t="s">
+        <v>161</v>
+      </c>
+      <c r="C108" s="40" t="s">
+        <v>178</v>
+      </c>
+      <c r="D108" s="40" t="s">
+        <v>168</v>
+      </c>
+      <c r="E108" s="40"/>
+      <c r="F108" s="40" t="s">
+        <v>201</v>
+      </c>
+      <c r="G108" s="40" t="s">
+        <v>202</v>
+      </c>
+      <c r="H108" s="40" t="s">
+        <v>47</v>
+      </c>
+      <c r="I108" s="40" t="s">
+        <v>192</v>
+      </c>
+      <c r="J108" s="40" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A109" s="15"/>
+      <c r="B109" s="42" t="s">
+        <v>161</v>
+      </c>
+      <c r="C109" s="42" t="s">
+        <v>178</v>
+      </c>
+      <c r="D109" s="42" t="s">
+        <v>168</v>
+      </c>
+      <c r="E109" s="42"/>
+      <c r="F109" s="42" t="s">
+        <v>203</v>
+      </c>
+      <c r="G109" s="42" t="s">
+        <v>106</v>
+      </c>
+      <c r="H109" s="42" t="s">
+        <v>47</v>
+      </c>
+      <c r="I109" s="42" t="s">
+        <v>192</v>
+      </c>
+      <c r="J109" s="43" t="b">
+        <v>1</v>
+      </c>
+      <c r="K109" s="15"/>
+      <c r="L109" s="15"/>
+    </row>
+    <row r="114" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B114" t="s">
+        <v>161</v>
+      </c>
+      <c r="C114" t="s">
+        <v>177</v>
+      </c>
+      <c r="D114" t="s">
+        <v>169</v>
+      </c>
+      <c r="E114" t="s">
+        <v>1</v>
+      </c>
+      <c r="F114" t="s">
+        <v>181</v>
+      </c>
+      <c r="G114" t="s">
+        <v>182</v>
+      </c>
+      <c r="H114" t="s">
+        <v>46</v>
+      </c>
+      <c r="I114" t="s">
+        <v>4</v>
+      </c>
+      <c r="J114" t="s">
+        <v>188</v>
+      </c>
+      <c r="K114" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="115" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B115" t="s">
+        <v>161</v>
+      </c>
+      <c r="C115" t="s">
+        <v>177</v>
+      </c>
+      <c r="D115" t="s">
+        <v>169</v>
+      </c>
+      <c r="E115" t="s">
+        <v>2</v>
+      </c>
+      <c r="F115" t="s">
+        <v>183</v>
+      </c>
+      <c r="G115" t="s">
+        <v>182</v>
+      </c>
+      <c r="H115" t="s">
+        <v>46</v>
+      </c>
+      <c r="I115" t="s">
+        <v>4</v>
+      </c>
+      <c r="J115" t="s">
+        <v>188</v>
+      </c>
+      <c r="K115" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="119" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A119" t="s">
         <v>14</v>
       </c>
-      <c r="B95" s="41" t="s">
+      <c r="B119" s="41" t="s">
         <v>161</v>
       </c>
-      <c r="C95" s="41" t="s">
+      <c r="C119" s="41" t="s">
         <v>179</v>
       </c>
-      <c r="D95" s="41" t="s">
+      <c r="D119" s="41" t="s">
         <v>173</v>
       </c>
-      <c r="E95" s="41"/>
-      <c r="F95" s="41" t="s">
+      <c r="E119" s="41"/>
+      <c r="F119" s="41" t="s">
         <v>214</v>
       </c>
-      <c r="G95" s="41" t="s">
+      <c r="G119" s="41" t="s">
         <v>175</v>
       </c>
-      <c r="H95" s="41" t="s">
+      <c r="H119" s="41" t="s">
         <v>46</v>
       </c>
-      <c r="I95" s="41"/>
-      <c r="J95" s="15"/>
-    </row>
-    <row r="96" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B96" s="41" t="s">
+      <c r="I119" s="41"/>
+      <c r="J119" s="15"/>
+    </row>
+    <row r="120" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B120" s="41" t="s">
         <v>161</v>
       </c>
-      <c r="C96" s="41" t="s">
+      <c r="C120" s="41" t="s">
         <v>179</v>
       </c>
-      <c r="D96" s="41" t="s">
+      <c r="D120" s="41" t="s">
         <v>173</v>
       </c>
-      <c r="E96" s="41"/>
-      <c r="F96" s="41" t="s">
+      <c r="E120" s="41"/>
+      <c r="F120" s="41" t="s">
         <v>215</v>
       </c>
-      <c r="G96" s="41" t="s">
+      <c r="G120" s="41" t="s">
         <v>216</v>
       </c>
-      <c r="H96" s="41" t="s">
+      <c r="H120" s="41" t="s">
         <v>47</v>
       </c>
-      <c r="I96" s="41" t="s">
+      <c r="I120" s="41" t="s">
         <v>191</v>
       </c>
-      <c r="J96" s="15" t="s">
+      <c r="J120" s="15" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B98" t="s">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B122" t="s">
         <v>161</v>
       </c>
-      <c r="C98" t="s">
+      <c r="C122" t="s">
         <v>176</v>
       </c>
-      <c r="D98" t="s">
+      <c r="D122" t="s">
         <v>170</v>
       </c>
-      <c r="F98" t="s">
+      <c r="F122" t="s">
         <v>199</v>
       </c>
-      <c r="G98" t="s">
+      <c r="G122" t="s">
         <v>202</v>
       </c>
-      <c r="I98" t="s">
+      <c r="I122" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="F99" t="s">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="F123" t="s">
         <v>200</v>
       </c>
-      <c r="G99" t="s">
+      <c r="G123" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A104" s="23">
-        <v>1</v>
-      </c>
-      <c r="B104" s="23" t="s">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A128" s="23">
+        <v>1</v>
+      </c>
+      <c r="B128" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="C104" s="23" t="s">
+      <c r="C128" s="23" t="s">
         <v>176</v>
       </c>
-      <c r="D104" s="23" t="s">
+      <c r="D128" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="E104" s="23" t="s">
-        <v>1</v>
-      </c>
-      <c r="F104" s="23" t="s">
+      <c r="E128" s="23" t="s">
+        <v>1</v>
+      </c>
+      <c r="F128" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="G104" s="23" t="s">
+      <c r="G128" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="H104" s="23" t="s">
+      <c r="H128" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="I104" s="23" t="s">
+      <c r="I128" s="23" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A105" s="23">
+    <row r="129" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A129" s="23">
         <v>2</v>
       </c>
-      <c r="B105" s="23" t="s">
+      <c r="B129" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="C105" s="23" t="s">
+      <c r="C129" s="23" t="s">
         <v>176</v>
       </c>
-      <c r="D105" s="23" t="s">
+      <c r="D129" s="23" t="s">
         <v>57</v>
       </c>
-      <c r="E105" s="23" t="s">
+      <c r="E129" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="F105" s="23" t="s">
+      <c r="F129" s="23" t="s">
         <v>105</v>
       </c>
-      <c r="G105" s="23" t="s">
+      <c r="G129" s="23" t="s">
         <v>58</v>
       </c>
-      <c r="H105" s="23" t="s">
+      <c r="H129" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="I105" s="23" t="s">
+      <c r="I129" s="23" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A106" s="23"/>
-      <c r="B106" s="23"/>
-      <c r="C106" s="23"/>
-      <c r="D106" s="23"/>
-      <c r="E106" s="23"/>
-      <c r="F106" s="23"/>
-      <c r="G106" s="23"/>
-      <c r="H106" s="23"/>
-      <c r="I106" s="23"/>
-    </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A107" s="1"/>
-      <c r="B107" s="1" t="s">
+    <row r="130" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A130" s="23"/>
+      <c r="B130" s="23"/>
+      <c r="C130" s="23"/>
+      <c r="D130" s="23"/>
+      <c r="E130" s="23"/>
+      <c r="F130" s="23"/>
+      <c r="G130" s="23"/>
+      <c r="H130" s="23"/>
+      <c r="I130" s="23"/>
+    </row>
+    <row r="131" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A131" s="1"/>
+      <c r="B131" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="C107" s="1" t="s">
+      <c r="C131" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="D107" s="1" t="s">
+      <c r="D131" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="E107" s="1"/>
-      <c r="F107" t="s">
+      <c r="E131" s="1"/>
+      <c r="F131" t="s">
         <v>212</v>
       </c>
-      <c r="G107" t="s">
+      <c r="G131" t="s">
         <v>184</v>
       </c>
-      <c r="H107" t="s">
+      <c r="H131" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A108" s="1"/>
-      <c r="B108" s="26" t="s">
+    <row r="132" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A132" s="1"/>
+      <c r="B132" s="26" t="s">
         <v>161</v>
       </c>
-      <c r="C108" s="1" t="s">
+      <c r="C132" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="D108" s="1" t="s">
+      <c r="D132" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="E108" s="1"/>
-      <c r="F108" t="s">
+      <c r="E132" s="1"/>
+      <c r="F132" t="s">
         <v>212</v>
       </c>
-      <c r="G108" t="s">
+      <c r="G132" t="s">
         <v>202</v>
       </c>
-      <c r="H108" t="s">
+      <c r="H132" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A109" s="1"/>
-      <c r="B109" s="26"/>
-      <c r="C109" s="1"/>
-      <c r="D109" s="1"/>
-      <c r="E109" s="1"/>
-    </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A110" s="1"/>
-      <c r="B110" s="1" t="s">
+    <row r="133" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A133" s="1"/>
+      <c r="B133" s="26"/>
+      <c r="C133" s="1"/>
+      <c r="D133" s="1"/>
+      <c r="E133" s="1"/>
+    </row>
+    <row r="134" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A134" s="1"/>
+      <c r="B134" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="C110" s="1" t="s">
+      <c r="C134" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="D110" s="1" t="s">
+      <c r="D134" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="E110" s="1"/>
-      <c r="F110" s="23" t="s">
+      <c r="E134" s="1"/>
+      <c r="F134" s="23" t="s">
         <v>213</v>
       </c>
-      <c r="G110" s="23" t="s">
+      <c r="G134" s="23" t="s">
         <v>102</v>
       </c>
-      <c r="H110" s="23" t="s">
+      <c r="H134" s="23" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A111" s="1"/>
-      <c r="E111" s="1"/>
-    </row>
-    <row r="113" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B113" s="26" t="s">
+    <row r="135" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A135" s="1"/>
+      <c r="E135" s="1"/>
+    </row>
+    <row r="137" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B137" s="26" t="s">
         <v>161</v>
       </c>
-      <c r="C113" s="26" t="s">
+      <c r="C137" s="26" t="s">
         <v>177</v>
       </c>
-      <c r="D113" s="1" t="s">
+      <c r="D137" s="1" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="114" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B114" s="26" t="s">
+    <row r="138" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B138" s="26" t="s">
         <v>161</v>
       </c>
-      <c r="C114" s="26" t="s">
+      <c r="C138" s="26" t="s">
         <v>179</v>
       </c>
-      <c r="D114" s="26" t="s">
+      <c r="D138" s="26" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="117" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B117" t="s">
+    <row r="141" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B141" t="s">
         <v>44</v>
       </c>
-      <c r="C117" t="s">
+      <c r="C141" t="s">
         <v>176</v>
       </c>
-      <c r="D117" t="s">
+      <c r="D141" t="s">
         <v>12</v>
       </c>
-      <c r="F117" t="s">
+      <c r="F141" t="s">
         <v>205</v>
       </c>
-      <c r="G117" t="s">
+      <c r="G141" t="s">
         <v>206</v>
       </c>
-      <c r="H117" t="s">
+      <c r="H141" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="118" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B118" t="s">
+    <row r="142" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B142" t="s">
         <v>45</v>
       </c>
-      <c r="C118" t="s">
+      <c r="C142" t="s">
         <v>176</v>
       </c>
-      <c r="D118" t="s">
+      <c r="D142" t="s">
         <v>57</v>
       </c>
-      <c r="F118" t="s">
+      <c r="F142" t="s">
         <v>207</v>
       </c>
-      <c r="G118" t="s">
+      <c r="G142" t="s">
         <v>74</v>
       </c>
-      <c r="H118" t="s">
+      <c r="H142" t="s">
         <v>47</v>
       </c>
     </row>
@@ -8730,10 +9437,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B190E994-F93E-614B-8348-06136D69F1B4}">
-  <dimension ref="A1:O31"/>
+  <dimension ref="A1:O32"/>
   <sheetViews>
-    <sheetView zoomScale="131" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView tabSelected="1" zoomScale="131" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -9192,26 +9899,22 @@
       <c r="D14" s="85" t="s">
         <v>144</v>
       </c>
-      <c r="E14" s="86" t="s">
-        <v>179</v>
-      </c>
+      <c r="E14" s="86"/>
       <c r="F14" s="35" t="s">
         <v>285</v>
       </c>
-      <c r="G14" s="35" t="s">
-        <v>1</v>
-      </c>
-      <c r="H14" s="35" t="s">
-        <v>286</v>
-      </c>
-      <c r="I14" s="35" t="s">
-        <v>287</v>
+      <c r="G14" s="86"/>
+      <c r="H14" s="86" t="s">
+        <v>153</v>
+      </c>
+      <c r="I14" s="86" t="s">
+        <v>341</v>
       </c>
       <c r="J14" s="86" t="s">
-        <v>303</v>
+        <v>340</v>
       </c>
       <c r="K14" s="36" t="s">
-        <v>289</v>
+        <v>14</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.2">
@@ -9227,26 +9930,22 @@
       <c r="D15" s="87" t="s">
         <v>145</v>
       </c>
-      <c r="E15" s="46" t="s">
-        <v>179</v>
-      </c>
+      <c r="E15" s="46"/>
       <c r="F15" s="26" t="s">
         <v>290</v>
       </c>
-      <c r="G15" s="26" t="s">
-        <v>2</v>
-      </c>
+      <c r="G15" s="46"/>
       <c r="H15" s="26" t="s">
-        <v>165</v>
+        <v>153</v>
       </c>
       <c r="I15" s="26" t="s">
-        <v>243</v>
+        <v>344</v>
       </c>
       <c r="J15" s="26" t="s">
-        <v>303</v>
+        <v>340</v>
       </c>
       <c r="K15" s="33" t="s">
-        <v>289</v>
+        <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.2">
@@ -9262,26 +9961,22 @@
       <c r="D16" s="87" t="s">
         <v>144</v>
       </c>
-      <c r="E16" s="46" t="s">
-        <v>179</v>
-      </c>
+      <c r="E16" s="46"/>
       <c r="F16" s="26" t="s">
-        <v>292</v>
-      </c>
-      <c r="G16" s="26" t="s">
-        <v>1</v>
-      </c>
+        <v>343</v>
+      </c>
+      <c r="G16" s="46"/>
       <c r="H16" s="26" t="s">
-        <v>205</v>
+        <v>151</v>
       </c>
       <c r="I16" s="26" t="s">
-        <v>202</v>
+        <v>342</v>
       </c>
       <c r="J16" s="26" t="s">
-        <v>296</v>
+        <v>346</v>
       </c>
       <c r="K16" s="33" t="s">
-        <v>289</v>
+        <v>14</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.2">
@@ -9297,26 +9992,22 @@
       <c r="D17" s="87" t="s">
         <v>145</v>
       </c>
-      <c r="E17" s="26" t="s">
-        <v>179</v>
-      </c>
+      <c r="E17" s="26"/>
       <c r="F17" s="26" t="s">
-        <v>293</v>
-      </c>
-      <c r="G17" s="26" t="s">
-        <v>2</v>
-      </c>
+        <v>345</v>
+      </c>
+      <c r="G17" s="46"/>
       <c r="H17" s="26" t="s">
-        <v>120</v>
+        <v>151</v>
       </c>
       <c r="I17" s="26" t="s">
-        <v>275</v>
+        <v>106</v>
       </c>
       <c r="J17" s="26" t="s">
-        <v>296</v>
+        <v>346</v>
       </c>
       <c r="K17" s="33" t="s">
-        <v>289</v>
+        <v>14</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.2">
@@ -9332,61 +10023,53 @@
       <c r="D18" s="87" t="s">
         <v>144</v>
       </c>
-      <c r="E18" s="26" t="s">
-        <v>179</v>
-      </c>
+      <c r="E18" s="26"/>
       <c r="F18" s="26" t="s">
-        <v>301</v>
-      </c>
-      <c r="G18" s="26" t="s">
-        <v>1</v>
-      </c>
+        <v>347</v>
+      </c>
+      <c r="G18" s="46"/>
       <c r="H18" s="26" t="s">
-        <v>302</v>
+        <v>101</v>
       </c>
       <c r="I18" s="26" t="s">
-        <v>70</v>
+        <v>117</v>
       </c>
       <c r="J18" s="26" t="s">
-        <v>303</v>
+        <v>338</v>
       </c>
       <c r="K18" s="33" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>18</v>
       </c>
-      <c r="B19" s="83" t="s">
+      <c r="B19" s="37" t="s">
         <v>298</v>
       </c>
-      <c r="C19" s="87" t="s">
-        <v>144</v>
-      </c>
-      <c r="D19" s="87" t="s">
-        <v>145</v>
-      </c>
-      <c r="E19" s="26" t="s">
-        <v>179</v>
-      </c>
-      <c r="F19" s="26" t="s">
-        <v>304</v>
-      </c>
-      <c r="G19" s="26" t="s">
-        <v>2</v>
-      </c>
-      <c r="H19" s="26" t="s">
-        <v>305</v>
-      </c>
-      <c r="I19" s="26" t="s">
-        <v>41</v>
-      </c>
-      <c r="J19" s="26" t="s">
-        <v>303</v>
+      <c r="C19" s="88" t="s">
+        <v>144</v>
+      </c>
+      <c r="D19" s="88" t="s">
+        <v>145</v>
+      </c>
+      <c r="E19" s="38"/>
+      <c r="F19" s="89" t="s">
+        <v>170</v>
+      </c>
+      <c r="G19" s="89"/>
+      <c r="H19" s="89" t="s">
+        <v>348</v>
+      </c>
+      <c r="I19" s="89" t="s">
+        <v>349</v>
+      </c>
+      <c r="J19" s="89" t="s">
+        <v>338</v>
       </c>
       <c r="K19" s="33" t="s">
-        <v>295</v>
+        <v>14</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.2">
@@ -9402,26 +10085,22 @@
       <c r="D20" s="87" t="s">
         <v>144</v>
       </c>
-      <c r="E20" s="26" t="s">
-        <v>179</v>
-      </c>
+      <c r="E20" s="26"/>
       <c r="F20" s="26" t="s">
-        <v>306</v>
-      </c>
-      <c r="G20" s="26" t="s">
-        <v>1</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="G20" s="46"/>
       <c r="H20" s="26" t="s">
-        <v>308</v>
+        <v>151</v>
       </c>
       <c r="I20" s="26" t="s">
-        <v>309</v>
+        <v>329</v>
       </c>
       <c r="J20" s="26" t="s">
-        <v>296</v>
+        <v>339</v>
       </c>
       <c r="K20" s="33" t="s">
-        <v>295</v>
+        <v>14</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.2">
@@ -9437,26 +10116,22 @@
       <c r="D21" s="87" t="s">
         <v>145</v>
       </c>
-      <c r="E21" s="26" t="s">
-        <v>179</v>
-      </c>
+      <c r="E21" s="26"/>
       <c r="F21" s="26" t="s">
-        <v>307</v>
-      </c>
-      <c r="G21" s="26" t="s">
-        <v>2</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G21" s="46"/>
       <c r="H21" s="26" t="s">
-        <v>310</v>
+        <v>151</v>
       </c>
       <c r="I21" s="26" t="s">
-        <v>311</v>
+        <v>350</v>
       </c>
       <c r="J21" s="26" t="s">
-        <v>296</v>
+        <v>339</v>
       </c>
       <c r="K21" s="33" t="s">
-        <v>295</v>
+        <v>14</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.2">
@@ -9472,26 +10147,22 @@
       <c r="D22" s="87" t="s">
         <v>144</v>
       </c>
-      <c r="E22" s="26" t="s">
-        <v>179</v>
-      </c>
+      <c r="E22" s="26"/>
       <c r="F22" s="26" t="s">
-        <v>96</v>
-      </c>
-      <c r="G22" s="26" t="s">
-        <v>1</v>
-      </c>
+        <v>351</v>
+      </c>
+      <c r="G22" s="46"/>
       <c r="H22" s="26" t="s">
-        <v>318</v>
+        <v>151</v>
       </c>
       <c r="I22" s="26" t="s">
-        <v>319</v>
+        <v>62</v>
       </c>
       <c r="J22" s="26" t="s">
-        <v>320</v>
+        <v>339</v>
       </c>
       <c r="K22" s="33" t="s">
-        <v>289</v>
+        <v>14</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.2">
@@ -9507,26 +10178,22 @@
       <c r="D23" s="87" t="s">
         <v>145</v>
       </c>
-      <c r="E23" s="26" t="s">
-        <v>179</v>
-      </c>
+      <c r="E23" s="26"/>
       <c r="F23" s="26" t="s">
         <v>321</v>
       </c>
-      <c r="G23" s="26" t="s">
-        <v>2</v>
-      </c>
+      <c r="G23" s="46"/>
       <c r="H23" s="26" t="s">
-        <v>89</v>
+        <v>151</v>
       </c>
       <c r="I23" s="26" t="s">
-        <v>323</v>
+        <v>352</v>
       </c>
       <c r="J23" s="26" t="s">
-        <v>320</v>
+        <v>339</v>
       </c>
       <c r="K23" s="33" t="s">
-        <v>289</v>
+        <v>14</v>
       </c>
     </row>
     <row r="24" spans="1:11" ht="17" x14ac:dyDescent="0.2">
@@ -9542,26 +10209,22 @@
       <c r="D24" s="87" t="s">
         <v>144</v>
       </c>
-      <c r="E24" s="26" t="s">
-        <v>179</v>
-      </c>
+      <c r="E24" s="26"/>
       <c r="F24" s="52" t="s">
         <v>322</v>
       </c>
-      <c r="G24" s="26" t="s">
-        <v>1</v>
-      </c>
+      <c r="G24" s="46"/>
       <c r="H24" s="26" t="s">
-        <v>85</v>
+        <v>353</v>
       </c>
       <c r="I24" s="26" t="s">
         <v>309</v>
       </c>
       <c r="J24" s="26" t="s">
-        <v>320</v>
+        <v>339</v>
       </c>
       <c r="K24" s="33" t="s">
-        <v>289</v>
+        <v>14</v>
       </c>
     </row>
     <row r="25" spans="1:11" ht="18" thickBot="1" x14ac:dyDescent="0.25">
@@ -9577,26 +10240,22 @@
       <c r="D25" s="88" t="s">
         <v>145</v>
       </c>
-      <c r="E25" s="89" t="s">
-        <v>179</v>
-      </c>
+      <c r="E25" s="89"/>
       <c r="F25" s="90" t="s">
         <v>228</v>
       </c>
-      <c r="G25" s="38" t="s">
-        <v>2</v>
-      </c>
-      <c r="H25" s="38" t="s">
-        <v>81</v>
-      </c>
-      <c r="I25" s="38" t="s">
+      <c r="G25" s="89"/>
+      <c r="H25" s="89" t="s">
+        <v>268</v>
+      </c>
+      <c r="I25" s="89" t="s">
         <v>102</v>
       </c>
       <c r="J25" s="89" t="s">
-        <v>320</v>
-      </c>
-      <c r="K25" s="33" t="s">
-        <v>289</v>
+        <v>339</v>
+      </c>
+      <c r="K25" s="39" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.2">
@@ -9627,42 +10286,47 @@
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29" s="1"/>
-      <c r="B29" s="44"/>
-      <c r="C29" s="44"/>
-      <c r="D29" s="44"/>
-      <c r="E29" s="44"/>
-      <c r="F29" s="44"/>
-      <c r="G29" s="44"/>
-      <c r="H29" s="44"/>
+      <c r="B29" s="26"/>
+      <c r="C29" s="26"/>
+      <c r="D29" s="26"/>
+      <c r="E29" s="26"/>
+      <c r="F29" s="26"/>
+      <c r="G29" s="26"/>
       <c r="I29" s="44"/>
       <c r="J29" s="1"/>
       <c r="K29" s="1"/>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A30" s="1"/>
-      <c r="B30" s="44"/>
-      <c r="C30" s="44"/>
-      <c r="D30" s="44"/>
-      <c r="E30" s="44"/>
-      <c r="F30" s="44"/>
-      <c r="G30" s="44"/>
-      <c r="H30" s="44"/>
+      <c r="B30" s="26"/>
+      <c r="C30" s="26"/>
+      <c r="D30" s="52"/>
+      <c r="E30" s="26"/>
+      <c r="F30" s="26"/>
+      <c r="G30" s="26"/>
       <c r="I30" s="44"/>
       <c r="J30" s="1"/>
       <c r="K30" s="1"/>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A31" s="1"/>
-      <c r="B31" s="1"/>
-      <c r="C31" s="1"/>
-      <c r="D31" s="1"/>
-      <c r="E31" s="1"/>
-      <c r="F31" s="1"/>
-      <c r="G31" s="1"/>
-      <c r="H31" s="1"/>
+      <c r="B31" s="26"/>
+      <c r="C31" s="46"/>
+      <c r="D31" s="52"/>
+      <c r="E31" s="26"/>
+      <c r="F31" s="26"/>
+      <c r="G31" s="26"/>
       <c r="I31" s="1"/>
       <c r="J31" s="1"/>
       <c r="K31" s="1"/>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="B32" s="1"/>
+      <c r="C32" s="1"/>
+      <c r="D32" s="26"/>
+      <c r="E32" s="1"/>
+      <c r="F32" s="26"/>
+      <c r="G32" s="26"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/notes/conditions.xlsx
+++ b/notes/conditions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/momo/Dropbox/projects/connectives-qud/notes/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3754B05F-0143-1E47-9411-83BC0441D80B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CDAF556-6CB1-DE42-AC3E-0DBCA9FB7AD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-37840" yWindow="1300" windowWidth="23720" windowHeight="20240" activeTab="5" xr2:uid="{3AB9929D-0A0B-1747-A8A7-16F45675C35B}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2420" uniqueCount="354">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2420" uniqueCount="356">
   <si>
     <t>QUD</t>
   </si>
@@ -1104,6 +1104,12 @@
   </si>
   <si>
     <t>There is an O and</t>
+  </si>
+  <si>
+    <t>Is there an O or anL?</t>
+  </si>
+  <si>
+    <t>Is there an O or an L?</t>
   </si>
 </sst>
 </file>
@@ -1772,7 +1778,7 @@
   <dimension ref="A1:N142"/>
   <sheetViews>
     <sheetView topLeftCell="A22" zoomScale="114" workbookViewId="0">
-      <selection activeCell="A42" sqref="A42:K53"/>
+      <selection activeCell="H49" sqref="H49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3350,14 +3356,14 @@
       </c>
       <c r="E52" s="26"/>
       <c r="F52" s="52" t="s">
-        <v>322</v>
+        <v>355</v>
       </c>
       <c r="G52" s="46"/>
       <c r="H52" s="26" t="s">
         <v>353</v>
       </c>
       <c r="I52" s="26" t="s">
-        <v>309</v>
+        <v>281</v>
       </c>
       <c r="J52" s="26" t="s">
         <v>339</v>
@@ -9440,7 +9446,7 @@
   <dimension ref="A1:O32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="131" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -10211,14 +10217,14 @@
       </c>
       <c r="E24" s="26"/>
       <c r="F24" s="52" t="s">
-        <v>322</v>
+        <v>354</v>
       </c>
       <c r="G24" s="46"/>
       <c r="H24" s="26" t="s">
         <v>353</v>
       </c>
       <c r="I24" s="26" t="s">
-        <v>309</v>
+        <v>281</v>
       </c>
       <c r="J24" s="26" t="s">
         <v>339</v>

--- a/notes/conditions.xlsx
+++ b/notes/conditions.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/momo/Dropbox/projects/connectives-qud/notes/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CDAF556-6CB1-DE42-AC3E-0DBCA9FB7AD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72AB6CEB-78E8-C240-B9D2-13D423CE7D53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-37840" yWindow="1300" windowWidth="23720" windowHeight="20240" activeTab="5" xr2:uid="{3AB9929D-0A0B-1747-A8A7-16F45675C35B}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20240" xr2:uid="{3AB9929D-0A0B-1747-A8A7-16F45675C35B}"/>
   </bookViews>
   <sheets>
     <sheet name="overall" sheetId="9" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2420" uniqueCount="356">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2408" uniqueCount="356">
   <si>
     <t>QUD</t>
   </si>
@@ -1337,7 +1337,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="93">
+  <cellXfs count="98">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1451,6 +1451,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1777,15 +1784,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CD98CBC-AE24-7441-ABC5-9741245297FD}">
   <dimension ref="A1:N142"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" zoomScale="114" workbookViewId="0">
-      <selection activeCell="H49" sqref="H49"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="163" workbookViewId="0">
+      <selection activeCell="B50" sqref="B50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="4" max="4" width="31" customWidth="1"/>
     <col min="6" max="6" width="22.1640625" customWidth="1"/>
-    <col min="7" max="7" width="13.33203125" customWidth="1"/>
+    <col min="7" max="7" width="19.33203125" customWidth="1"/>
     <col min="8" max="8" width="20.5" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2720,7 +2727,7 @@
         <v>19</v>
       </c>
       <c r="C30" s="26"/>
-      <c r="D30" s="26" t="s">
+      <c r="D30" s="30" t="s">
         <v>233</v>
       </c>
       <c r="E30" s="26" t="s">
@@ -2772,7 +2779,7 @@
       <c r="B32" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D32" s="26" t="s">
+      <c r="D32" s="30" t="s">
         <v>234</v>
       </c>
       <c r="E32" s="26" t="s">
@@ -2824,7 +2831,7 @@
       <c r="B34" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D34" s="26" t="s">
+      <c r="D34" s="30" t="s">
         <v>236</v>
       </c>
       <c r="E34" s="26" t="s">
@@ -2876,7 +2883,7 @@
       <c r="B36" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D36" s="26" t="s">
+      <c r="D36" s="30" t="s">
         <v>238</v>
       </c>
       <c r="E36" s="26" t="s">
@@ -2922,25 +2929,27 @@
       </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A38" s="1">
+      <c r="A38" s="94">
         <v>9</v>
       </c>
-      <c r="B38" s="1" t="s">
+      <c r="B38" s="94" t="s">
         <v>34</v>
       </c>
-      <c r="D38" s="26" t="s">
+      <c r="C38" s="94"/>
+      <c r="D38" s="30" t="s">
         <v>32</v>
       </c>
-      <c r="E38" s="26" t="s">
+      <c r="E38" s="30" t="s">
         <v>122</v>
       </c>
-      <c r="F38" s="1" t="s">
+      <c r="F38" s="94" t="s">
         <v>151</v>
       </c>
-      <c r="G38" s="26" t="s">
+      <c r="G38" s="30" t="s">
         <v>152</v>
       </c>
-      <c r="I38" s="1" t="s">
+      <c r="H38" s="94"/>
+      <c r="I38" s="94" t="s">
         <v>14</v>
       </c>
       <c r="K38" s="26" t="s">
@@ -2948,25 +2957,27 @@
       </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A39" s="1">
+      <c r="A39" s="94">
         <v>10</v>
       </c>
-      <c r="B39" s="1" t="s">
+      <c r="B39" s="94" t="s">
         <v>35</v>
       </c>
-      <c r="D39" s="26" t="s">
+      <c r="C39" s="94"/>
+      <c r="D39" s="30" t="s">
         <v>32</v>
       </c>
-      <c r="E39" s="26" t="s">
+      <c r="E39" s="30" t="s">
         <v>122</v>
       </c>
-      <c r="F39" s="1" t="s">
+      <c r="F39" s="94" t="s">
         <v>153</v>
       </c>
-      <c r="G39" s="26" t="s">
+      <c r="G39" s="30" t="s">
         <v>154</v>
       </c>
-      <c r="I39" s="1" t="s">
+      <c r="H39" s="94"/>
+      <c r="I39" s="94" t="s">
         <v>14</v>
       </c>
       <c r="K39" s="26" t="s">
@@ -2974,25 +2985,27 @@
       </c>
     </row>
     <row r="40" spans="1:13" ht="17" x14ac:dyDescent="0.2">
-      <c r="A40" s="1">
+      <c r="A40" s="94">
         <v>11</v>
       </c>
-      <c r="B40" s="1" t="s">
+      <c r="B40" s="94" t="s">
         <v>36</v>
       </c>
-      <c r="D40" s="2" t="s">
+      <c r="C40" s="94"/>
+      <c r="D40" s="93" t="s">
         <v>33</v>
       </c>
-      <c r="E40" s="26" t="s">
+      <c r="E40" s="30" t="s">
         <v>122</v>
       </c>
-      <c r="F40" s="1" t="s">
+      <c r="F40" s="94" t="s">
         <v>151</v>
       </c>
-      <c r="G40" s="26" t="s">
+      <c r="G40" s="30" t="s">
         <v>152</v>
       </c>
-      <c r="I40" s="1" t="s">
+      <c r="H40" s="94"/>
+      <c r="I40" s="94" t="s">
         <v>14</v>
       </c>
       <c r="K40" s="26" t="s">
@@ -3000,25 +3013,27 @@
       </c>
     </row>
     <row r="41" spans="1:13" ht="18" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="1">
+      <c r="A41" s="94">
         <v>12</v>
       </c>
-      <c r="B41" s="1" t="s">
+      <c r="B41" s="94" t="s">
         <v>37</v>
       </c>
-      <c r="D41" s="2" t="s">
+      <c r="C41" s="94"/>
+      <c r="D41" s="93" t="s">
         <v>33</v>
       </c>
-      <c r="E41" s="26" t="s">
+      <c r="E41" s="30" t="s">
         <v>122</v>
       </c>
-      <c r="F41" s="1" t="s">
+      <c r="F41" s="94" t="s">
         <v>153</v>
       </c>
-      <c r="G41" s="26" t="s">
+      <c r="G41" s="30" t="s">
         <v>154</v>
       </c>
-      <c r="I41" s="1" t="s">
+      <c r="H41" s="94"/>
+      <c r="I41" s="94" t="s">
         <v>14</v>
       </c>
       <c r="K41" s="26" t="s">
@@ -3035,24 +3050,20 @@
       <c r="C42" s="85" t="s">
         <v>145</v>
       </c>
-      <c r="D42" s="85" t="s">
-        <v>144</v>
+      <c r="D42" s="35" t="s">
+        <v>285</v>
       </c>
       <c r="E42" s="86"/>
-      <c r="F42" s="35" t="s">
-        <v>285</v>
-      </c>
-      <c r="G42" s="86"/>
+      <c r="F42" s="86" t="s">
+        <v>153</v>
+      </c>
+      <c r="G42" s="86" t="s">
+        <v>341</v>
+      </c>
       <c r="H42" s="86" t="s">
-        <v>153</v>
-      </c>
-      <c r="I42" s="86" t="s">
-        <v>341</v>
-      </c>
-      <c r="J42" s="86" t="s">
         <v>340</v>
       </c>
-      <c r="K42" s="36" t="s">
+      <c r="I42" s="36" t="s">
         <v>14</v>
       </c>
     </row>
@@ -3066,24 +3077,20 @@
       <c r="C43" s="87" t="s">
         <v>144</v>
       </c>
-      <c r="D43" s="87" t="s">
-        <v>145</v>
+      <c r="D43" s="26" t="s">
+        <v>290</v>
       </c>
       <c r="E43" s="46"/>
       <c r="F43" s="26" t="s">
-        <v>290</v>
-      </c>
-      <c r="G43" s="46"/>
+        <v>153</v>
+      </c>
+      <c r="G43" s="26" t="s">
+        <v>344</v>
+      </c>
       <c r="H43" s="26" t="s">
-        <v>153</v>
-      </c>
-      <c r="I43" s="26" t="s">
-        <v>344</v>
-      </c>
-      <c r="J43" s="26" t="s">
         <v>340</v>
       </c>
-      <c r="K43" s="33" t="s">
+      <c r="I43" s="33" t="s">
         <v>14</v>
       </c>
     </row>
@@ -3097,24 +3104,20 @@
       <c r="C44" s="87" t="s">
         <v>145</v>
       </c>
-      <c r="D44" s="87" t="s">
-        <v>144</v>
+      <c r="D44" s="26" t="s">
+        <v>343</v>
       </c>
       <c r="E44" s="46"/>
       <c r="F44" s="26" t="s">
-        <v>343</v>
-      </c>
-      <c r="G44" s="46"/>
+        <v>151</v>
+      </c>
+      <c r="G44" s="26" t="s">
+        <v>342</v>
+      </c>
       <c r="H44" s="26" t="s">
-        <v>151</v>
-      </c>
-      <c r="I44" s="26" t="s">
-        <v>342</v>
-      </c>
-      <c r="J44" s="26" t="s">
         <v>346</v>
       </c>
-      <c r="K44" s="33" t="s">
+      <c r="I44" s="33" t="s">
         <v>14</v>
       </c>
     </row>
@@ -3128,24 +3131,20 @@
       <c r="C45" s="87" t="s">
         <v>144</v>
       </c>
-      <c r="D45" s="87" t="s">
-        <v>145</v>
-      </c>
-      <c r="E45" s="26"/>
+      <c r="D45" s="26" t="s">
+        <v>345</v>
+      </c>
+      <c r="E45" s="46"/>
       <c r="F45" s="26" t="s">
-        <v>345</v>
-      </c>
-      <c r="G45" s="46"/>
+        <v>151</v>
+      </c>
+      <c r="G45" s="26" t="s">
+        <v>106</v>
+      </c>
       <c r="H45" s="26" t="s">
-        <v>151</v>
-      </c>
-      <c r="I45" s="26" t="s">
-        <v>106</v>
-      </c>
-      <c r="J45" s="26" t="s">
         <v>346</v>
       </c>
-      <c r="K45" s="33" t="s">
+      <c r="I45" s="33" t="s">
         <v>14</v>
       </c>
     </row>
@@ -3159,24 +3158,20 @@
       <c r="C46" s="87" t="s">
         <v>145</v>
       </c>
-      <c r="D46" s="87" t="s">
-        <v>144</v>
-      </c>
-      <c r="E46" s="26"/>
+      <c r="D46" s="26" t="s">
+        <v>347</v>
+      </c>
+      <c r="E46" s="46"/>
       <c r="F46" s="26" t="s">
-        <v>347</v>
-      </c>
-      <c r="G46" s="46"/>
+        <v>101</v>
+      </c>
+      <c r="G46" s="26" t="s">
+        <v>117</v>
+      </c>
       <c r="H46" s="26" t="s">
-        <v>101</v>
-      </c>
-      <c r="I46" s="26" t="s">
-        <v>117</v>
-      </c>
-      <c r="J46" s="26" t="s">
         <v>338</v>
       </c>
-      <c r="K46" s="33" t="s">
+      <c r="I46" s="33" t="s">
         <v>14</v>
       </c>
     </row>
@@ -3190,24 +3185,20 @@
       <c r="C47" s="88" t="s">
         <v>144</v>
       </c>
-      <c r="D47" s="88" t="s">
-        <v>145</v>
-      </c>
-      <c r="E47" s="38"/>
+      <c r="D47" s="89" t="s">
+        <v>170</v>
+      </c>
+      <c r="E47" s="89"/>
       <c r="F47" s="89" t="s">
-        <v>170</v>
-      </c>
-      <c r="G47" s="89"/>
+        <v>348</v>
+      </c>
+      <c r="G47" s="89" t="s">
+        <v>349</v>
+      </c>
       <c r="H47" s="89" t="s">
-        <v>348</v>
-      </c>
-      <c r="I47" s="89" t="s">
-        <v>349</v>
-      </c>
-      <c r="J47" s="89" t="s">
         <v>338</v>
       </c>
-      <c r="K47" s="33" t="s">
+      <c r="I47" s="33" t="s">
         <v>14</v>
       </c>
       <c r="M47" t="s">
@@ -3215,64 +3206,56 @@
       </c>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A48" s="1">
+      <c r="A48" s="94">
         <v>19</v>
       </c>
-      <c r="B48" s="83" t="s">
+      <c r="B48" s="95" t="s">
         <v>299</v>
       </c>
-      <c r="C48" s="87" t="s">
-        <v>145</v>
-      </c>
-      <c r="D48" s="87" t="s">
-        <v>144</v>
-      </c>
-      <c r="E48" s="26"/>
-      <c r="F48" s="26" t="s">
+      <c r="C48" s="96" t="s">
+        <v>145</v>
+      </c>
+      <c r="D48" s="30" t="s">
         <v>33</v>
       </c>
-      <c r="G48" s="46"/>
-      <c r="H48" s="26" t="s">
+      <c r="E48" s="30"/>
+      <c r="F48" s="30" t="s">
         <v>151</v>
       </c>
-      <c r="I48" s="26" t="s">
+      <c r="G48" s="30" t="s">
         <v>329</v>
       </c>
-      <c r="J48" s="26" t="s">
+      <c r="H48" s="30" t="s">
         <v>339</v>
       </c>
-      <c r="K48" s="33" t="s">
+      <c r="I48" s="97" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A49" s="1">
+      <c r="A49" s="94">
         <v>20</v>
       </c>
-      <c r="B49" s="83" t="s">
+      <c r="B49" s="95" t="s">
         <v>300</v>
       </c>
-      <c r="C49" s="87" t="s">
-        <v>144</v>
-      </c>
-      <c r="D49" s="87" t="s">
-        <v>145</v>
-      </c>
-      <c r="E49" s="26"/>
-      <c r="F49" s="26" t="s">
+      <c r="C49" s="96" t="s">
+        <v>144</v>
+      </c>
+      <c r="D49" s="30" t="s">
         <v>32</v>
       </c>
-      <c r="G49" s="46"/>
-      <c r="H49" s="26" t="s">
+      <c r="E49" s="30"/>
+      <c r="F49" s="30" t="s">
         <v>151</v>
       </c>
-      <c r="I49" s="26" t="s">
+      <c r="G49" s="30" t="s">
         <v>350</v>
       </c>
-      <c r="J49" s="26" t="s">
+      <c r="H49" s="30" t="s">
         <v>339</v>
       </c>
-      <c r="K49" s="33" t="s">
+      <c r="I49" s="97" t="s">
         <v>14</v>
       </c>
     </row>
@@ -3286,24 +3269,20 @@
       <c r="C50" s="87" t="s">
         <v>145</v>
       </c>
-      <c r="D50" s="87" t="s">
-        <v>144</v>
-      </c>
-      <c r="E50" s="26"/>
+      <c r="D50" s="26" t="s">
+        <v>351</v>
+      </c>
+      <c r="E50" s="46"/>
       <c r="F50" s="26" t="s">
-        <v>351</v>
-      </c>
-      <c r="G50" s="46"/>
+        <v>151</v>
+      </c>
+      <c r="G50" s="26" t="s">
+        <v>62</v>
+      </c>
       <c r="H50" s="26" t="s">
-        <v>151</v>
-      </c>
-      <c r="I50" s="26" t="s">
-        <v>62</v>
-      </c>
-      <c r="J50" s="26" t="s">
         <v>339</v>
       </c>
-      <c r="K50" s="33" t="s">
+      <c r="I50" s="33" t="s">
         <v>14</v>
       </c>
     </row>
@@ -3317,24 +3296,20 @@
       <c r="C51" s="87" t="s">
         <v>144</v>
       </c>
-      <c r="D51" s="87" t="s">
-        <v>145</v>
-      </c>
-      <c r="E51" s="26"/>
+      <c r="D51" s="26" t="s">
+        <v>321</v>
+      </c>
+      <c r="E51" s="46"/>
       <c r="F51" s="26" t="s">
-        <v>321</v>
-      </c>
-      <c r="G51" s="46"/>
+        <v>151</v>
+      </c>
+      <c r="G51" s="26" t="s">
+        <v>352</v>
+      </c>
       <c r="H51" s="26" t="s">
-        <v>151</v>
-      </c>
-      <c r="I51" s="26" t="s">
-        <v>352</v>
-      </c>
-      <c r="J51" s="26" t="s">
         <v>339</v>
       </c>
-      <c r="K51" s="33" t="s">
+      <c r="I51" s="33" t="s">
         <v>14</v>
       </c>
       <c r="M51" t="s">
@@ -3351,24 +3326,20 @@
       <c r="C52" s="87" t="s">
         <v>145</v>
       </c>
-      <c r="D52" s="87" t="s">
-        <v>144</v>
-      </c>
-      <c r="E52" s="26"/>
-      <c r="F52" s="52" t="s">
+      <c r="D52" s="52" t="s">
         <v>355</v>
       </c>
-      <c r="G52" s="46"/>
+      <c r="E52" s="46"/>
+      <c r="F52" s="26" t="s">
+        <v>353</v>
+      </c>
+      <c r="G52" s="26" t="s">
+        <v>281</v>
+      </c>
       <c r="H52" s="26" t="s">
-        <v>353</v>
-      </c>
-      <c r="I52" s="26" t="s">
-        <v>281</v>
-      </c>
-      <c r="J52" s="26" t="s">
         <v>339</v>
       </c>
-      <c r="K52" s="33" t="s">
+      <c r="I52" s="33" t="s">
         <v>14</v>
       </c>
     </row>
@@ -3382,24 +3353,20 @@
       <c r="C53" s="88" t="s">
         <v>144</v>
       </c>
-      <c r="D53" s="88" t="s">
-        <v>145</v>
+      <c r="D53" s="90" t="s">
+        <v>228</v>
       </c>
       <c r="E53" s="89"/>
-      <c r="F53" s="90" t="s">
-        <v>228</v>
-      </c>
-      <c r="G53" s="89"/>
+      <c r="F53" s="89" t="s">
+        <v>268</v>
+      </c>
+      <c r="G53" s="89" t="s">
+        <v>102</v>
+      </c>
       <c r="H53" s="89" t="s">
-        <v>268</v>
-      </c>
-      <c r="I53" s="89" t="s">
-        <v>102</v>
-      </c>
-      <c r="J53" s="89" t="s">
         <v>339</v>
       </c>
-      <c r="K53" s="39" t="s">
+      <c r="I53" s="39" t="s">
         <v>14</v>
       </c>
     </row>
@@ -9445,8 +9412,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B190E994-F93E-614B-8348-06136D69F1B4}">
   <dimension ref="A1:O32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="131" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+    <sheetView zoomScale="131" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/notes/conditions.xlsx
+++ b/notes/conditions.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10410"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10507"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/momo/Dropbox/projects/connectives-qud/notes/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72AB6CEB-78E8-C240-B9D2-13D423CE7D53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{973E8D2E-3769-8948-B561-78C72E2832E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20240" xr2:uid="{3AB9929D-0A0B-1747-A8A7-16F45675C35B}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20240" activeTab="5" xr2:uid="{3AB9929D-0A0B-1747-A8A7-16F45675C35B}"/>
   </bookViews>
   <sheets>
     <sheet name="overall" sheetId="9" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2408" uniqueCount="356">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2408" uniqueCount="355">
   <si>
     <t>QUD</t>
   </si>
@@ -1104,9 +1104,6 @@
   </si>
   <si>
     <t>There is an O and</t>
-  </si>
-  <si>
-    <t>Is there an O or anL?</t>
   </si>
   <si>
     <t>Is there an O or an L?</t>
@@ -1784,7 +1781,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CD98CBC-AE24-7441-ABC5-9741245297FD}">
   <dimension ref="A1:N142"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="163" workbookViewId="0">
+    <sheetView topLeftCell="A4" zoomScale="163" workbookViewId="0">
       <selection activeCell="B50" sqref="B50"/>
     </sheetView>
   </sheetViews>
@@ -3327,7 +3324,7 @@
         <v>145</v>
       </c>
       <c r="D52" s="52" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E52" s="46"/>
       <c r="F52" s="26" t="s">
@@ -5045,8 +5042,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AF67E4E-E4AB-264E-82F4-FE4611E9720D}">
   <dimension ref="A1:X56"/>
   <sheetViews>
-    <sheetView zoomScale="114" workbookViewId="0">
-      <selection activeCell="H32" sqref="H32"/>
+    <sheetView zoomScale="224" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -9412,8 +9409,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B190E994-F93E-614B-8348-06136D69F1B4}">
   <dimension ref="A1:O32"/>
   <sheetViews>
-    <sheetView zoomScale="131" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView tabSelected="1" zoomScale="131" workbookViewId="0">
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/notes/conditions.xlsx
+++ b/notes/conditions.xlsx
@@ -1,29 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/momo/Dropbox/projects/connectives-qud/notes/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B2370B3-A45A-AF45-9632-A96CF471C8ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEF54ECF-31C3-FE4A-B676-9AD70C86A5FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="820" windowWidth="35840" windowHeight="15860" activeTab="1" xr2:uid="{3AB9929D-0A0B-1747-A8A7-16F45675C35B}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20240" activeTab="1" xr2:uid="{3AB9929D-0A0B-1747-A8A7-16F45675C35B}"/>
   </bookViews>
   <sheets>
     <sheet name="overall" sheetId="9" r:id="rId1"/>
     <sheet name="new good test items" sheetId="11" r:id="rId2"/>
-    <sheet name="newSpecific-Working" sheetId="13" r:id="rId3"/>
-    <sheet name="critical_specificQUD" sheetId="14" r:id="rId4"/>
-    <sheet name="training" sheetId="6" r:id="rId5"/>
-    <sheet name="fillers" sheetId="5" r:id="rId6"/>
-    <sheet name="fillers_noQUD" sheetId="16" r:id="rId7"/>
-    <sheet name="training_noQUD" sheetId="17" r:id="rId8"/>
-    <sheet name="critical_generalQUD" sheetId="7" r:id="rId9"/>
-    <sheet name="critical_NoQUD" sheetId="8" r:id="rId10"/>
-    <sheet name="old_specificQUD" sheetId="4" r:id="rId11"/>
+    <sheet name="newcoding" sheetId="19" r:id="rId3"/>
+    <sheet name="newSpecific-Working" sheetId="13" r:id="rId4"/>
+    <sheet name="critical_specificQUD" sheetId="14" r:id="rId5"/>
+    <sheet name="training" sheetId="6" r:id="rId6"/>
+    <sheet name="fillers" sheetId="5" r:id="rId7"/>
+    <sheet name="fillers_noQUD" sheetId="16" r:id="rId8"/>
+    <sheet name="training_noQUD" sheetId="17" r:id="rId9"/>
+    <sheet name="critical_generalQUD" sheetId="7" r:id="rId10"/>
+    <sheet name="Feuil1" sheetId="18" r:id="rId11"/>
+    <sheet name="critical_NoQUD" sheetId="8" r:id="rId12"/>
+    <sheet name="old_specificQUD" sheetId="4" r:id="rId13"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -44,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3072" uniqueCount="378">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3380" uniqueCount="392">
   <si>
     <t>QUD</t>
   </si>
@@ -1178,13 +1180,55 @@
   </si>
   <si>
     <t>aff</t>
+  </si>
+  <si>
+    <t>Ans-Mention</t>
+  </si>
+  <si>
+    <t>green and yellow items should all be the same for noQUD and General QUD because they mention a letter that's actually in the set of letters shown</t>
+  </si>
+  <si>
+    <t>notMention</t>
+  </si>
+  <si>
+    <t>prediction: 'but' takes longer when FC is Mention</t>
+  </si>
+  <si>
+    <t>Mention</t>
+  </si>
+  <si>
+    <t>Negation</t>
+  </si>
+  <si>
+    <t>no</t>
+  </si>
+  <si>
+    <t>AnsQUDRelevant</t>
+  </si>
+  <si>
+    <t>AnsConj1</t>
+  </si>
+  <si>
+    <t>QUDMention</t>
+  </si>
+  <si>
+    <t>AnsMention</t>
+  </si>
+  <si>
+    <t>yn</t>
+  </si>
+  <si>
+    <t>QUDType</t>
+  </si>
+  <si>
+    <t>Specific</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1207,8 +1251,21 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="11">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1267,6 +1324,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FF9A8BFC"/>
         <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -1399,7 +1462,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="84">
+  <cellXfs count="94">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1506,6 +1569,18 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -5090,6 +5165,1590 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{468B3338-8DB1-0C41-9F65-FD8573AFE35E}">
+  <dimension ref="A1:N25"/>
+  <sheetViews>
+    <sheetView zoomScale="132" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="6" max="6" width="26.6640625" customWidth="1"/>
+    <col min="8" max="8" width="16" customWidth="1"/>
+    <col min="9" max="9" width="18" customWidth="1"/>
+    <col min="12" max="16384" width="10.83203125" style="13"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" ht="35" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="32" t="s">
+        <v>231</v>
+      </c>
+      <c r="B1" s="33" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="F1" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="G1" s="33" t="s">
+        <v>38</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J1" s="33" t="s">
+        <v>230</v>
+      </c>
+      <c r="K1" s="34" t="s">
+        <v>41</v>
+      </c>
+      <c r="L1" s="14"/>
+      <c r="M1" s="14"/>
+      <c r="N1" s="14"/>
+    </row>
+    <row r="2" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="10">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" t="s">
+        <v>134</v>
+      </c>
+      <c r="D2" t="s">
+        <v>135</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>166</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>345</v>
+      </c>
+      <c r="G2" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="J2" s="11" t="s">
+        <v>213</v>
+      </c>
+      <c r="K2" s="12" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="6">
+        <v>2</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3" t="s">
+        <v>135</v>
+      </c>
+      <c r="D3" t="s">
+        <v>134</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>345</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="H3" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="I3" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="J3" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="K3" s="8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="3">
+        <v>3</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="C4" t="s">
+        <v>134</v>
+      </c>
+      <c r="D4" t="s">
+        <v>135</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>345</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="H4" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="I4" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="K4" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="6">
+        <v>4</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="C5" t="s">
+        <v>135</v>
+      </c>
+      <c r="D5" t="s">
+        <v>134</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>345</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="H5" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="I5" s="11" t="s">
+        <v>234</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="K5" s="8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
+        <v>5</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="C6" t="s">
+        <v>134</v>
+      </c>
+      <c r="D6" t="s">
+        <v>135</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>345</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="J6" s="4" t="s">
+        <v>214</v>
+      </c>
+      <c r="K6" s="5" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="6">
+        <v>6</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="C7" t="s">
+        <v>135</v>
+      </c>
+      <c r="D7" t="s">
+        <v>134</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>345</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="H7" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="I7" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="K7" s="8" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="10">
+        <v>7</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="C8" t="s">
+        <v>134</v>
+      </c>
+      <c r="D8" t="s">
+        <v>135</v>
+      </c>
+      <c r="E8" s="11" t="s">
+        <v>167</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>345</v>
+      </c>
+      <c r="G8" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="H8" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="I8" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="J8" s="11" t="s">
+        <v>214</v>
+      </c>
+      <c r="K8" s="12" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="10">
+        <v>8</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="C9" t="s">
+        <v>135</v>
+      </c>
+      <c r="D9" t="s">
+        <v>134</v>
+      </c>
+      <c r="E9" s="11" t="s">
+        <v>167</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>345</v>
+      </c>
+      <c r="G9" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="H9" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="I9" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="J9" s="11" t="s">
+        <v>214</v>
+      </c>
+      <c r="K9" s="12" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="3">
+        <v>9</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="C10" t="s">
+        <v>134</v>
+      </c>
+      <c r="D10" t="s">
+        <v>135</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>345</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="I10" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="J10" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="K10" s="5" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="10">
+        <v>10</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>246</v>
+      </c>
+      <c r="C11" t="s">
+        <v>135</v>
+      </c>
+      <c r="D11" t="s">
+        <v>134</v>
+      </c>
+      <c r="E11" s="11" t="s">
+        <v>168</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>345</v>
+      </c>
+      <c r="G11" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="H11" s="11" t="s">
+        <v>248</v>
+      </c>
+      <c r="I11" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="J11" s="11" t="s">
+        <v>215</v>
+      </c>
+      <c r="K11" s="12" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="3">
+        <v>11</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>249</v>
+      </c>
+      <c r="C12" t="s">
+        <v>134</v>
+      </c>
+      <c r="D12" t="s">
+        <v>135</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>345</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="I12" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="J12" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="K12" s="5" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="6">
+        <v>12</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="C13" t="s">
+        <v>135</v>
+      </c>
+      <c r="D13" t="s">
+        <v>134</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>345</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="H13" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="I13" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="K13" s="8" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="38">
+        <v>1</v>
+      </c>
+      <c r="B14" s="45" t="s">
+        <v>65</v>
+      </c>
+      <c r="C14" t="s">
+        <v>134</v>
+      </c>
+      <c r="D14" t="s">
+        <v>135</v>
+      </c>
+      <c r="E14" s="39" t="s">
+        <v>166</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>345</v>
+      </c>
+      <c r="G14" s="39" t="s">
+        <v>1</v>
+      </c>
+      <c r="H14" s="45" t="s">
+        <v>67</v>
+      </c>
+      <c r="I14" s="45" t="s">
+        <v>68</v>
+      </c>
+      <c r="J14" s="39" t="s">
+        <v>213</v>
+      </c>
+      <c r="K14" s="40" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="41">
+        <v>2</v>
+      </c>
+      <c r="B15" s="39" t="s">
+        <v>85</v>
+      </c>
+      <c r="C15" t="s">
+        <v>135</v>
+      </c>
+      <c r="D15" t="s">
+        <v>134</v>
+      </c>
+      <c r="E15" s="42" t="s">
+        <v>166</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>345</v>
+      </c>
+      <c r="G15" s="42" t="s">
+        <v>2</v>
+      </c>
+      <c r="H15" s="39" t="s">
+        <v>71</v>
+      </c>
+      <c r="I15" s="39" t="s">
+        <v>72</v>
+      </c>
+      <c r="J15" s="42" t="s">
+        <v>213</v>
+      </c>
+      <c r="K15" s="43" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="44">
+        <v>3</v>
+      </c>
+      <c r="B16" s="39" t="s">
+        <v>81</v>
+      </c>
+      <c r="C16" t="s">
+        <v>134</v>
+      </c>
+      <c r="D16" t="s">
+        <v>135</v>
+      </c>
+      <c r="E16" s="45" t="s">
+        <v>166</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>345</v>
+      </c>
+      <c r="G16" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="H16" s="39" t="s">
+        <v>30</v>
+      </c>
+      <c r="I16" s="39" t="s">
+        <v>83</v>
+      </c>
+      <c r="J16" s="45" t="s">
+        <v>215</v>
+      </c>
+      <c r="K16" s="46" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="41">
+        <v>4</v>
+      </c>
+      <c r="B17" s="42" t="s">
+        <v>84</v>
+      </c>
+      <c r="C17" t="s">
+        <v>135</v>
+      </c>
+      <c r="D17" t="s">
+        <v>134</v>
+      </c>
+      <c r="E17" s="42" t="s">
+        <v>166</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>345</v>
+      </c>
+      <c r="G17" s="42" t="s">
+        <v>2</v>
+      </c>
+      <c r="H17" s="42" t="s">
+        <v>87</v>
+      </c>
+      <c r="I17" s="42" t="s">
+        <v>88</v>
+      </c>
+      <c r="J17" s="42" t="s">
+        <v>215</v>
+      </c>
+      <c r="K17" s="43" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="44">
+        <v>5</v>
+      </c>
+      <c r="B18" s="45" t="s">
+        <v>254</v>
+      </c>
+      <c r="C18" t="s">
+        <v>134</v>
+      </c>
+      <c r="D18" t="s">
+        <v>135</v>
+      </c>
+      <c r="E18" s="45" t="s">
+        <v>168</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>345</v>
+      </c>
+      <c r="G18" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="H18" s="45" t="s">
+        <v>195</v>
+      </c>
+      <c r="I18" s="45" t="s">
+        <v>111</v>
+      </c>
+      <c r="J18" s="45" t="s">
+        <v>214</v>
+      </c>
+      <c r="K18" s="46" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="41">
+        <v>6</v>
+      </c>
+      <c r="B19" s="42" t="s">
+        <v>256</v>
+      </c>
+      <c r="C19" t="s">
+        <v>135</v>
+      </c>
+      <c r="D19" t="s">
+        <v>134</v>
+      </c>
+      <c r="E19" s="42" t="s">
+        <v>168</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>345</v>
+      </c>
+      <c r="G19" s="42" t="s">
+        <v>2</v>
+      </c>
+      <c r="H19" s="42" t="s">
+        <v>258</v>
+      </c>
+      <c r="I19" s="42" t="s">
+        <v>259</v>
+      </c>
+      <c r="J19" s="42" t="s">
+        <v>214</v>
+      </c>
+      <c r="K19" s="43" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="38">
+        <v>7</v>
+      </c>
+      <c r="B20" s="39" t="s">
+        <v>73</v>
+      </c>
+      <c r="C20" t="s">
+        <v>134</v>
+      </c>
+      <c r="D20" t="s">
+        <v>135</v>
+      </c>
+      <c r="E20" s="39" t="s">
+        <v>167</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>345</v>
+      </c>
+      <c r="G20" s="39" t="s">
+        <v>1</v>
+      </c>
+      <c r="H20" s="39" t="s">
+        <v>75</v>
+      </c>
+      <c r="I20" s="39" t="s">
+        <v>76</v>
+      </c>
+      <c r="J20" s="39" t="s">
+        <v>214</v>
+      </c>
+      <c r="K20" s="40" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="38">
+        <v>8</v>
+      </c>
+      <c r="B21" s="39" t="s">
+        <v>77</v>
+      </c>
+      <c r="C21" t="s">
+        <v>135</v>
+      </c>
+      <c r="D21" t="s">
+        <v>134</v>
+      </c>
+      <c r="E21" s="39" t="s">
+        <v>167</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>345</v>
+      </c>
+      <c r="G21" s="39" t="s">
+        <v>2</v>
+      </c>
+      <c r="H21" s="39" t="s">
+        <v>79</v>
+      </c>
+      <c r="I21" s="39" t="s">
+        <v>80</v>
+      </c>
+      <c r="J21" s="39" t="s">
+        <v>214</v>
+      </c>
+      <c r="K21" s="40" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="44">
+        <v>9</v>
+      </c>
+      <c r="B22" s="45" t="s">
+        <v>260</v>
+      </c>
+      <c r="C22" t="s">
+        <v>134</v>
+      </c>
+      <c r="D22" t="s">
+        <v>135</v>
+      </c>
+      <c r="E22" s="45" t="s">
+        <v>168</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>345</v>
+      </c>
+      <c r="G22" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="H22" s="45" t="s">
+        <v>189</v>
+      </c>
+      <c r="I22" s="45" t="s">
+        <v>48</v>
+      </c>
+      <c r="J22" s="45" t="s">
+        <v>215</v>
+      </c>
+      <c r="K22" s="46" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="38">
+        <v>10</v>
+      </c>
+      <c r="B23" s="39" t="s">
+        <v>264</v>
+      </c>
+      <c r="C23" t="s">
+        <v>135</v>
+      </c>
+      <c r="D23" t="s">
+        <v>134</v>
+      </c>
+      <c r="E23" s="39" t="s">
+        <v>168</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>345</v>
+      </c>
+      <c r="G23" s="39" t="s">
+        <v>2</v>
+      </c>
+      <c r="H23" s="39" t="s">
+        <v>263</v>
+      </c>
+      <c r="I23" s="39" t="s">
+        <v>265</v>
+      </c>
+      <c r="J23" s="39" t="s">
+        <v>215</v>
+      </c>
+      <c r="K23" s="40" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="44">
+        <v>11</v>
+      </c>
+      <c r="B24" s="45" t="s">
+        <v>266</v>
+      </c>
+      <c r="C24" t="s">
+        <v>134</v>
+      </c>
+      <c r="D24" t="s">
+        <v>135</v>
+      </c>
+      <c r="E24" s="45" t="s">
+        <v>167</v>
+      </c>
+      <c r="F24" s="4" t="s">
+        <v>345</v>
+      </c>
+      <c r="G24" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="H24" s="45" t="s">
+        <v>267</v>
+      </c>
+      <c r="I24" s="45" t="s">
+        <v>52</v>
+      </c>
+      <c r="J24" s="45" t="s">
+        <v>213</v>
+      </c>
+      <c r="K24" s="46" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="41">
+        <v>12</v>
+      </c>
+      <c r="B25" s="42" t="s">
+        <v>269</v>
+      </c>
+      <c r="C25" t="s">
+        <v>135</v>
+      </c>
+      <c r="D25" t="s">
+        <v>134</v>
+      </c>
+      <c r="E25" s="42" t="s">
+        <v>167</v>
+      </c>
+      <c r="F25" s="4" t="s">
+        <v>345</v>
+      </c>
+      <c r="G25" s="42" t="s">
+        <v>2</v>
+      </c>
+      <c r="H25" s="42" t="s">
+        <v>270</v>
+      </c>
+      <c r="I25" s="42" t="s">
+        <v>271</v>
+      </c>
+      <c r="J25" s="42" t="s">
+        <v>213</v>
+      </c>
+      <c r="K25" s="43" t="s">
+        <v>245</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D4B70A3-3ED8-EE4E-8063-2B680E725879}">
+  <dimension ref="A1:H29"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D30" sqref="D30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="4" max="4" width="27.1640625" customWidth="1"/>
+    <col min="6" max="6" width="23.1640625" customWidth="1"/>
+    <col min="7" max="7" width="20.1640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="35" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="32" t="s">
+        <v>231</v>
+      </c>
+      <c r="B1" s="33" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="D1" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="33" t="s">
+        <v>38</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="H1" s="33" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="10">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>166</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>345</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="H2" s="11" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="6">
+        <v>2</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>345</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="G3" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="84">
+        <v>3</v>
+      </c>
+      <c r="B4" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="C4" s="85" t="s">
+        <v>166</v>
+      </c>
+      <c r="D4" s="85" t="s">
+        <v>345</v>
+      </c>
+      <c r="E4" s="85" t="s">
+        <v>1</v>
+      </c>
+      <c r="F4" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="G4" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="H4" s="85" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="86">
+        <v>4</v>
+      </c>
+      <c r="B5" s="87" t="s">
+        <v>61</v>
+      </c>
+      <c r="C5" s="88" t="s">
+        <v>166</v>
+      </c>
+      <c r="D5" s="89" t="s">
+        <v>345</v>
+      </c>
+      <c r="E5" s="88" t="s">
+        <v>2</v>
+      </c>
+      <c r="F5" s="87" t="s">
+        <v>63</v>
+      </c>
+      <c r="G5" s="87" t="s">
+        <v>234</v>
+      </c>
+      <c r="H5" s="88" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="84">
+        <v>5</v>
+      </c>
+      <c r="B6" s="85" t="s">
+        <v>236</v>
+      </c>
+      <c r="C6" s="85" t="s">
+        <v>168</v>
+      </c>
+      <c r="D6" s="85" t="s">
+        <v>345</v>
+      </c>
+      <c r="E6" s="85" t="s">
+        <v>1</v>
+      </c>
+      <c r="F6" s="85" t="s">
+        <v>237</v>
+      </c>
+      <c r="G6" s="85" t="s">
+        <v>172</v>
+      </c>
+      <c r="H6" s="85" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="86">
+        <v>6</v>
+      </c>
+      <c r="B7" s="88" t="s">
+        <v>238</v>
+      </c>
+      <c r="C7" s="88" t="s">
+        <v>168</v>
+      </c>
+      <c r="D7" s="89" t="s">
+        <v>345</v>
+      </c>
+      <c r="E7" s="88" t="s">
+        <v>2</v>
+      </c>
+      <c r="F7" s="88" t="s">
+        <v>241</v>
+      </c>
+      <c r="G7" s="88" t="s">
+        <v>64</v>
+      </c>
+      <c r="H7" s="88" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="10">
+        <v>7</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>167</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>345</v>
+      </c>
+      <c r="E8" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="F8" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="G8" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" s="11" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="10">
+        <v>8</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>167</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>345</v>
+      </c>
+      <c r="E9" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="F9" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="G9" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="H9" s="11" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="84">
+        <v>9</v>
+      </c>
+      <c r="B10" s="85" t="s">
+        <v>242</v>
+      </c>
+      <c r="C10" s="85" t="s">
+        <v>168</v>
+      </c>
+      <c r="D10" s="85" t="s">
+        <v>345</v>
+      </c>
+      <c r="E10" s="85" t="s">
+        <v>1</v>
+      </c>
+      <c r="F10" s="85" t="s">
+        <v>244</v>
+      </c>
+      <c r="G10" s="85" t="s">
+        <v>92</v>
+      </c>
+      <c r="H10" s="85" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="90">
+        <v>10</v>
+      </c>
+      <c r="B11" s="87" t="s">
+        <v>246</v>
+      </c>
+      <c r="C11" s="87" t="s">
+        <v>168</v>
+      </c>
+      <c r="D11" s="89" t="s">
+        <v>345</v>
+      </c>
+      <c r="E11" s="87" t="s">
+        <v>2</v>
+      </c>
+      <c r="F11" s="87" t="s">
+        <v>248</v>
+      </c>
+      <c r="G11" s="87" t="s">
+        <v>80</v>
+      </c>
+      <c r="H11" s="87" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="84">
+        <v>11</v>
+      </c>
+      <c r="B12" s="85" t="s">
+        <v>249</v>
+      </c>
+      <c r="C12" s="85" t="s">
+        <v>167</v>
+      </c>
+      <c r="D12" s="85" t="s">
+        <v>345</v>
+      </c>
+      <c r="E12" s="85" t="s">
+        <v>1</v>
+      </c>
+      <c r="F12" s="85" t="s">
+        <v>220</v>
+      </c>
+      <c r="G12" s="85" t="s">
+        <v>92</v>
+      </c>
+      <c r="H12" s="85" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="86">
+        <v>12</v>
+      </c>
+      <c r="B13" s="88" t="s">
+        <v>251</v>
+      </c>
+      <c r="C13" s="88" t="s">
+        <v>167</v>
+      </c>
+      <c r="D13" s="89" t="s">
+        <v>345</v>
+      </c>
+      <c r="E13" s="88" t="s">
+        <v>2</v>
+      </c>
+      <c r="F13" s="88" t="s">
+        <v>63</v>
+      </c>
+      <c r="G13" s="88" t="s">
+        <v>253</v>
+      </c>
+      <c r="H13" s="88" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" s="1" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="68"/>
+      <c r="B14" s="13"/>
+      <c r="C14" s="13"/>
+      <c r="D14" s="20"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="13"/>
+      <c r="H14" s="13"/>
+    </row>
+    <row r="15" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="38">
+        <v>1</v>
+      </c>
+      <c r="B15" s="45" t="s">
+        <v>65</v>
+      </c>
+      <c r="C15" s="39" t="s">
+        <v>166</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>345</v>
+      </c>
+      <c r="E15" s="39" t="s">
+        <v>1</v>
+      </c>
+      <c r="F15" s="45" t="s">
+        <v>67</v>
+      </c>
+      <c r="G15" s="45" t="s">
+        <v>68</v>
+      </c>
+      <c r="H15" s="39" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="41">
+        <v>2</v>
+      </c>
+      <c r="B16" s="39" t="s">
+        <v>85</v>
+      </c>
+      <c r="C16" s="42" t="s">
+        <v>166</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>345</v>
+      </c>
+      <c r="E16" s="42" t="s">
+        <v>2</v>
+      </c>
+      <c r="F16" s="39" t="s">
+        <v>71</v>
+      </c>
+      <c r="G16" s="39" t="s">
+        <v>72</v>
+      </c>
+      <c r="H16" s="42" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="84">
+        <v>3</v>
+      </c>
+      <c r="B17" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="C17" s="85" t="s">
+        <v>166</v>
+      </c>
+      <c r="D17" s="85" t="s">
+        <v>345</v>
+      </c>
+      <c r="E17" s="85" t="s">
+        <v>1</v>
+      </c>
+      <c r="F17" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="G17" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="H17" s="85" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="86">
+        <v>4</v>
+      </c>
+      <c r="B18" s="88" t="s">
+        <v>84</v>
+      </c>
+      <c r="C18" s="88" t="s">
+        <v>166</v>
+      </c>
+      <c r="D18" s="89" t="s">
+        <v>345</v>
+      </c>
+      <c r="E18" s="88" t="s">
+        <v>2</v>
+      </c>
+      <c r="F18" s="88" t="s">
+        <v>87</v>
+      </c>
+      <c r="G18" s="88" t="s">
+        <v>88</v>
+      </c>
+      <c r="H18" s="88" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="84">
+        <v>5</v>
+      </c>
+      <c r="B19" s="85" t="s">
+        <v>254</v>
+      </c>
+      <c r="C19" s="85" t="s">
+        <v>168</v>
+      </c>
+      <c r="D19" s="85" t="s">
+        <v>345</v>
+      </c>
+      <c r="E19" s="85" t="s">
+        <v>1</v>
+      </c>
+      <c r="F19" s="85" t="s">
+        <v>195</v>
+      </c>
+      <c r="G19" s="85" t="s">
+        <v>111</v>
+      </c>
+      <c r="H19" s="85" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="86">
+        <v>6</v>
+      </c>
+      <c r="B20" s="88" t="s">
+        <v>256</v>
+      </c>
+      <c r="C20" s="88" t="s">
+        <v>168</v>
+      </c>
+      <c r="D20" s="89" t="s">
+        <v>345</v>
+      </c>
+      <c r="E20" s="88" t="s">
+        <v>2</v>
+      </c>
+      <c r="F20" s="88" t="s">
+        <v>258</v>
+      </c>
+      <c r="G20" s="88" t="s">
+        <v>259</v>
+      </c>
+      <c r="H20" s="88" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="38">
+        <v>7</v>
+      </c>
+      <c r="B21" s="39" t="s">
+        <v>73</v>
+      </c>
+      <c r="C21" s="39" t="s">
+        <v>167</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>345</v>
+      </c>
+      <c r="E21" s="39" t="s">
+        <v>1</v>
+      </c>
+      <c r="F21" s="39" t="s">
+        <v>75</v>
+      </c>
+      <c r="G21" s="39" t="s">
+        <v>76</v>
+      </c>
+      <c r="H21" s="39" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="38">
+        <v>8</v>
+      </c>
+      <c r="B22" s="39" t="s">
+        <v>77</v>
+      </c>
+      <c r="C22" s="39" t="s">
+        <v>167</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>345</v>
+      </c>
+      <c r="E22" s="39" t="s">
+        <v>2</v>
+      </c>
+      <c r="F22" s="39" t="s">
+        <v>79</v>
+      </c>
+      <c r="G22" s="39" t="s">
+        <v>80</v>
+      </c>
+      <c r="H22" s="39" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="84">
+        <v>9</v>
+      </c>
+      <c r="B23" s="85" t="s">
+        <v>260</v>
+      </c>
+      <c r="C23" s="85" t="s">
+        <v>168</v>
+      </c>
+      <c r="D23" s="85" t="s">
+        <v>345</v>
+      </c>
+      <c r="E23" s="85" t="s">
+        <v>1</v>
+      </c>
+      <c r="F23" s="85" t="s">
+        <v>189</v>
+      </c>
+      <c r="G23" s="85" t="s">
+        <v>48</v>
+      </c>
+      <c r="H23" s="85" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="90">
+        <v>10</v>
+      </c>
+      <c r="B24" s="87" t="s">
+        <v>264</v>
+      </c>
+      <c r="C24" s="87" t="s">
+        <v>168</v>
+      </c>
+      <c r="D24" s="89" t="s">
+        <v>345</v>
+      </c>
+      <c r="E24" s="87" t="s">
+        <v>2</v>
+      </c>
+      <c r="F24" s="87" t="s">
+        <v>263</v>
+      </c>
+      <c r="G24" s="87" t="s">
+        <v>265</v>
+      </c>
+      <c r="H24" s="87" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="84">
+        <v>11</v>
+      </c>
+      <c r="B25" s="85" t="s">
+        <v>266</v>
+      </c>
+      <c r="C25" s="85" t="s">
+        <v>167</v>
+      </c>
+      <c r="D25" s="85" t="s">
+        <v>345</v>
+      </c>
+      <c r="E25" s="85" t="s">
+        <v>1</v>
+      </c>
+      <c r="F25" s="85" t="s">
+        <v>267</v>
+      </c>
+      <c r="G25" s="85" t="s">
+        <v>52</v>
+      </c>
+      <c r="H25" s="85" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="86">
+        <v>12</v>
+      </c>
+      <c r="B26" s="88" t="s">
+        <v>269</v>
+      </c>
+      <c r="C26" s="88" t="s">
+        <v>167</v>
+      </c>
+      <c r="D26" s="89" t="s">
+        <v>345</v>
+      </c>
+      <c r="E26" s="88" t="s">
+        <v>2</v>
+      </c>
+      <c r="F26" s="88" t="s">
+        <v>270</v>
+      </c>
+      <c r="G26" s="88" t="s">
+        <v>271</v>
+      </c>
+      <c r="H26" s="88" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="D29" s="15" t="s">
+        <v>379</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F873FAA-6FD8-C34F-8D74-6DAC069514F6}">
   <dimension ref="A1:M25"/>
   <sheetViews>
@@ -5984,7 +7643,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AEC7F87A-D3A0-7643-A0A1-BADC795412EC}">
   <dimension ref="A1:P19"/>
   <sheetViews>
@@ -6774,7 +8433,7 @@
   <dimension ref="A1:X58"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="180" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6857,7 +8516,9 @@
       <c r="J2" s="11" t="s">
         <v>366</v>
       </c>
-      <c r="K2" s="13"/>
+      <c r="K2" s="11" t="s">
+        <v>380</v>
+      </c>
       <c r="L2" s="13"/>
       <c r="M2" s="13"/>
       <c r="N2" s="13"/>
@@ -6901,7 +8562,9 @@
       <c r="J3" s="11" t="s">
         <v>366</v>
       </c>
-      <c r="K3" s="13"/>
+      <c r="K3" s="11" t="s">
+        <v>380</v>
+      </c>
       <c r="L3" s="13"/>
       <c r="M3" s="13"/>
       <c r="N3" s="13"/>
@@ -6943,7 +8606,9 @@
         <v>5</v>
       </c>
       <c r="J4" s="13"/>
-      <c r="K4" s="13"/>
+      <c r="K4" s="11" t="s">
+        <v>378</v>
+      </c>
       <c r="L4" s="13"/>
       <c r="M4" s="13"/>
       <c r="N4" s="13"/>
@@ -6985,7 +8650,9 @@
         <v>5</v>
       </c>
       <c r="J5" s="13"/>
-      <c r="K5" s="13"/>
+      <c r="K5" s="11" t="s">
+        <v>378</v>
+      </c>
       <c r="L5" s="13"/>
       <c r="M5" s="13"/>
       <c r="N5" s="13"/>
@@ -7027,7 +8694,9 @@
         <v>219</v>
       </c>
       <c r="J6" s="13"/>
-      <c r="K6" s="13"/>
+      <c r="K6" s="11" t="s">
+        <v>378</v>
+      </c>
       <c r="L6" s="13"/>
       <c r="M6" s="13"/>
       <c r="N6" s="13"/>
@@ -7069,7 +8738,9 @@
         <v>219</v>
       </c>
       <c r="J7" s="13"/>
-      <c r="K7" s="13"/>
+      <c r="K7" s="11" t="s">
+        <v>378</v>
+      </c>
       <c r="L7" s="13"/>
       <c r="M7" s="13"/>
       <c r="N7" s="13"/>
@@ -7113,7 +8784,9 @@
       <c r="J8" s="11" t="s">
         <v>366</v>
       </c>
-      <c r="K8" s="13"/>
+      <c r="K8" s="11" t="s">
+        <v>380</v>
+      </c>
       <c r="L8" s="13"/>
       <c r="M8" s="13"/>
       <c r="N8" s="13"/>
@@ -7157,7 +8830,9 @@
       <c r="J9" s="11" t="s">
         <v>366</v>
       </c>
-      <c r="K9" s="13"/>
+      <c r="K9" s="11" t="s">
+        <v>380</v>
+      </c>
       <c r="L9" s="13"/>
       <c r="M9" s="13"/>
       <c r="N9" s="13"/>
@@ -7199,7 +8874,9 @@
         <v>245</v>
       </c>
       <c r="J10" s="1"/>
-      <c r="K10" s="13"/>
+      <c r="K10" s="11" t="s">
+        <v>378</v>
+      </c>
       <c r="L10" s="13"/>
       <c r="M10" s="13"/>
       <c r="N10" s="13"/>
@@ -7241,7 +8918,9 @@
         <v>245</v>
       </c>
       <c r="J11" s="1"/>
-      <c r="K11" s="13"/>
+      <c r="K11" s="11" t="s">
+        <v>378</v>
+      </c>
       <c r="L11" s="13"/>
       <c r="M11" s="13"/>
       <c r="N11" s="13"/>
@@ -7282,6 +8961,9 @@
       <c r="I12" s="5" t="s">
         <v>245</v>
       </c>
+      <c r="K12" s="11" t="s">
+        <v>378</v>
+      </c>
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A13" s="10">
@@ -7312,7 +8994,9 @@
         <v>245</v>
       </c>
       <c r="J13" s="13"/>
-      <c r="K13" s="13"/>
+      <c r="K13" s="11" t="s">
+        <v>378</v>
+      </c>
       <c r="L13" s="13"/>
       <c r="M13" s="13"/>
       <c r="N13" s="13"/>
@@ -7404,7 +9088,9 @@
         <v>366</v>
       </c>
       <c r="H16" s="13"/>
-      <c r="I16" s="13"/>
+      <c r="I16" s="11" t="s">
+        <v>381</v>
+      </c>
       <c r="J16" s="13"/>
       <c r="K16" s="13"/>
       <c r="L16" s="13"/>
@@ -8383,6 +10069,445 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7B3E625-C32F-394F-B0FD-4D2293454ECA}">
+  <dimension ref="A1:J13"/>
+  <sheetViews>
+    <sheetView zoomScale="162" workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="21.83203125" customWidth="1"/>
+    <col min="4" max="4" width="18.5" customWidth="1"/>
+    <col min="7" max="7" width="18.5" customWidth="1"/>
+    <col min="9" max="9" width="13.5" customWidth="1"/>
+    <col min="10" max="10" width="15.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1" s="92" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" s="92" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="92" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="92" t="s">
+        <v>386</v>
+      </c>
+      <c r="E1" s="92" t="s">
+        <v>38</v>
+      </c>
+      <c r="F1" s="92" t="s">
+        <v>390</v>
+      </c>
+      <c r="G1" s="92" t="s">
+        <v>385</v>
+      </c>
+      <c r="H1" s="92" t="s">
+        <v>383</v>
+      </c>
+      <c r="I1" s="93" t="s">
+        <v>388</v>
+      </c>
+      <c r="J1" s="92" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2" s="91">
+        <v>1</v>
+      </c>
+      <c r="B2" s="91" t="s">
+        <v>151</v>
+      </c>
+      <c r="C2" s="91" t="s">
+        <v>216</v>
+      </c>
+      <c r="D2" s="91" t="s">
+        <v>91</v>
+      </c>
+      <c r="E2" s="91" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2" s="91" t="s">
+        <v>391</v>
+      </c>
+      <c r="G2" s="91" t="s">
+        <v>384</v>
+      </c>
+      <c r="H2" s="91" t="s">
+        <v>317</v>
+      </c>
+      <c r="I2" s="91" t="s">
+        <v>380</v>
+      </c>
+      <c r="J2" s="91" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A3" s="91">
+        <v>2</v>
+      </c>
+      <c r="B3" s="91" t="s">
+        <v>151</v>
+      </c>
+      <c r="C3" s="91" t="s">
+        <v>216</v>
+      </c>
+      <c r="D3" s="91" t="s">
+        <v>71</v>
+      </c>
+      <c r="E3" s="91" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3" s="91" t="s">
+        <v>391</v>
+      </c>
+      <c r="G3" s="91" t="s">
+        <v>384</v>
+      </c>
+      <c r="H3" s="91" t="s">
+        <v>317</v>
+      </c>
+      <c r="I3" s="91" t="s">
+        <v>380</v>
+      </c>
+      <c r="J3" s="91" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A4" s="91">
+        <v>3</v>
+      </c>
+      <c r="B4" s="91" t="s">
+        <v>151</v>
+      </c>
+      <c r="C4" s="91" t="s">
+        <v>216</v>
+      </c>
+      <c r="D4" s="91" t="s">
+        <v>189</v>
+      </c>
+      <c r="E4" s="91" t="s">
+        <v>1</v>
+      </c>
+      <c r="F4" s="91" t="s">
+        <v>391</v>
+      </c>
+      <c r="G4" s="91" t="s">
+        <v>317</v>
+      </c>
+      <c r="H4" s="91" t="s">
+        <v>384</v>
+      </c>
+      <c r="I4" s="91" t="s">
+        <v>382</v>
+      </c>
+      <c r="J4" s="91" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A5" s="91">
+        <v>4</v>
+      </c>
+      <c r="B5" s="91" t="s">
+        <v>151</v>
+      </c>
+      <c r="C5" s="91" t="s">
+        <v>160</v>
+      </c>
+      <c r="D5" s="91" t="s">
+        <v>190</v>
+      </c>
+      <c r="E5" s="91" t="s">
+        <v>2</v>
+      </c>
+      <c r="F5" s="91" t="s">
+        <v>391</v>
+      </c>
+      <c r="G5" s="91" t="s">
+        <v>317</v>
+      </c>
+      <c r="H5" s="91" t="s">
+        <v>384</v>
+      </c>
+      <c r="I5" s="91" t="s">
+        <v>382</v>
+      </c>
+      <c r="J5" s="91" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A6" s="91">
+        <v>5</v>
+      </c>
+      <c r="B6" s="91" t="s">
+        <v>151</v>
+      </c>
+      <c r="C6" s="91" t="s">
+        <v>217</v>
+      </c>
+      <c r="D6" s="91" t="s">
+        <v>189</v>
+      </c>
+      <c r="E6" s="91" t="s">
+        <v>1</v>
+      </c>
+      <c r="F6" s="91" t="s">
+        <v>391</v>
+      </c>
+      <c r="G6" s="91" t="s">
+        <v>317</v>
+      </c>
+      <c r="H6" s="91" t="s">
+        <v>384</v>
+      </c>
+      <c r="I6" s="91" t="s">
+        <v>382</v>
+      </c>
+      <c r="J6" s="91" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A7" s="91">
+        <v>6</v>
+      </c>
+      <c r="B7" s="91" t="s">
+        <v>151</v>
+      </c>
+      <c r="C7" s="91" t="s">
+        <v>217</v>
+      </c>
+      <c r="D7" s="91" t="s">
+        <v>190</v>
+      </c>
+      <c r="E7" s="91" t="s">
+        <v>2</v>
+      </c>
+      <c r="F7" s="91" t="s">
+        <v>391</v>
+      </c>
+      <c r="G7" s="91" t="s">
+        <v>317</v>
+      </c>
+      <c r="H7" s="91" t="s">
+        <v>384</v>
+      </c>
+      <c r="I7" s="91" t="s">
+        <v>382</v>
+      </c>
+      <c r="J7" s="91" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A8" s="91">
+        <v>7</v>
+      </c>
+      <c r="B8" s="91" t="s">
+        <v>151</v>
+      </c>
+      <c r="C8" s="91" t="s">
+        <v>218</v>
+      </c>
+      <c r="D8" s="91" t="s">
+        <v>91</v>
+      </c>
+      <c r="E8" s="91" t="s">
+        <v>1</v>
+      </c>
+      <c r="F8" s="91" t="s">
+        <v>391</v>
+      </c>
+      <c r="G8" s="91" t="s">
+        <v>317</v>
+      </c>
+      <c r="H8" s="91" t="s">
+        <v>317</v>
+      </c>
+      <c r="I8" s="91" t="s">
+        <v>380</v>
+      </c>
+      <c r="J8" s="91" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A9" s="91">
+        <v>8</v>
+      </c>
+      <c r="B9" s="91" t="s">
+        <v>151</v>
+      </c>
+      <c r="C9" s="91" t="s">
+        <v>218</v>
+      </c>
+      <c r="D9" s="91" t="s">
+        <v>71</v>
+      </c>
+      <c r="E9" s="91" t="s">
+        <v>2</v>
+      </c>
+      <c r="F9" s="91" t="s">
+        <v>391</v>
+      </c>
+      <c r="G9" s="91" t="s">
+        <v>317</v>
+      </c>
+      <c r="H9" s="91" t="s">
+        <v>317</v>
+      </c>
+      <c r="I9" s="91" t="s">
+        <v>380</v>
+      </c>
+      <c r="J9" s="91" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A10" s="91">
+        <v>9</v>
+      </c>
+      <c r="B10" s="91" t="s">
+        <v>151</v>
+      </c>
+      <c r="C10" s="91" t="s">
+        <v>217</v>
+      </c>
+      <c r="D10" s="91" t="s">
+        <v>189</v>
+      </c>
+      <c r="E10" s="91" t="s">
+        <v>1</v>
+      </c>
+      <c r="F10" s="91" t="s">
+        <v>391</v>
+      </c>
+      <c r="G10" s="91" t="s">
+        <v>317</v>
+      </c>
+      <c r="H10" s="91" t="s">
+        <v>384</v>
+      </c>
+      <c r="I10" s="91" t="s">
+        <v>382</v>
+      </c>
+      <c r="J10" s="91" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A11" s="91">
+        <v>10</v>
+      </c>
+      <c r="B11" s="91" t="s">
+        <v>151</v>
+      </c>
+      <c r="C11" s="91" t="s">
+        <v>217</v>
+      </c>
+      <c r="D11" s="91" t="s">
+        <v>190</v>
+      </c>
+      <c r="E11" s="91" t="s">
+        <v>2</v>
+      </c>
+      <c r="F11" s="91" t="s">
+        <v>391</v>
+      </c>
+      <c r="G11" s="91" t="s">
+        <v>317</v>
+      </c>
+      <c r="H11" s="91" t="s">
+        <v>384</v>
+      </c>
+      <c r="I11" s="91" t="s">
+        <v>382</v>
+      </c>
+      <c r="J11" s="91" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A12" s="91">
+        <v>11</v>
+      </c>
+      <c r="B12" s="91" t="s">
+        <v>151</v>
+      </c>
+      <c r="C12" s="91" t="s">
+        <v>218</v>
+      </c>
+      <c r="D12" s="91" t="s">
+        <v>30</v>
+      </c>
+      <c r="E12" s="91" t="s">
+        <v>1</v>
+      </c>
+      <c r="F12" s="91" t="s">
+        <v>391</v>
+      </c>
+      <c r="G12" s="91" t="s">
+        <v>384</v>
+      </c>
+      <c r="H12" s="91" t="s">
+        <v>384</v>
+      </c>
+      <c r="I12" s="91" t="s">
+        <v>382</v>
+      </c>
+      <c r="J12" s="91" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A13" s="91">
+        <v>12</v>
+      </c>
+      <c r="B13" s="91" t="s">
+        <v>151</v>
+      </c>
+      <c r="C13" s="91" t="s">
+        <v>218</v>
+      </c>
+      <c r="D13" s="91" t="s">
+        <v>32</v>
+      </c>
+      <c r="E13" s="91" t="s">
+        <v>2</v>
+      </c>
+      <c r="F13" s="91" t="s">
+        <v>391</v>
+      </c>
+      <c r="G13" s="91" t="s">
+        <v>384</v>
+      </c>
+      <c r="H13" s="91" t="s">
+        <v>384</v>
+      </c>
+      <c r="I13" s="91" t="s">
+        <v>382</v>
+      </c>
+      <c r="J13" s="91" t="s">
+        <v>56</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{666AB419-CDE0-1C4A-A8E9-4783315D873D}">
   <dimension ref="A1:X39"/>
   <sheetViews>
@@ -10253,16 +12378,17 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0226BAE4-5B3C-9C46-8158-4454A2BE036C}">
   <dimension ref="A1:K25"/>
   <sheetViews>
-    <sheetView zoomScale="125" workbookViewId="0">
+    <sheetView zoomScale="167" workbookViewId="0">
       <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="6" max="6" width="23.83203125" customWidth="1"/>
     <col min="8" max="8" width="23" customWidth="1"/>
     <col min="9" max="9" width="17.83203125" customWidth="1"/>
   </cols>
@@ -11147,7 +13273,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4DBC4F9-E0E7-324A-AE5A-00B4893BD830}">
   <dimension ref="A1:P5"/>
   <sheetViews>
@@ -11335,12 +13461,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B190E994-F93E-614B-8348-06136D69F1B4}">
   <dimension ref="A1:O32"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" zoomScale="131" workbookViewId="0">
-      <selection activeCell="M19" sqref="A1:XFD1048576"/>
+    <sheetView zoomScale="131" workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -12233,7 +14359,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5530880F-CA27-7B4B-9D22-D13AC1FFEBD8}">
   <dimension ref="A1:O32"/>
   <sheetViews>
@@ -13155,7 +15281,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{644A2E13-A585-1544-8804-CED5AB2073E6}">
   <dimension ref="A1:L5"/>
   <sheetViews>
@@ -13334,901 +15460,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{468B3338-8DB1-0C41-9F65-FD8573AFE35E}">
-  <dimension ref="A1:N25"/>
-  <sheetViews>
-    <sheetView zoomScale="132" workbookViewId="0">
-      <selection activeCell="M15" sqref="M15"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="6" max="6" width="26.6640625" customWidth="1"/>
-    <col min="12" max="16384" width="10.83203125" style="13"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:14" ht="35" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="32" t="s">
-        <v>231</v>
-      </c>
-      <c r="B1" s="33" t="s">
-        <v>8</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="F1" s="33" t="s">
-        <v>0</v>
-      </c>
-      <c r="G1" s="33" t="s">
-        <v>38</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="J1" s="33" t="s">
-        <v>230</v>
-      </c>
-      <c r="K1" s="34" t="s">
-        <v>41</v>
-      </c>
-      <c r="L1" s="14"/>
-      <c r="M1" s="14"/>
-      <c r="N1" s="14"/>
-    </row>
-    <row r="2" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="10">
-        <v>1</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="C2" t="s">
-        <v>134</v>
-      </c>
-      <c r="D2" t="s">
-        <v>135</v>
-      </c>
-      <c r="E2" s="11" t="s">
-        <v>166</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>345</v>
-      </c>
-      <c r="G2" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="I2" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="J2" s="11" t="s">
-        <v>213</v>
-      </c>
-      <c r="K2" s="12" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="6">
-        <v>2</v>
-      </c>
-      <c r="B3" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="C3" t="s">
-        <v>135</v>
-      </c>
-      <c r="D3" t="s">
-        <v>134</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>345</v>
-      </c>
-      <c r="G3" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="H3" s="11" t="s">
-        <v>95</v>
-      </c>
-      <c r="I3" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="J3" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="K3" s="8" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="3">
-        <v>3</v>
-      </c>
-      <c r="B4" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="C4" t="s">
-        <v>134</v>
-      </c>
-      <c r="D4" t="s">
-        <v>135</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>345</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="H4" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="I4" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="J4" s="4" t="s">
-        <v>215</v>
-      </c>
-      <c r="K4" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="6">
-        <v>4</v>
-      </c>
-      <c r="B5" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="C5" t="s">
-        <v>135</v>
-      </c>
-      <c r="D5" t="s">
-        <v>134</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>345</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="H5" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="I5" s="11" t="s">
-        <v>234</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="K5" s="8" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="3">
-        <v>5</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>236</v>
-      </c>
-      <c r="C6" t="s">
-        <v>134</v>
-      </c>
-      <c r="D6" t="s">
-        <v>135</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>168</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>345</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="H6" s="4" t="s">
-        <v>237</v>
-      </c>
-      <c r="I6" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="J6" s="4" t="s">
-        <v>214</v>
-      </c>
-      <c r="K6" s="5" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="6">
-        <v>6</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>238</v>
-      </c>
-      <c r="C7" t="s">
-        <v>135</v>
-      </c>
-      <c r="D7" t="s">
-        <v>134</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>345</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="H7" s="7" t="s">
-        <v>241</v>
-      </c>
-      <c r="I7" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="J7" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="K7" s="8" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="10">
-        <v>7</v>
-      </c>
-      <c r="B8" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="C8" t="s">
-        <v>134</v>
-      </c>
-      <c r="D8" t="s">
-        <v>135</v>
-      </c>
-      <c r="E8" s="11" t="s">
-        <v>167</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>345</v>
-      </c>
-      <c r="G8" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="H8" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="I8" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="J8" s="11" t="s">
-        <v>214</v>
-      </c>
-      <c r="K8" s="12" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="10">
-        <v>8</v>
-      </c>
-      <c r="B9" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="C9" t="s">
-        <v>135</v>
-      </c>
-      <c r="D9" t="s">
-        <v>134</v>
-      </c>
-      <c r="E9" s="11" t="s">
-        <v>167</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>345</v>
-      </c>
-      <c r="G9" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="H9" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="I9" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="J9" s="11" t="s">
-        <v>214</v>
-      </c>
-      <c r="K9" s="12" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="3">
-        <v>9</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>242</v>
-      </c>
-      <c r="C10" t="s">
-        <v>134</v>
-      </c>
-      <c r="D10" t="s">
-        <v>135</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>168</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>345</v>
-      </c>
-      <c r="G10" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="H10" s="4" t="s">
-        <v>244</v>
-      </c>
-      <c r="I10" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="J10" s="4" t="s">
-        <v>215</v>
-      </c>
-      <c r="K10" s="5" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="10">
-        <v>10</v>
-      </c>
-      <c r="B11" s="11" t="s">
-        <v>246</v>
-      </c>
-      <c r="C11" t="s">
-        <v>135</v>
-      </c>
-      <c r="D11" t="s">
-        <v>134</v>
-      </c>
-      <c r="E11" s="11" t="s">
-        <v>168</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>345</v>
-      </c>
-      <c r="G11" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="H11" s="11" t="s">
-        <v>248</v>
-      </c>
-      <c r="I11" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="J11" s="11" t="s">
-        <v>215</v>
-      </c>
-      <c r="K11" s="12" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="3">
-        <v>11</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>249</v>
-      </c>
-      <c r="C12" t="s">
-        <v>134</v>
-      </c>
-      <c r="D12" t="s">
-        <v>135</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>167</v>
-      </c>
-      <c r="F12" s="4" t="s">
-        <v>345</v>
-      </c>
-      <c r="G12" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="H12" s="4" t="s">
-        <v>220</v>
-      </c>
-      <c r="I12" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="J12" s="4" t="s">
-        <v>213</v>
-      </c>
-      <c r="K12" s="5" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="6">
-        <v>12</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>251</v>
-      </c>
-      <c r="C13" t="s">
-        <v>135</v>
-      </c>
-      <c r="D13" t="s">
-        <v>134</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="F13" s="4" t="s">
-        <v>345</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="H13" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="I13" s="7" t="s">
-        <v>253</v>
-      </c>
-      <c r="J13" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="K13" s="8" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="38">
-        <v>1</v>
-      </c>
-      <c r="B14" s="45" t="s">
-        <v>65</v>
-      </c>
-      <c r="C14" t="s">
-        <v>134</v>
-      </c>
-      <c r="D14" t="s">
-        <v>135</v>
-      </c>
-      <c r="E14" s="39" t="s">
-        <v>166</v>
-      </c>
-      <c r="F14" s="4" t="s">
-        <v>345</v>
-      </c>
-      <c r="G14" s="39" t="s">
-        <v>1</v>
-      </c>
-      <c r="H14" s="45" t="s">
-        <v>67</v>
-      </c>
-      <c r="I14" s="45" t="s">
-        <v>68</v>
-      </c>
-      <c r="J14" s="39" t="s">
-        <v>213</v>
-      </c>
-      <c r="K14" s="40" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="41">
-        <v>2</v>
-      </c>
-      <c r="B15" s="39" t="s">
-        <v>85</v>
-      </c>
-      <c r="C15" t="s">
-        <v>135</v>
-      </c>
-      <c r="D15" t="s">
-        <v>134</v>
-      </c>
-      <c r="E15" s="42" t="s">
-        <v>166</v>
-      </c>
-      <c r="F15" s="4" t="s">
-        <v>345</v>
-      </c>
-      <c r="G15" s="42" t="s">
-        <v>2</v>
-      </c>
-      <c r="H15" s="39" t="s">
-        <v>71</v>
-      </c>
-      <c r="I15" s="39" t="s">
-        <v>72</v>
-      </c>
-      <c r="J15" s="42" t="s">
-        <v>213</v>
-      </c>
-      <c r="K15" s="43" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="44">
-        <v>3</v>
-      </c>
-      <c r="B16" s="39" t="s">
-        <v>81</v>
-      </c>
-      <c r="C16" t="s">
-        <v>134</v>
-      </c>
-      <c r="D16" t="s">
-        <v>135</v>
-      </c>
-      <c r="E16" s="45" t="s">
-        <v>166</v>
-      </c>
-      <c r="F16" s="4" t="s">
-        <v>345</v>
-      </c>
-      <c r="G16" s="45" t="s">
-        <v>1</v>
-      </c>
-      <c r="H16" s="39" t="s">
-        <v>30</v>
-      </c>
-      <c r="I16" s="39" t="s">
-        <v>83</v>
-      </c>
-      <c r="J16" s="45" t="s">
-        <v>215</v>
-      </c>
-      <c r="K16" s="46" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="41">
-        <v>4</v>
-      </c>
-      <c r="B17" s="42" t="s">
-        <v>84</v>
-      </c>
-      <c r="C17" t="s">
-        <v>135</v>
-      </c>
-      <c r="D17" t="s">
-        <v>134</v>
-      </c>
-      <c r="E17" s="42" t="s">
-        <v>166</v>
-      </c>
-      <c r="F17" s="4" t="s">
-        <v>345</v>
-      </c>
-      <c r="G17" s="42" t="s">
-        <v>2</v>
-      </c>
-      <c r="H17" s="42" t="s">
-        <v>87</v>
-      </c>
-      <c r="I17" s="42" t="s">
-        <v>88</v>
-      </c>
-      <c r="J17" s="42" t="s">
-        <v>215</v>
-      </c>
-      <c r="K17" s="43" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="44">
-        <v>5</v>
-      </c>
-      <c r="B18" s="45" t="s">
-        <v>254</v>
-      </c>
-      <c r="C18" t="s">
-        <v>134</v>
-      </c>
-      <c r="D18" t="s">
-        <v>135</v>
-      </c>
-      <c r="E18" s="45" t="s">
-        <v>168</v>
-      </c>
-      <c r="F18" s="4" t="s">
-        <v>345</v>
-      </c>
-      <c r="G18" s="45" t="s">
-        <v>1</v>
-      </c>
-      <c r="H18" s="45" t="s">
-        <v>195</v>
-      </c>
-      <c r="I18" s="45" t="s">
-        <v>111</v>
-      </c>
-      <c r="J18" s="45" t="s">
-        <v>214</v>
-      </c>
-      <c r="K18" s="46" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="41">
-        <v>6</v>
-      </c>
-      <c r="B19" s="42" t="s">
-        <v>256</v>
-      </c>
-      <c r="C19" t="s">
-        <v>135</v>
-      </c>
-      <c r="D19" t="s">
-        <v>134</v>
-      </c>
-      <c r="E19" s="42" t="s">
-        <v>168</v>
-      </c>
-      <c r="F19" s="4" t="s">
-        <v>345</v>
-      </c>
-      <c r="G19" s="42" t="s">
-        <v>2</v>
-      </c>
-      <c r="H19" s="42" t="s">
-        <v>258</v>
-      </c>
-      <c r="I19" s="42" t="s">
-        <v>259</v>
-      </c>
-      <c r="J19" s="42" t="s">
-        <v>214</v>
-      </c>
-      <c r="K19" s="43" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="38">
-        <v>7</v>
-      </c>
-      <c r="B20" s="39" t="s">
-        <v>73</v>
-      </c>
-      <c r="C20" t="s">
-        <v>134</v>
-      </c>
-      <c r="D20" t="s">
-        <v>135</v>
-      </c>
-      <c r="E20" s="39" t="s">
-        <v>167</v>
-      </c>
-      <c r="F20" s="4" t="s">
-        <v>345</v>
-      </c>
-      <c r="G20" s="39" t="s">
-        <v>1</v>
-      </c>
-      <c r="H20" s="39" t="s">
-        <v>75</v>
-      </c>
-      <c r="I20" s="39" t="s">
-        <v>76</v>
-      </c>
-      <c r="J20" s="39" t="s">
-        <v>214</v>
-      </c>
-      <c r="K20" s="40" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="38">
-        <v>8</v>
-      </c>
-      <c r="B21" s="39" t="s">
-        <v>77</v>
-      </c>
-      <c r="C21" t="s">
-        <v>135</v>
-      </c>
-      <c r="D21" t="s">
-        <v>134</v>
-      </c>
-      <c r="E21" s="39" t="s">
-        <v>167</v>
-      </c>
-      <c r="F21" s="4" t="s">
-        <v>345</v>
-      </c>
-      <c r="G21" s="39" t="s">
-        <v>2</v>
-      </c>
-      <c r="H21" s="39" t="s">
-        <v>79</v>
-      </c>
-      <c r="I21" s="39" t="s">
-        <v>80</v>
-      </c>
-      <c r="J21" s="39" t="s">
-        <v>214</v>
-      </c>
-      <c r="K21" s="40" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="44">
-        <v>9</v>
-      </c>
-      <c r="B22" s="45" t="s">
-        <v>260</v>
-      </c>
-      <c r="C22" t="s">
-        <v>134</v>
-      </c>
-      <c r="D22" t="s">
-        <v>135</v>
-      </c>
-      <c r="E22" s="45" t="s">
-        <v>168</v>
-      </c>
-      <c r="F22" s="4" t="s">
-        <v>345</v>
-      </c>
-      <c r="G22" s="45" t="s">
-        <v>1</v>
-      </c>
-      <c r="H22" s="45" t="s">
-        <v>189</v>
-      </c>
-      <c r="I22" s="45" t="s">
-        <v>48</v>
-      </c>
-      <c r="J22" s="45" t="s">
-        <v>215</v>
-      </c>
-      <c r="K22" s="46" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="38">
-        <v>10</v>
-      </c>
-      <c r="B23" s="39" t="s">
-        <v>264</v>
-      </c>
-      <c r="C23" t="s">
-        <v>135</v>
-      </c>
-      <c r="D23" t="s">
-        <v>134</v>
-      </c>
-      <c r="E23" s="39" t="s">
-        <v>168</v>
-      </c>
-      <c r="F23" s="4" t="s">
-        <v>345</v>
-      </c>
-      <c r="G23" s="39" t="s">
-        <v>2</v>
-      </c>
-      <c r="H23" s="39" t="s">
-        <v>263</v>
-      </c>
-      <c r="I23" s="39" t="s">
-        <v>265</v>
-      </c>
-      <c r="J23" s="39" t="s">
-        <v>215</v>
-      </c>
-      <c r="K23" s="40" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="44">
-        <v>11</v>
-      </c>
-      <c r="B24" s="45" t="s">
-        <v>266</v>
-      </c>
-      <c r="C24" t="s">
-        <v>134</v>
-      </c>
-      <c r="D24" t="s">
-        <v>135</v>
-      </c>
-      <c r="E24" s="45" t="s">
-        <v>167</v>
-      </c>
-      <c r="F24" s="4" t="s">
-        <v>345</v>
-      </c>
-      <c r="G24" s="45" t="s">
-        <v>1</v>
-      </c>
-      <c r="H24" s="45" t="s">
-        <v>267</v>
-      </c>
-      <c r="I24" s="45" t="s">
-        <v>52</v>
-      </c>
-      <c r="J24" s="45" t="s">
-        <v>213</v>
-      </c>
-      <c r="K24" s="46" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="41">
-        <v>12</v>
-      </c>
-      <c r="B25" s="42" t="s">
-        <v>269</v>
-      </c>
-      <c r="C25" t="s">
-        <v>135</v>
-      </c>
-      <c r="D25" t="s">
-        <v>134</v>
-      </c>
-      <c r="E25" s="42" t="s">
-        <v>167</v>
-      </c>
-      <c r="F25" s="4" t="s">
-        <v>345</v>
-      </c>
-      <c r="G25" s="42" t="s">
-        <v>2</v>
-      </c>
-      <c r="H25" s="42" t="s">
-        <v>270</v>
-      </c>
-      <c r="I25" s="42" t="s">
-        <v>271</v>
-      </c>
-      <c r="J25" s="42" t="s">
-        <v>213</v>
-      </c>
-      <c r="K25" s="43" t="s">
-        <v>245</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/notes/conditions.xlsx
+++ b/notes/conditions.xlsx
@@ -1,31 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11113"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/momo/Dropbox/projects/connectives-qud/notes/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{371DD574-318A-5F44-9A41-3B76E4BC6A9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD27FA63-8919-4E43-AC2C-7E5B24AB55BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="620" yWindow="500" windowWidth="35220" windowHeight="20120" activeTab="1" xr2:uid="{3AB9929D-0A0B-1747-A8A7-16F45675C35B}"/>
+    <workbookView xWindow="620" yWindow="500" windowWidth="35220" windowHeight="20120" activeTab="2" xr2:uid="{3AB9929D-0A0B-1747-A8A7-16F45675C35B}"/>
   </bookViews>
   <sheets>
     <sheet name="overall" sheetId="9" r:id="rId1"/>
     <sheet name="new good test items" sheetId="11" r:id="rId2"/>
-    <sheet name="newcoding" sheetId="19" r:id="rId3"/>
-    <sheet name="newSpecific-Working" sheetId="13" r:id="rId4"/>
-    <sheet name="critical_specificQUD" sheetId="14" r:id="rId5"/>
-    <sheet name="training" sheetId="6" r:id="rId6"/>
-    <sheet name="fillers" sheetId="5" r:id="rId7"/>
-    <sheet name="fillers_noQUD" sheetId="16" r:id="rId8"/>
-    <sheet name="training_noQUD" sheetId="17" r:id="rId9"/>
-    <sheet name="critical_generalQUD" sheetId="7" r:id="rId10"/>
-    <sheet name="Feuil1" sheetId="18" r:id="rId11"/>
-    <sheet name="critical_NoQUD" sheetId="8" r:id="rId12"/>
-    <sheet name="old_specificQUD" sheetId="4" r:id="rId13"/>
+    <sheet name="Feuil2" sheetId="20" r:id="rId3"/>
+    <sheet name="newcoding" sheetId="19" r:id="rId4"/>
+    <sheet name="newSpecific-Working" sheetId="13" r:id="rId5"/>
+    <sheet name="critical_specificQUD" sheetId="14" r:id="rId6"/>
+    <sheet name="training" sheetId="6" r:id="rId7"/>
+    <sheet name="fillers" sheetId="5" r:id="rId8"/>
+    <sheet name="fillers_noQUD" sheetId="16" r:id="rId9"/>
+    <sheet name="training_noQUD" sheetId="17" r:id="rId10"/>
+    <sheet name="critical_generalQUD" sheetId="7" r:id="rId11"/>
+    <sheet name="Feuil1" sheetId="18" r:id="rId12"/>
+    <sheet name="critical_NoQUD" sheetId="8" r:id="rId13"/>
+    <sheet name="old_specificQUD" sheetId="4" r:id="rId14"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -46,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3415" uniqueCount="401">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3517" uniqueCount="407">
   <si>
     <t>QUD</t>
   </si>
@@ -1249,6 +1250,24 @@
   </si>
   <si>
     <t>7/8 &amp; 11/12</t>
+  </si>
+  <si>
+    <t>&gt;&gt;&gt; QUD</t>
+  </si>
+  <si>
+    <t>experiment 3</t>
+  </si>
+  <si>
+    <t>experiemnt 2</t>
+  </si>
+  <si>
+    <t>&gt;&gt;&gt; what is relevance?</t>
+  </si>
+  <si>
+    <t>Answering the QUD</t>
+  </si>
+  <si>
+    <t>Mentioning something true means being relevant</t>
   </si>
 </sst>
 </file>
@@ -1495,7 +1514,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="97">
+  <cellXfs count="98">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1617,6 +1636,7 @@
     <xf numFmtId="0" fontId="0" fillId="12" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -5201,6 +5221,187 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{644A2E13-A585-1544-8804-CED5AB2073E6}">
+  <dimension ref="A1:L5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:12" ht="35" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="32" t="s">
+        <v>230</v>
+      </c>
+      <c r="B1" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="F1" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="G1" s="33" t="s">
+        <v>37</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="J1" s="33" t="s">
+        <v>229</v>
+      </c>
+      <c r="K1" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="L1" s="37" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C2" t="s">
+        <v>133</v>
+      </c>
+      <c r="D2" t="s">
+        <v>134</v>
+      </c>
+      <c r="F2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2" t="s">
+        <v>111</v>
+      </c>
+      <c r="H2" t="s">
+        <v>114</v>
+      </c>
+      <c r="I2" t="s">
+        <v>115</v>
+      </c>
+      <c r="K2" t="s">
+        <v>116</v>
+      </c>
+      <c r="L2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>117</v>
+      </c>
+      <c r="C3" t="s">
+        <v>134</v>
+      </c>
+      <c r="D3" t="s">
+        <v>133</v>
+      </c>
+      <c r="F3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3" t="s">
+        <v>111</v>
+      </c>
+      <c r="H3" t="s">
+        <v>118</v>
+      </c>
+      <c r="I3" t="s">
+        <v>119</v>
+      </c>
+      <c r="K3" t="s">
+        <v>116</v>
+      </c>
+      <c r="L3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>120</v>
+      </c>
+      <c r="C4" t="s">
+        <v>133</v>
+      </c>
+      <c r="D4" t="s">
+        <v>134</v>
+      </c>
+      <c r="F4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G4" t="s">
+        <v>111</v>
+      </c>
+      <c r="H4" t="s">
+        <v>114</v>
+      </c>
+      <c r="I4" t="s">
+        <v>122</v>
+      </c>
+      <c r="K4" t="s">
+        <v>116</v>
+      </c>
+      <c r="L4" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>123</v>
+      </c>
+      <c r="C5" t="s">
+        <v>134</v>
+      </c>
+      <c r="D5" t="s">
+        <v>133</v>
+      </c>
+      <c r="F5" t="s">
+        <v>17</v>
+      </c>
+      <c r="G5" t="s">
+        <v>111</v>
+      </c>
+      <c r="H5" t="s">
+        <v>114</v>
+      </c>
+      <c r="I5" t="s">
+        <v>125</v>
+      </c>
+      <c r="K5" t="s">
+        <v>116</v>
+      </c>
+      <c r="L5" t="s">
+        <v>126</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{468B3338-8DB1-0C41-9F65-FD8573AFE35E}">
   <dimension ref="A1:N25"/>
   <sheetViews>
@@ -6099,7 +6300,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D4B70A3-3ED8-EE4E-8063-2B680E725879}">
   <dimension ref="A1:H29"/>
   <sheetViews>
@@ -6784,7 +6985,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F873FAA-6FD8-C34F-8D74-6DAC069514F6}">
   <dimension ref="A1:M25"/>
   <sheetViews>
@@ -7679,12 +7880,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AEC7F87A-D3A0-7643-A0A1-BADC795412EC}">
   <dimension ref="A1:P19"/>
   <sheetViews>
     <sheetView zoomScale="119" workbookViewId="0">
-      <selection activeCell="H34" sqref="H34"/>
+      <selection activeCell="K34" sqref="K34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8468,8 +8669,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AF67E4E-E4AB-264E-82F4-FE4611E9720D}">
   <dimension ref="A1:X58"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="200" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+    <sheetView zoomScale="200" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10:I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -9941,7 +10142,7 @@
       <c r="I41" s="1"/>
     </row>
     <row r="45" spans="1:24" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="46" spans="1:24" ht="35" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:24" ht="18" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A46" s="32" t="s">
         <v>28</v>
       </c>
@@ -10168,6 +10369,391 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF1DC9F1-CE71-BA41-97B9-ECA7166A7B24}">
+  <dimension ref="A3:I25"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="200" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="3" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>403</v>
+      </c>
+      <c r="B3" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" s="3">
+        <v>5</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="D4" t="s">
+        <v>344</v>
+      </c>
+      <c r="E4" s="94" t="s">
+        <v>216</v>
+      </c>
+      <c r="F4" s="94" t="s">
+        <v>1</v>
+      </c>
+      <c r="G4" s="94" t="s">
+        <v>188</v>
+      </c>
+      <c r="H4" s="94" t="s">
+        <v>171</v>
+      </c>
+      <c r="I4" s="94" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="6">
+        <v>6</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="D5" t="s">
+        <v>344</v>
+      </c>
+      <c r="E5" s="95" t="s">
+        <v>216</v>
+      </c>
+      <c r="F5" s="95" t="s">
+        <v>2</v>
+      </c>
+      <c r="G5" s="95" t="s">
+        <v>189</v>
+      </c>
+      <c r="H5" s="95" t="s">
+        <v>171</v>
+      </c>
+      <c r="I5" s="95" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" s="10">
+        <v>7</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>150</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>166</v>
+      </c>
+      <c r="D6" t="s">
+        <v>344</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>217</v>
+      </c>
+      <c r="F6" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="G6" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="H6" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="I6" s="11" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7" s="10">
+        <v>8</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>150</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>166</v>
+      </c>
+      <c r="D7" t="s">
+        <v>344</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>217</v>
+      </c>
+      <c r="F7" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="G7" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="H7" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="I7" s="11" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>402</v>
+      </c>
+      <c r="B16" t="s">
+        <v>404</v>
+      </c>
+      <c r="D16" t="s">
+        <v>405</v>
+      </c>
+      <c r="F16" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A18" s="10">
+        <v>1</v>
+      </c>
+      <c r="B18" s="11" t="s">
+        <v>150</v>
+      </c>
+      <c r="C18" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="D18" t="s">
+        <v>344</v>
+      </c>
+      <c r="E18" s="48" t="s">
+        <v>215</v>
+      </c>
+      <c r="F18" s="48" t="s">
+        <v>1</v>
+      </c>
+      <c r="G18" s="48" t="s">
+        <v>90</v>
+      </c>
+      <c r="H18" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="I18" s="11" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="6">
+        <v>2</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="D19" t="s">
+        <v>344</v>
+      </c>
+      <c r="E19" s="51" t="s">
+        <v>215</v>
+      </c>
+      <c r="F19" s="51" t="s">
+        <v>2</v>
+      </c>
+      <c r="G19" s="51" t="s">
+        <v>70</v>
+      </c>
+      <c r="H19" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="I19" s="7" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A20" s="3">
+        <v>3</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="D20" t="s">
+        <v>344</v>
+      </c>
+      <c r="E20" s="65" t="s">
+        <v>215</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G20" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="H20" s="65" t="s">
+        <v>171</v>
+      </c>
+      <c r="I20" s="4" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="6">
+        <v>4</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="D21" t="s">
+        <v>344</v>
+      </c>
+      <c r="E21" s="62" t="s">
+        <v>159</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="H21" s="62" t="s">
+        <v>171</v>
+      </c>
+      <c r="I21" s="7" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A22" s="3">
+        <v>9</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="D22" t="s">
+        <v>344</v>
+      </c>
+      <c r="E22" s="65" t="s">
+        <v>216</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G22" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="H22" s="65" t="s">
+        <v>191</v>
+      </c>
+      <c r="I22" s="94" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="10">
+        <v>10</v>
+      </c>
+      <c r="B23" s="11" t="s">
+        <v>150</v>
+      </c>
+      <c r="C23" s="11" t="s">
+        <v>167</v>
+      </c>
+      <c r="D23" t="s">
+        <v>344</v>
+      </c>
+      <c r="E23" s="59" t="s">
+        <v>216</v>
+      </c>
+      <c r="F23" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="G23" s="11" t="s">
+        <v>189</v>
+      </c>
+      <c r="H23" s="59" t="s">
+        <v>191</v>
+      </c>
+      <c r="I23" s="96" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A24" s="3">
+        <v>11</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="D24" t="s">
+        <v>344</v>
+      </c>
+      <c r="E24" s="54" t="s">
+        <v>217</v>
+      </c>
+      <c r="F24" s="54" t="s">
+        <v>1</v>
+      </c>
+      <c r="G24" s="54" t="s">
+        <v>29</v>
+      </c>
+      <c r="H24" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="I24" s="4" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A25" s="10">
+        <v>12</v>
+      </c>
+      <c r="B25" s="11" t="s">
+        <v>150</v>
+      </c>
+      <c r="C25" s="11" t="s">
+        <v>166</v>
+      </c>
+      <c r="D25" t="s">
+        <v>344</v>
+      </c>
+      <c r="E25" s="48" t="s">
+        <v>217</v>
+      </c>
+      <c r="F25" s="48" t="s">
+        <v>2</v>
+      </c>
+      <c r="G25" s="48" t="s">
+        <v>31</v>
+      </c>
+      <c r="H25" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="I25" s="11" t="s">
+        <v>212</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7B3E625-C32F-394F-B0FD-4D2293454ECA}">
   <dimension ref="A1:J13"/>
   <sheetViews>
@@ -10606,7 +11192,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{666AB419-CDE0-1C4A-A8E9-4783315D873D}">
   <dimension ref="A1:X39"/>
   <sheetViews>
@@ -12477,7 +13063,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0226BAE4-5B3C-9C46-8158-4454A2BE036C}">
   <dimension ref="A1:K25"/>
   <sheetViews>
@@ -13372,7 +13958,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4DBC4F9-E0E7-324A-AE5A-00B4893BD830}">
   <dimension ref="A1:P5"/>
   <sheetViews>
@@ -13560,12 +14146,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B190E994-F93E-614B-8348-06136D69F1B4}">
   <dimension ref="A1:O32"/>
   <sheetViews>
-    <sheetView zoomScale="131" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:I11"/>
+    <sheetView topLeftCell="B5" zoomScale="171" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -13662,16 +14248,16 @@
         <v>134</v>
       </c>
       <c r="E3" s="31"/>
-      <c r="F3" s="13" t="s">
+      <c r="F3" s="15" t="s">
         <v>81</v>
       </c>
       <c r="G3" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="H3" s="13" t="s">
+      <c r="H3" s="15" t="s">
         <v>139</v>
       </c>
-      <c r="I3" s="13" t="s">
+      <c r="I3" s="15" t="s">
         <v>137</v>
       </c>
       <c r="J3" s="13" t="s">
@@ -13728,16 +14314,16 @@
         <v>134</v>
       </c>
       <c r="E5" s="31"/>
-      <c r="F5" s="13" t="s">
+      <c r="F5" s="15" t="s">
         <v>224</v>
       </c>
       <c r="G5" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="H5" s="13" t="s">
+      <c r="H5" s="15" t="s">
         <v>142</v>
       </c>
-      <c r="I5" s="13" t="s">
+      <c r="I5" s="15" t="s">
         <v>232</v>
       </c>
       <c r="J5" s="13" t="s">
@@ -13794,16 +14380,16 @@
         <v>134</v>
       </c>
       <c r="E7" s="31"/>
-      <c r="F7" s="13" t="s">
+      <c r="F7" s="15" t="s">
         <v>226</v>
       </c>
       <c r="G7" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="H7" s="13" t="s">
+      <c r="H7" s="15" t="s">
         <v>146</v>
       </c>
-      <c r="I7" s="13" t="s">
+      <c r="I7" s="15" t="s">
         <v>147</v>
       </c>
       <c r="J7" s="13" t="s">
@@ -13860,16 +14446,16 @@
         <v>134</v>
       </c>
       <c r="E9" s="31"/>
-      <c r="F9" s="13" t="s">
+      <c r="F9" s="15" t="s">
         <v>228</v>
       </c>
       <c r="G9" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="H9" s="13" t="s">
+      <c r="H9" s="15" t="s">
         <v>142</v>
       </c>
-      <c r="I9" s="13" t="s">
+      <c r="I9" s="15" t="s">
         <v>234</v>
       </c>
       <c r="J9" s="13" t="s">
@@ -14025,7 +14611,7 @@
         <v>133</v>
       </c>
       <c r="E14" s="71"/>
-      <c r="F14" s="20" t="s">
+      <c r="F14" s="85" t="s">
         <v>274</v>
       </c>
       <c r="G14" s="71"/>
@@ -14056,7 +14642,7 @@
         <v>134</v>
       </c>
       <c r="E15" s="31"/>
-      <c r="F15" s="13" t="s">
+      <c r="F15" s="15" t="s">
         <v>279</v>
       </c>
       <c r="G15" s="31"/>
@@ -14087,7 +14673,7 @@
         <v>133</v>
       </c>
       <c r="E16" s="31"/>
-      <c r="F16" s="13" t="s">
+      <c r="F16" s="15" t="s">
         <v>332</v>
       </c>
       <c r="G16" s="31"/>
@@ -14118,7 +14704,7 @@
         <v>134</v>
       </c>
       <c r="E17" s="13"/>
-      <c r="F17" s="13" t="s">
+      <c r="F17" s="15" t="s">
         <v>334</v>
       </c>
       <c r="G17" s="31"/>
@@ -14149,7 +14735,7 @@
         <v>133</v>
       </c>
       <c r="E18" s="13"/>
-      <c r="F18" s="13" t="s">
+      <c r="F18" s="15" t="s">
         <v>336</v>
       </c>
       <c r="G18" s="31"/>
@@ -14180,7 +14766,7 @@
         <v>134</v>
       </c>
       <c r="E19" s="23"/>
-      <c r="F19" s="74" t="s">
+      <c r="F19" s="97" t="s">
         <v>159</v>
       </c>
       <c r="G19" s="74"/>
@@ -14467,7 +15053,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5530880F-CA27-7B4B-9D22-D13AC1FFEBD8}">
   <dimension ref="A1:O32"/>
   <sheetViews>
@@ -15387,185 +15973,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{644A2E13-A585-1544-8804-CED5AB2073E6}">
-  <dimension ref="A1:L5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:12" ht="35" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="32" t="s">
-        <v>230</v>
-      </c>
-      <c r="B1" s="33" t="s">
-        <v>7</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="F1" s="33" t="s">
-        <v>0</v>
-      </c>
-      <c r="G1" s="33" t="s">
-        <v>37</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="J1" s="33" t="s">
-        <v>229</v>
-      </c>
-      <c r="K1" s="34" t="s">
-        <v>40</v>
-      </c>
-      <c r="L1" s="37" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>112</v>
-      </c>
-      <c r="C2" t="s">
-        <v>133</v>
-      </c>
-      <c r="D2" t="s">
-        <v>134</v>
-      </c>
-      <c r="F2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G2" t="s">
-        <v>111</v>
-      </c>
-      <c r="H2" t="s">
-        <v>114</v>
-      </c>
-      <c r="I2" t="s">
-        <v>115</v>
-      </c>
-      <c r="K2" t="s">
-        <v>116</v>
-      </c>
-      <c r="L2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>117</v>
-      </c>
-      <c r="C3" t="s">
-        <v>134</v>
-      </c>
-      <c r="D3" t="s">
-        <v>133</v>
-      </c>
-      <c r="F3" t="s">
-        <v>17</v>
-      </c>
-      <c r="G3" t="s">
-        <v>111</v>
-      </c>
-      <c r="H3" t="s">
-        <v>118</v>
-      </c>
-      <c r="I3" t="s">
-        <v>119</v>
-      </c>
-      <c r="K3" t="s">
-        <v>116</v>
-      </c>
-      <c r="L3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>120</v>
-      </c>
-      <c r="C4" t="s">
-        <v>133</v>
-      </c>
-      <c r="D4" t="s">
-        <v>134</v>
-      </c>
-      <c r="F4" t="s">
-        <v>17</v>
-      </c>
-      <c r="G4" t="s">
-        <v>111</v>
-      </c>
-      <c r="H4" t="s">
-        <v>114</v>
-      </c>
-      <c r="I4" t="s">
-        <v>122</v>
-      </c>
-      <c r="K4" t="s">
-        <v>116</v>
-      </c>
-      <c r="L4" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>123</v>
-      </c>
-      <c r="C5" t="s">
-        <v>134</v>
-      </c>
-      <c r="D5" t="s">
-        <v>133</v>
-      </c>
-      <c r="F5" t="s">
-        <v>17</v>
-      </c>
-      <c r="G5" t="s">
-        <v>111</v>
-      </c>
-      <c r="H5" t="s">
-        <v>114</v>
-      </c>
-      <c r="I5" t="s">
-        <v>125</v>
-      </c>
-      <c r="K5" t="s">
-        <v>116</v>
-      </c>
-      <c r="L5" t="s">
-        <v>126</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>